--- a/Progress.Diary.xlsx
+++ b/Progress.Diary.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glori\OneDrive\Dokumente\Studium\Projektmodul_Start\Unterlagen Chatbots\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DACBEA6B-534E-4F7E-90C4-EAD9FBFBB075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
   <si>
     <t>Progress Diary</t>
   </si>
@@ -34,9 +43,6 @@
     <t>Was ich gelernt habe</t>
   </si>
   <si>
-    <t>Research ist mehr Arbeit als ich dachte, GitHub ist ein cooles Tool</t>
-  </si>
-  <si>
     <t>Research macht Spass</t>
   </si>
   <si>
@@ -46,9 +52,6 @@
     <t>Mein persönlicher Beitrag</t>
   </si>
   <si>
-    <t>Desk Research: 15 Webseiten durchforstet (siehe Seite zu Sprint 0), Wiki Seite im GitHub Repository eingerichtet</t>
-  </si>
-  <si>
     <t>Leiter der Abteilung XYZ angerufen (Ergebnis siehe Miro Board), Gespräch dokumentiert</t>
   </si>
   <si>
@@ -61,9 +64,6 @@
     <t>Meine Impediments</t>
   </si>
   <si>
-    <t>keine</t>
-  </si>
-  <si>
     <t>es ist schwierig Leute am Telefon zu erreichen</t>
   </si>
   <si>
@@ -77,45 +77,44 @@
   </si>
   <si>
     <t>Week 3</t>
+  </si>
+  <si>
+    <t>Gloria Bichler</t>
+  </si>
+  <si>
+    <t>Coden ist sehr viel try and error und Online nach Problemllösungen suchen (Websites, Youtube Videos)</t>
+  </si>
+  <si>
+    <t>Mich in CSS, Gradio eingearbeitet mit Websites und Youtube Videos und im Anschluss die im Voraus erstellten Designanforderungen implementiert im Code + Den Hintergrund mit einem "Step&amp;Repeat Pattern Image Generator erstellt +  BrandBoard erstellt in Canva (Übersicht zu den Logos, die Farbauswahl, Typografie) + 11 Logos Designed in Canva und Brand Identity erstellt</t>
+  </si>
+  <si>
+    <t>Es war absolut stressig und das Zeitmanagement muss besser werden bei mir :)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="16"/>
       <color indexed="9"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -133,6 +132,11 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F2328"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -156,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -269,142 +273,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffdb7e40"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffc000"/>
-      <rgbColor rgb="ffffd965"/>
-      <rgbColor rgb="ff1f2328"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFDB7E40"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFFD965"/>
+      <rgbColor rgb="FF1F2328"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -530,7 +593,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -539,7 +602,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -548,7 +611,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -622,7 +685,7 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -630,7 +693,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -648,7 +711,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -677,7 +740,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -702,7 +765,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -727,7 +790,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -752,7 +815,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -777,7 +840,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -802,7 +865,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -827,7 +890,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -852,7 +915,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -877,7 +940,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -890,9 +953,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -907,7 +976,7 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -915,7 +984,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -933,7 +1002,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -958,7 +1027,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -983,7 +1052,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1008,7 +1077,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1033,7 +1102,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1058,7 +1127,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1083,7 +1152,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1108,7 +1177,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1133,7 +1202,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1158,7 +1227,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1171,9 +1240,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1187,7 +1262,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1205,7 +1280,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1234,7 +1309,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1259,7 +1334,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1284,7 +1359,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1309,7 +1384,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1334,7 +1409,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1359,7 +1434,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1384,7 +1459,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1409,7 +1484,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1434,7 +1509,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1447,459 +1522,468 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.3333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="23.33203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.6719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6719" style="1" customWidth="1"/>
-    <col min="3" max="4" width="23.3516" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="23.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="23.33203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="23.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
+    <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" ht="14.6" customHeight="1">
+    <row r="3" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" ht="39.5" customHeight="1">
-      <c r="A4" t="s" s="8">
+    <row r="4" spans="1:4" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="9">
+      <c r="B4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" ht="14.6" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" t="s" s="12">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="63.75" customHeight="1">
-      <c r="A6" t="s" s="8">
+    <row r="6" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s" s="13">
+      <c r="B6" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s" s="13">
+      <c r="D6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s" s="13">
+    </row>
+    <row r="7" spans="1:4" ht="184.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" ht="96" customHeight="1">
-      <c r="A7" t="s" s="8">
+      <c r="B7" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s" s="14">
+      <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s" s="14">
+    </row>
+    <row r="8" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s" s="14">
+      <c r="B8" s="13">
+        <v>600</v>
+      </c>
+      <c r="C8" s="13">
+        <v>30</v>
+      </c>
+      <c r="D8" s="13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" ht="14.6" customHeight="1">
-      <c r="A8" t="s" s="8">
+      <c r="B9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="15">
-        <v>70</v>
-      </c>
-      <c r="C8" s="15">
-        <v>30</v>
-      </c>
-      <c r="D8" s="15">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" ht="25.5" customHeight="1">
-      <c r="A9" t="s" s="8">
+      <c r="D9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s" s="14">
+    </row>
+    <row r="10" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" t="s" s="14">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s" s="14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" ht="14.6" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" t="s" s="6">
-        <v>19</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" ht="14.6" customHeight="1">
-      <c r="A12" t="s" s="18">
+    <row r="12" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-    </row>
-    <row r="13" ht="14.6" customHeight="1">
-      <c r="A13" s="21"/>
-      <c r="B13" t="s" s="22">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C13" t="s" s="22">
+      <c r="C13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D13" t="s" s="22">
+      <c r="D13" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" ht="14.6" customHeight="1">
-      <c r="A14" t="s" s="18">
+    <row r="14" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B14" t="s" s="23">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s" s="23">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s" s="23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" ht="14.6" customHeight="1">
-      <c r="A15" t="s" s="18">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s" s="23">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s" s="23">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s" s="23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" ht="14.6" customHeight="1">
-      <c r="A16" t="s" s="18">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s" s="23">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s" s="23">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s" s="23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" ht="14.6" customHeight="1">
-      <c r="A17" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s" s="23">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s" s="23">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s" s="23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-    </row>
-    <row r="19" ht="14.6" customHeight="1">
-      <c r="A19" s="26"/>
-      <c r="B19" t="s" s="27">
-        <v>21</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-    </row>
-    <row r="20" ht="14.6" customHeight="1">
-      <c r="A20" t="s" s="18">
+      <c r="B14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-    </row>
-    <row r="21" ht="14.6" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" t="s" s="22">
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C21" t="s" s="22">
+      <c r="C21" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D21" t="s" s="22">
+      <c r="D21" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" ht="14.6" customHeight="1">
-      <c r="A22" t="s" s="18">
+    <row r="22" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-    </row>
-    <row r="23" ht="14.6" customHeight="1">
-      <c r="A23" t="s" s="18">
-        <v>10</v>
-      </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-    </row>
-    <row r="24" ht="14.6" customHeight="1">
-      <c r="A24" t="s" s="18">
-        <v>14</v>
-      </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-    </row>
-    <row r="25" ht="14.6" customHeight="1">
-      <c r="A25" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-    </row>
-    <row r="27" ht="14.6" customHeight="1">
-      <c r="A27" s="26"/>
-      <c r="B27" t="s" s="27">
-        <v>21</v>
-      </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-    </row>
-    <row r="28" ht="14.6" customHeight="1">
-      <c r="A28" t="s" s="18">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+    </row>
+    <row r="25" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+    </row>
+    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+    </row>
+    <row r="28" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-    </row>
-    <row r="29" ht="14.6" customHeight="1">
-      <c r="A29" s="21"/>
-      <c r="B29" t="s" s="22">
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+    </row>
+    <row r="29" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C29" t="s" s="22">
+      <c r="C29" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D29" t="s" s="22">
+      <c r="D29" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" ht="14.6" customHeight="1">
-      <c r="A30" t="s" s="18">
+    <row r="30" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-    </row>
-    <row r="31" ht="14.6" customHeight="1">
-      <c r="A31" t="s" s="18">
-        <v>10</v>
-      </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-    </row>
-    <row r="32" ht="14.6" customHeight="1">
-      <c r="A32" t="s" s="18">
-        <v>14</v>
-      </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-    </row>
-    <row r="33" ht="14.6" customHeight="1">
-      <c r="A33" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-    </row>
-    <row r="34" ht="13.55" customHeight="1">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-    </row>
-    <row r="35" ht="14.6" customHeight="1">
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="31" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+    </row>
+    <row r="32" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+    </row>
+    <row r="33" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+    </row>
+    <row r="34" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="30"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" ht="13.55" customHeight="1">
+    <row r="36" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" ht="14.6" customHeight="1">
-      <c r="A37" s="31"/>
+    <row r="37" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="27"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
       <c r="D37" s="32"/>
     </row>
-    <row r="38" ht="14.6" customHeight="1">
-      <c r="A38" s="31"/>
+    <row r="38" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="27"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" ht="14.6" customHeight="1">
-      <c r="A39" s="31"/>
+    <row r="39" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="27"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" ht="14.6" customHeight="1">
-      <c r="A40" s="31"/>
+    <row r="40" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="27"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" ht="14.6" customHeight="1">
-      <c r="A41" s="31"/>
+    <row r="41" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="27"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" ht="13.55" customHeight="1">
+    <row r="42" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" ht="14.6" customHeight="1">
+    <row r="43" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
-      <c r="B43" s="30"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" ht="13.55" customHeight="1">
+    <row r="44" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" ht="14.6" customHeight="1">
-      <c r="A45" s="31"/>
+    <row r="45" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="27"/>
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
       <c r="D45" s="32"/>
     </row>
-    <row r="46" ht="14.6" customHeight="1">
-      <c r="A46" s="31"/>
+    <row r="46" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="27"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" ht="14.6" customHeight="1">
-      <c r="A47" s="31"/>
+    <row r="47" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="27"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" ht="14.6" customHeight="1">
-      <c r="A48" s="31"/>
+    <row r="48" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="27"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" ht="14.6" customHeight="1">
-      <c r="A49" s="31"/>
+    <row r="49" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="27"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B45:D45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Progress.Diary.xlsx
+++ b/Progress.Diary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glori\OneDrive\Dokumente\Studium\Projektmodul_Start\Unterlagen Chatbots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisabott/Desktop/uni/2023:24_id/105_projektmodul-start/team-10-pressedbot-main 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DACBEA6B-534E-4F7E-90C4-EAD9FBFBB075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575840DA-5B8C-5040-8C3E-25BF7E69741E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="33600" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
   <si>
     <t>Progress Diary</t>
   </si>
@@ -43,18 +43,12 @@
     <t>Was ich gelernt habe</t>
   </si>
   <si>
-    <t>Research macht Spass</t>
-  </si>
-  <si>
     <t>Was RSS-Feeds sind und wie man einen Scrapper baut, um diese von einer Seite “herunter zu ziehen” und in einer .txt-Datei zu speichern</t>
   </si>
   <si>
     <t>Mein persönlicher Beitrag</t>
   </si>
   <si>
-    <t>Leiter der Abteilung XYZ angerufen (Ergebnis siehe Miro Board), Gespräch dokumentiert</t>
-  </si>
-  <si>
     <t>Texte für Nachrichtenquellen suchen und als .pdf und .txt abspeichern. Implementierung und Test &gt; hat nicht funktioniert &gt; Fehlersuche. Scrapper für RSS-Feeds gebaut und getestet. Präsentation für Sprint 0 Review gebaut</t>
   </si>
   <si>
@@ -64,9 +58,6 @@
     <t>Meine Impediments</t>
   </si>
   <si>
-    <t>es ist schwierig Leute am Telefon zu erreichen</t>
-  </si>
-  <si>
     <t>Der Grund, warum etwas nicht funktioniert, ist manchmal ziemlich banal</t>
   </si>
   <si>
@@ -89,13 +80,25 @@
   </si>
   <si>
     <t>Es war absolut stressig und das Zeitmanagement muss besser werden bei mir :)</t>
+  </si>
+  <si>
+    <t>Lisa Bott</t>
+  </si>
+  <si>
+    <t>Wie man die Persönlichkeit des Chatbots und/oder Nutzer an das Branding anpassen kann und Designentschei-dungen abwägen muss</t>
+  </si>
+  <si>
+    <t>Angeschaut woraus Branding aufgebaut ist, Keywords für Brand-Personality aufgeschrieben &amp; Farb-schema, Logo, Icon, Hintergrund/Muster, Schriftarten herausgesucht/ erstellt und ein Mockup für die Implementierung der Design-Vorlage gemacht. Story für zwei Storyboards mit Personas ausgedacht und erstellt.</t>
+  </si>
+  <si>
+    <t>Eine gute Zeiteinteilung kann sehr viel Stress reduzieren.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -138,6 +141,18 @@
       <sz val="10"/>
       <color rgb="FF1F2328"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -292,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -363,6 +378,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -375,10 +396,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1543,11 +1567,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="23.33203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="23.33203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" style="1" customWidth="1"/>
@@ -1555,7 +1579,7 @@
     <col min="6" max="16384" width="23.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1563,13 +1587,13 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -1577,107 +1601,107 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-    </row>
-    <row r="5" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>20</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="182" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="184.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="B7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="12" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="B8" s="13">
         <v>600</v>
       </c>
       <c r="C8" s="13">
-        <v>30</v>
+        <v>450</v>
       </c>
       <c r="D8" s="13">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="42" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>23</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
     </row>
-    <row r="11" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-    </row>
-    <row r="13" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="18" t="s">
         <v>4</v>
@@ -1689,85 +1713,85 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
     </row>
-    <row r="19" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22"/>
       <c r="B19" s="23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-    </row>
-    <row r="21" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="18" t="s">
         <v>4</v>
@@ -1779,7 +1803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>6</v>
       </c>
@@ -1787,53 +1811,53 @@
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
     </row>
-    <row r="23" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
     </row>
-    <row r="24" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
     </row>
-    <row r="25" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
     </row>
-    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
     </row>
-    <row r="27" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
       <c r="B27" s="23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
     </row>
-    <row r="28" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-    </row>
-    <row r="29" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+    </row>
+    <row r="29" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
       <c r="B29" s="18" t="s">
         <v>4</v>
@@ -1845,7 +1869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>6</v>
       </c>
@@ -1853,121 +1877,121 @@
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
     </row>
-    <row r="31" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
     </row>
-    <row r="32" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
     </row>
-    <row r="33" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
     </row>
-    <row r="34" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
     </row>
-    <row r="35" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="26"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-    </row>
-    <row r="38" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+    </row>
+    <row r="38" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="26"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-    </row>
-    <row r="46" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+    </row>
+    <row r="46" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>

--- a/Progress.Diary.xlsx
+++ b/Progress.Diary.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisabott/Desktop/uni/2023:24_id/105_projektmodul-start/team-10-pressedbot-main 3/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575840DA-5B8C-5040-8C3E-25BF7E69741E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="33600" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Progress Diary</t>
   </si>
@@ -34,90 +25,118 @@
     <t>Sprint 0 abschließen: Chatbot implementieren (Anpassung UI und Quellen zum Nachrichten Thema), Sprint 0 Review: Research Ergebnisse zusammenfassen und Präsentation bauen</t>
   </si>
   <si>
+    <t>Gloria Bichler</t>
+  </si>
+  <si>
+    <t>Lisa Bott</t>
+  </si>
+  <si>
+    <t>Marcia Perez</t>
+  </si>
+  <si>
+    <t>Was ich gelernt habe</t>
+  </si>
+  <si>
+    <t>Coden ist sehr viel try and error und Online nach Problemllösungen suchen (Websites, Youtube Videos)</t>
+  </si>
+  <si>
+    <t>Wie man die Persönlichkeit des Chatbots und/oder Nutzer an das Branding anpassen kann und Designentschei-dungen abwägen muss</t>
+  </si>
+  <si>
+    <t>Was RSS-Feeds sind und wie man einen Scrapper baut, um diese von einer Seite “herunter zu ziehen” und in einer .txt-Datei zu speichern</t>
+  </si>
+  <si>
+    <t>Mein persönlicher Beitrag</t>
+  </si>
+  <si>
+    <t>Mich in CSS, Gradio eingearbeitet mit Websites und Youtube Videos und im Anschluss die im Voraus erstellten Designanforderungen implementiert im Code + Den Hintergrund mit einem "Step&amp;Repeat Pattern Image Generator erstellt +  BrandBoard erstellt in Canva (Übersicht zu den Logos, die Farbauswahl, Typografie) + 11 Logos Designed in Canva und Brand Identity erstellt</t>
+  </si>
+  <si>
+    <t>Angeschaut woraus Branding aufgebaut ist, Keywords für Brand-Personality aufgeschrieben &amp; Farb-schema, Logo, Icon, Hintergrund/Muster, Schriftarten herausgesucht/ erstellt und ein Mockup für die Implementierung der Design-Vorlage gemacht. Story für zwei Storyboards mit Personas ausgedacht und erstellt.</t>
+  </si>
+  <si>
+    <t>Texte für Nachrichtenquellen suchen und als .pdf und .txt abspeichern. Implementierung und Test &gt; hat nicht funktioniert &gt; Fehlersuche. Scrapper für RSS-Feeds gebaut und getestet. Präsentation für Sprint 0 Review gebaut</t>
+  </si>
+  <si>
+    <t>Mein zeitlicher Aufwand (in Minuten)</t>
+  </si>
+  <si>
+    <t>Meine Impediments</t>
+  </si>
+  <si>
+    <t>Es war absolut stressig und das Zeitmanagement muss besser werden bei mir :)</t>
+  </si>
+  <si>
+    <t>Eine gute Zeiteinteilung kann sehr viel Stress reduzieren.</t>
+  </si>
+  <si>
+    <t>Der Grund, warum etwas nicht funktioniert, ist manchmal ziemlich banal</t>
+  </si>
+  <si>
+    <t>Week 48</t>
+  </si>
+  <si>
+    <t>Github beherrschen und benutzen. Code aufräumen. Chatbot Scope und Identität nachschärfen.</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Marcia Perez</t>
-  </si>
-  <si>
-    <t>Was ich gelernt habe</t>
-  </si>
-  <si>
-    <t>Was RSS-Feeds sind und wie man einen Scrapper baut, um diese von einer Seite “herunter zu ziehen” und in einer .txt-Datei zu speichern</t>
-  </si>
-  <si>
-    <t>Mein persönlicher Beitrag</t>
-  </si>
-  <si>
-    <t>Texte für Nachrichtenquellen suchen und als .pdf und .txt abspeichern. Implementierung und Test &gt; hat nicht funktioniert &gt; Fehlersuche. Scrapper für RSS-Feeds gebaut und getestet. Präsentation für Sprint 0 Review gebaut</t>
-  </si>
-  <si>
-    <t>Mein zeitlicher Aufwand (in Minuten)</t>
-  </si>
-  <si>
-    <t>Meine Impediments</t>
-  </si>
-  <si>
-    <t>Der Grund, warum etwas nicht funktioniert, ist manchmal ziemlich banal</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>Wie man Github verwendet. Dass wir nochmal genau überlegen sollten, welchen Mehrwert unser Chatbot liefern sollte.</t>
+  </si>
+  <si>
+    <t>Brainstorming zu möglichen Chatbot-Namen. Design möglicher Icons/Mascots.</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Icons gehen einem nicht so leicht von der Hand. Der Mehrwert einer Idee ist vielleicht doch nicht so klar, wie man zuerst dachte.</t>
+  </si>
+  <si>
     <t>Week 3</t>
-  </si>
-  <si>
-    <t>Gloria Bichler</t>
-  </si>
-  <si>
-    <t>Coden ist sehr viel try and error und Online nach Problemllösungen suchen (Websites, Youtube Videos)</t>
-  </si>
-  <si>
-    <t>Mich in CSS, Gradio eingearbeitet mit Websites und Youtube Videos und im Anschluss die im Voraus erstellten Designanforderungen implementiert im Code + Den Hintergrund mit einem "Step&amp;Repeat Pattern Image Generator erstellt +  BrandBoard erstellt in Canva (Übersicht zu den Logos, die Farbauswahl, Typografie) + 11 Logos Designed in Canva und Brand Identity erstellt</t>
-  </si>
-  <si>
-    <t>Es war absolut stressig und das Zeitmanagement muss besser werden bei mir :)</t>
-  </si>
-  <si>
-    <t>Lisa Bott</t>
-  </si>
-  <si>
-    <t>Wie man die Persönlichkeit des Chatbots und/oder Nutzer an das Branding anpassen kann und Designentschei-dungen abwägen muss</t>
-  </si>
-  <si>
-    <t>Angeschaut woraus Branding aufgebaut ist, Keywords für Brand-Personality aufgeschrieben &amp; Farb-schema, Logo, Icon, Hintergrund/Muster, Schriftarten herausgesucht/ erstellt und ein Mockup für die Implementierung der Design-Vorlage gemacht. Story für zwei Storyboards mit Personas ausgedacht und erstellt.</t>
-  </si>
-  <si>
-    <t>Eine gute Zeiteinteilung kann sehr viel Stress reduzieren.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="16"/>
       <color indexed="9"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -136,23 +155,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF1F2328"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -175,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -196,6 +198,30 @@
       <bottom style="thin">
         <color indexed="11"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -275,6 +301,17 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="11"/>
       </left>
       <right style="thin">
@@ -290,208 +327,171 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="11"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="39">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFDB7E40"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFFD965"/>
-      <rgbColor rgb="FF1F2328"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffdb7e40"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffffc000"/>
+      <rgbColor rgb="ffffd965"/>
+      <rgbColor rgb="ff1f2328"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -617,7 +617,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -626,7 +626,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -635,9 +635,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -701,15 +701,15 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -717,7 +717,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -735,19 +735,19 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -764,7 +764,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -789,7 +789,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -814,7 +814,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -839,7 +839,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -864,7 +864,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -889,7 +889,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -914,7 +914,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -939,7 +939,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -964,7 +964,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -977,38 +977,32 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1026,7 +1020,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1051,7 +1045,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1076,7 +1070,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1101,7 +1095,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1126,7 +1120,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1151,7 +1145,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1176,7 +1170,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1201,7 +1195,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1226,7 +1220,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1251,7 +1245,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1264,15 +1258,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1286,7 +1274,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1304,19 +1292,19 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1333,7 +1321,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1358,7 +1346,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1383,7 +1371,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1408,7 +1396,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1433,7 +1421,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1458,7 +1446,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1483,7 +1471,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1508,7 +1496,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1533,7 +1521,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1546,456 +1534,498 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D49"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="23.33203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="23.3333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="23.33203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="23.33203125" style="1"/>
+    <col min="1" max="1" width="45.6719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6719" style="1" customWidth="1"/>
+    <col min="3" max="5" width="23.3516" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="23.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1">
+      <c r="A2" s="5"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" ht="14.5" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" t="s" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" ht="39.5" customHeight="1">
+      <c r="A4" t="s" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" t="s" s="11">
         <v>3</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-    </row>
-    <row r="5" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" ht="14.5" customHeight="1">
+      <c r="A5" s="13"/>
+      <c r="B5" t="s" s="14">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s" s="14">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" ht="63.75" customHeight="1">
+      <c r="A6" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s" s="16">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="16">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s" s="16">
+        <v>10</v>
+      </c>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" ht="182" customHeight="1">
+      <c r="A7" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s" s="17">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="17">
+        <v>14</v>
+      </c>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" ht="14.5" customHeight="1">
+      <c r="A8" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="B8" s="18">
+        <v>600</v>
+      </c>
+      <c r="C8" s="18">
+        <v>450</v>
+      </c>
+      <c r="D8" s="18">
+        <v>500</v>
+      </c>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" ht="42" customHeight="1">
+      <c r="A9" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="B9" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s" s="17">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s" s="17">
+        <v>19</v>
+      </c>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" ht="13.5" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" ht="14.5" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" t="s" s="8">
         <v>20</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" ht="26.6" customHeight="1">
+      <c r="A12" t="s" s="21">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s" s="22">
+        <v>21</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" ht="14.5" customHeight="1">
+      <c r="A13" s="24"/>
+      <c r="B13" t="s" s="25">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s" s="25">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s" s="25">
         <v>6</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" ht="62.6" customHeight="1">
+      <c r="A14" t="s" s="21">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="182" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="36" t="s">
+      <c r="B14" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" ht="50.6" customHeight="1">
+      <c r="A15" t="s" s="21">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" ht="14.5" customHeight="1">
+      <c r="A16" t="s" s="21">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s" s="27">
+        <v>26</v>
+      </c>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" ht="62.6" customHeight="1">
+      <c r="A17" t="s" s="21">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s" s="26">
+        <v>27</v>
+      </c>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" ht="14.5" customHeight="1">
+      <c r="A19" s="30"/>
+      <c r="B19" t="s" s="31">
+        <v>28</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" ht="14.5" customHeight="1">
+      <c r="A20" t="s" s="21">
+        <v>2</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" ht="14.5" customHeight="1">
+      <c r="A21" s="24"/>
+      <c r="B21" t="s" s="25">
         <v>22</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="13">
-        <v>600</v>
-      </c>
-      <c r="C8" s="13">
-        <v>450</v>
-      </c>
-      <c r="D8" s="13">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="42" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="C21" t="s" s="25">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s" s="25">
+        <v>22</v>
+      </c>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" ht="14.5" customHeight="1">
+      <c r="A22" t="s" s="21">
+        <v>7</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" ht="14.5" customHeight="1">
+      <c r="A23" t="s" s="21">
         <v>11</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" ht="14.5" customHeight="1">
+      <c r="A24" t="s" s="21">
+        <v>15</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" ht="14.5" customHeight="1">
+      <c r="A25" t="s" s="21">
+        <v>16</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" ht="14.5" customHeight="1">
+      <c r="A27" s="30"/>
+      <c r="B27" t="s" s="31">
+        <v>28</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" ht="14.5" customHeight="1">
+      <c r="A28" t="s" s="21">
         <v>2</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-    </row>
-    <row r="13" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="B28" s="33"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" ht="14.5" customHeight="1">
+      <c r="A29" s="24"/>
+      <c r="B29" t="s" s="25">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s" s="25">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s" s="25">
+        <v>22</v>
+      </c>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" ht="14.5" customHeight="1">
+      <c r="A30" t="s" s="21">
+        <v>7</v>
+      </c>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" ht="14.5" customHeight="1">
+      <c r="A31" t="s" s="21">
         <v>11</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23" t="s">
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" ht="14.5" customHeight="1">
+      <c r="A32" t="s" s="21">
         <v>15</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-    </row>
-    <row r="21" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-    </row>
-    <row r="23" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-    </row>
-    <row r="24" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-    </row>
-    <row r="25" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-    </row>
-    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-    </row>
-    <row r="28" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-    </row>
-    <row r="29" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-    </row>
-    <row r="31" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-    </row>
-    <row r="32" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-    </row>
-    <row r="33" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-    </row>
-    <row r="34" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-    </row>
-    <row r="35" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="26"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" ht="14.5" customHeight="1">
+      <c r="A33" t="s" s="21">
+        <v>16</v>
+      </c>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" ht="13.5" customHeight="1">
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" ht="14.5" customHeight="1">
+      <c r="A35" s="5"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" ht="13.5" customHeight="1">
+      <c r="A36" s="5"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="27"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-    </row>
-    <row r="38" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="27"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" ht="14.5" customHeight="1">
+      <c r="A37" s="36"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" ht="14.5" customHeight="1">
+      <c r="A38" s="36"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="27"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" ht="14.5" customHeight="1">
+      <c r="A39" s="36"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="27"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" ht="14.5" customHeight="1">
+      <c r="A40" s="36"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="27"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" ht="14.5" customHeight="1">
+      <c r="A41" s="36"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" ht="13.5" customHeight="1">
+      <c r="A42" s="5"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="26"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" ht="14.5" customHeight="1">
+      <c r="A43" s="5"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" ht="13.5" customHeight="1">
+      <c r="A44" s="5"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="27"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-    </row>
-    <row r="46" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="27"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" ht="14.5" customHeight="1">
+      <c r="A45" s="36"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" ht="14.5" customHeight="1">
+      <c r="A46" s="36"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="27"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" ht="14.5" customHeight="1">
+      <c r="A47" s="36"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="27"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" ht="14.5" customHeight="1">
+      <c r="A48" s="36"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="27"/>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" ht="14.5" customHeight="1">
+      <c r="A49" s="36"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
+      <c r="E49" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2007,7 +2037,7 @@
     <mergeCell ref="B37:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Progress.Diary.xlsx
+++ b/Progress.Diary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>Progress Diary</t>
   </si>
@@ -97,7 +97,34 @@
     <t>Icons gehen einem nicht so leicht von der Hand. Der Mehrwert einer Idee ist vielleicht doch nicht so klar, wie man zuerst dachte.</t>
   </si>
   <si>
-    <t>Week 3</t>
+    <t>Week 49</t>
+  </si>
+  <si>
+    <t>Chatbot-Charakter entwickeln, Anpassung der Gradio Blocks / des UI</t>
+  </si>
+  <si>
+    <t>Die Charaktereigenschaften, die wir uns für den Chatbot überlegt haben, können mittels Prompt Engineering im Code umgesetzt werden. Mit Gradio Blocks teilt man die Chatbot-Oberfläche in Rows und Columns auf und fügt beliebige Elemente hinzu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ergänzende Beiträge zu Conversation Design Canvas/Worksheet, Chatbot Personality/Tone-of-Voice. Gestaltung und Implementierung von Avataren für User und Chatbot. </t>
+  </si>
+  <si>
+    <t>Ich muss mich mit Prompt Engineering befassen. Gradio Blocks erlauben ein individuelleres Styling des Chatbots.</t>
+  </si>
+  <si>
+    <t>Week 50</t>
+  </si>
+  <si>
+    <t>Finalisierung von Sprint1: Github Issues verwenden, Prompt Engineering, CSS anpassen, Themenauswahl über Dropdown Menü, Zugriff auf gescrapte Daten, Vorbereitung des Sprint 1 Review, Aktualisierung des Wiki</t>
+  </si>
+  <si>
+    <t>Gescrapte Daten verwenden, um documents anzulegen, auf die der Chatbot zugreift und um dem User einen Überblick über die aktuellen Schlagzeilen zu geben. Chatbot-Charakter und Tone-of-Voice über Prompt Engineering vorgeben. Llama-Index-Versionen werden oft erneuert.</t>
+  </si>
+  <si>
+    <t>Scraping Funktion in main.py eingesetzt, Prompt Engineering, Analogie-Text verfasst, Präsentation vorbereitet</t>
+  </si>
+  <si>
+    <t>Ich muss mich mehr mit den Dokumentationen zu Llama-Index und Gradio befassen. Ohne Maxi wären wir aufgeschmissen.</t>
   </si>
 </sst>
 </file>
@@ -344,7 +371,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -444,11 +471,14 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
@@ -1787,7 +1817,9 @@
       <c r="A20" t="s" s="21">
         <v>2</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" t="s" s="33">
+        <v>29</v>
+      </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
       <c r="E20" s="6"/>
@@ -1805,22 +1837,26 @@
       </c>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" ht="14.5" customHeight="1">
+    <row r="22" ht="134.6" customHeight="1">
       <c r="A22" t="s" s="21">
         <v>7</v>
       </c>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
+      <c r="D22" t="s" s="26">
+        <v>30</v>
+      </c>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" ht="14.5" customHeight="1">
+    <row r="23" ht="98.6" customHeight="1">
       <c r="A23" t="s" s="21">
         <v>11</v>
       </c>
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="D23" t="s" s="26">
+        <v>31</v>
+      </c>
       <c r="E23" s="15"/>
     </row>
     <row r="24" ht="14.5" customHeight="1">
@@ -1829,16 +1865,20 @@
       </c>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
+      <c r="D24" s="35">
+        <v>120</v>
+      </c>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" ht="14.5" customHeight="1">
+    <row r="25" ht="62.6" customHeight="1">
       <c r="A25" t="s" s="21">
         <v>16</v>
       </c>
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
+      <c r="D25" t="s" s="26">
+        <v>32</v>
+      </c>
       <c r="E25" s="15"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
@@ -1851,17 +1891,19 @@
     <row r="27" ht="14.5" customHeight="1">
       <c r="A27" s="30"/>
       <c r="B27" t="s" s="31">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C27" s="32"/>
       <c r="D27" s="32"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" ht="14.5" customHeight="1">
+    <row r="28" ht="38.6" customHeight="1">
       <c r="A28" t="s" s="21">
         <v>2</v>
       </c>
-      <c r="B28" s="33"/>
+      <c r="B28" t="s" s="22">
+        <v>34</v>
+      </c>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
       <c r="E28" s="6"/>
@@ -1879,22 +1921,26 @@
       </c>
       <c r="E29" s="15"/>
     </row>
-    <row r="30" ht="14.5" customHeight="1">
+    <row r="30" ht="146.6" customHeight="1">
       <c r="A30" t="s" s="21">
         <v>7</v>
       </c>
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
+      <c r="D30" t="s" s="26">
+        <v>35</v>
+      </c>
       <c r="E30" s="15"/>
     </row>
-    <row r="31" ht="14.5" customHeight="1">
+    <row r="31" ht="62.6" customHeight="1">
       <c r="A31" t="s" s="21">
         <v>11</v>
       </c>
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
+      <c r="D31" t="s" s="26">
+        <v>36</v>
+      </c>
       <c r="E31" s="15"/>
     </row>
     <row r="32" ht="14.5" customHeight="1">
@@ -1903,16 +1949,20 @@
       </c>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
+      <c r="D32" s="35">
+        <v>600</v>
+      </c>
       <c r="E32" s="15"/>
     </row>
-    <row r="33" ht="14.5" customHeight="1">
+    <row r="33" ht="62.6" customHeight="1">
       <c r="A33" t="s" s="21">
         <v>16</v>
       </c>
       <c r="B33" s="34"/>
       <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
+      <c r="D33" t="s" s="26">
+        <v>37</v>
+      </c>
       <c r="E33" s="15"/>
     </row>
     <row r="34" ht="13.5" customHeight="1">
@@ -1924,7 +1974,7 @@
     </row>
     <row r="35" ht="14.5" customHeight="1">
       <c r="A35" s="5"/>
-      <c r="B35" s="35"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="6"/>
@@ -1937,35 +1987,35 @@
       <c r="E36" s="6"/>
     </row>
     <row r="37" ht="14.5" customHeight="1">
-      <c r="A37" s="36"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="6"/>
     </row>
     <row r="38" ht="14.5" customHeight="1">
-      <c r="A38" s="36"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39" ht="14.5" customHeight="1">
-      <c r="A39" s="36"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="6"/>
     </row>
     <row r="40" ht="14.5" customHeight="1">
-      <c r="A40" s="36"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" ht="14.5" customHeight="1">
-      <c r="A41" s="36"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1980,7 +2030,7 @@
     </row>
     <row r="43" ht="14.5" customHeight="1">
       <c r="A43" s="5"/>
-      <c r="B43" s="35"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="6"/>
@@ -1993,39 +2043,39 @@
       <c r="E44" s="6"/>
     </row>
     <row r="45" ht="14.5" customHeight="1">
-      <c r="A45" s="36"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
       <c r="E45" s="6"/>
     </row>
     <row r="46" ht="14.5" customHeight="1">
-      <c r="A46" s="36"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="6"/>
     </row>
     <row r="47" ht="14.5" customHeight="1">
-      <c r="A47" s="36"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="6"/>
     </row>
     <row r="48" ht="14.5" customHeight="1">
-      <c r="A48" s="36"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="6"/>
     </row>
     <row r="49" ht="14.5" customHeight="1">
-      <c r="A49" s="36"/>
+      <c r="A49" s="37"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="38"/>
+      <c r="E49" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Progress.Diary.xlsx
+++ b/Progress.Diary.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisabott/Desktop/uni/2023:24_id/105_projektmodul-start/team-10-whatson/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F8C3D7-5E75-654C-88FC-1049DC11228E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="33600" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>Progress Diary</t>
   </si>
@@ -40,9 +49,6 @@
     <t>Coden ist sehr viel try and error und Online nach Problemllösungen suchen (Websites, Youtube Videos)</t>
   </si>
   <si>
-    <t>Wie man die Persönlichkeit des Chatbots und/oder Nutzer an das Branding anpassen kann und Designentschei-dungen abwägen muss</t>
-  </si>
-  <si>
     <t>Was RSS-Feeds sind und wie man einen Scrapper baut, um diese von einer Seite “herunter zu ziehen” und in einer .txt-Datei zu speichern</t>
   </si>
   <si>
@@ -91,9 +97,6 @@
     <t>Brainstorming zu möglichen Chatbot-Namen. Design möglicher Icons/Mascots.</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
     <t>Icons gehen einem nicht so leicht von der Hand. Der Mehrwert einer Idee ist vielleicht doch nicht so klar, wie man zuerst dachte.</t>
   </si>
   <si>
@@ -125,45 +128,62 @@
   </si>
   <si>
     <t>Ich muss mich mehr mit den Dokumentationen zu Llama-Index und Gradio befassen. Ohne Maxi wären wir aufgeschmissen.</t>
+  </si>
+  <si>
+    <t>Brainstorming zu sowohl Chatbot-Namen als auch Chatbot-Logos. Recherche zu Branding von verschiedenen News- und Chatbot-Diensten</t>
+  </si>
+  <si>
+    <t>GitHub besser kennengelernt. Dass man genau schauen sollte wie man was gestaltet und solche Entscheidungen nicht nur nach Gefühl und "das sieht schön aus" trifft</t>
+  </si>
+  <si>
+    <t>Besonders wenn der Name und Charakter noch nicht feststeht ist es schwierig Icons zu erstellen und weitere Design-Entscheidungen zu treffen</t>
+  </si>
+  <si>
+    <t>Wie man mit Gradio Blocks das Chat-Interface nach seinen Wünschen anpassen kann und wie css für die Gestaltung genutzt wird. Welche Blöcke als Input, und welche als Output genutzt werden und weitere Funktionen die mit dem Chatbot helfen können</t>
+  </si>
+  <si>
+    <t>Gestaltung von Avataren, Logo und User bzw. Chatbot-Icon. Anpassung von Design und den Gradio-Blocks bis zum Layout</t>
+  </si>
+  <si>
+    <t>Die Gestaltung ist zwar ein wichtiger Bestandteil des Chatbots, solange jedoch der Chatbot noch nicht läuft wird das Design nebensächlich sein. Ich sollte mich deshalb nicht nur auf einen Teil des Projekts konzentrieren sondern ebenfalls andere Bereiche kennenlernen.</t>
+  </si>
+  <si>
+    <t>Wie man die Persönlichkeit des Chatbots und/oder Nutzer an das Branding anpassen kann und Designentscheidungen abwägen muss</t>
+  </si>
+  <si>
+    <t>Grundlegende Struktur eines -auf ChatGPT- besierendem Chatbot verstanden, Zugreifen auf einzelne Elemente oder Elementgruppen mithilfe von Styles. Aufrufen und Verwendung von gescrapten Dokumenten im Chatbot.</t>
+  </si>
+  <si>
+    <t>Design umgeworfen und neu etabliert, in diesem Feinheiten verändert, Gradio Blocks angepasst und Präsentation vorbereitet</t>
+  </si>
+  <si>
+    <t>Ich kenne mich zwar mit Themes, css und dem Aufbau gut aus, jedoch mit Llama-index und OpenAI sehr viel weniger. Dies muss ich unbedingt ändern!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="16"/>
       <color indexed="9"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -182,6 +202,18 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -367,161 +399,203 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="43">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffdb7e40"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffc000"/>
-      <rgbColor rgb="ffffd965"/>
-      <rgbColor rgb="ff1f2328"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFDB7E40"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFFD965"/>
+      <rgbColor rgb="FF1F2328"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -647,7 +721,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -656,7 +730,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -665,7 +739,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -739,7 +813,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -747,7 +821,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -765,7 +839,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -794,7 +868,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -819,7 +893,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -844,7 +918,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -869,7 +943,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -894,7 +968,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -919,7 +993,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -944,7 +1018,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -969,7 +1043,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -994,7 +1068,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1007,9 +1081,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1024,7 +1104,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1032,7 +1112,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1050,7 +1130,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1075,7 +1155,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1100,7 +1180,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1125,7 +1205,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1150,7 +1230,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1175,7 +1255,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1200,7 +1280,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1225,7 +1305,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1250,7 +1330,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1275,7 +1355,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1288,9 +1368,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1304,7 +1390,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1322,7 +1408,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1351,7 +1437,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1376,7 +1462,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1401,7 +1487,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1426,7 +1512,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1451,7 +1537,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1476,7 +1562,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1501,7 +1587,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1526,7 +1612,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1551,7 +1637,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1564,32 +1650,41 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.3333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="23.33203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.6719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6719" style="1" customWidth="1"/>
-    <col min="3" max="5" width="23.3516" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="23.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="23.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="23.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1597,485 +1692,501 @@
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" ht="14.5" customHeight="1">
+    <row r="3" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" ht="39.5" customHeight="1">
-      <c r="A4" t="s" s="10">
+    <row r="4" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="11">
+      <c r="B4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" ht="14.5" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" t="s" s="14">
+    <row r="5" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="14">
+      <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="14">
+      <c r="D5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" ht="63.75" customHeight="1">
-      <c r="A6" t="s" s="10">
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s" s="16">
+      <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s" s="16">
+      <c r="C6" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s" s="16">
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" ht="182" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" ht="182" customHeight="1">
-      <c r="A7" t="s" s="10">
+      <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s" s="16">
+      <c r="C7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s" s="17">
+      <c r="D7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s" s="17">
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" ht="14.5" customHeight="1">
-      <c r="A8" t="s" s="10">
+      <c r="B8" s="16">
+        <v>600</v>
+      </c>
+      <c r="C8" s="16">
+        <v>450</v>
+      </c>
+      <c r="D8" s="16">
+        <v>500</v>
+      </c>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="18">
-        <v>600</v>
-      </c>
-      <c r="C8" s="18">
-        <v>450</v>
-      </c>
-      <c r="D8" s="18">
-        <v>500</v>
-      </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" ht="42" customHeight="1">
-      <c r="A9" t="s" s="10">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s" s="17">
+      <c r="C9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s" s="17">
+      <c r="D9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s" s="17">
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" ht="14.5" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" t="s" s="8">
-        <v>20</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" ht="26.6" customHeight="1">
-      <c r="A12" t="s" s="21">
+    <row r="12" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B12" t="s" s="22">
+      <c r="B12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" ht="14.5" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" t="s" s="25">
+      <c r="C13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" ht="62.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s" s="25">
+      <c r="C14" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" ht="50.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D13" t="s" s="25">
-        <v>6</v>
-      </c>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" ht="62.6" customHeight="1">
-      <c r="A14" t="s" s="21">
+      <c r="C15" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="29">
+        <v>200</v>
+      </c>
+      <c r="D16" s="29">
+        <v>200</v>
+      </c>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" ht="62.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5" ht="134.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B14" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s" s="26">
-        <v>24</v>
-      </c>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" ht="50.6" customHeight="1">
-      <c r="A15" t="s" s="21">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" ht="14.5" customHeight="1">
-      <c r="A16" t="s" s="21">
+      <c r="B22" s="28"/>
+      <c r="C22" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" ht="98.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28">
+        <v>500</v>
+      </c>
+      <c r="D24" s="29">
+        <v>120</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" ht="62.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s" s="27">
-        <v>26</v>
-      </c>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" ht="62.6" customHeight="1">
-      <c r="A17" t="s" s="21">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s" s="26">
-        <v>27</v>
-      </c>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" ht="14.5" customHeight="1">
-      <c r="A19" s="30"/>
-      <c r="B19" t="s" s="31">
-        <v>28</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" ht="14.5" customHeight="1">
-      <c r="A20" t="s" s="21">
+      <c r="B25" s="28"/>
+      <c r="C25" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" ht="38.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B20" t="s" s="33">
-        <v>29</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" ht="14.5" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" t="s" s="25">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s" s="25">
-        <v>22</v>
-      </c>
-      <c r="D21" t="s" s="25">
-        <v>22</v>
-      </c>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" ht="134.6" customHeight="1">
-      <c r="A22" t="s" s="21">
+      <c r="B28" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="20"/>
+      <c r="B29" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:5" ht="146.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" t="s" s="26">
-        <v>30</v>
-      </c>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" ht="98.6" customHeight="1">
-      <c r="A23" t="s" s="21">
-        <v>11</v>
-      </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" t="s" s="26">
-        <v>31</v>
-      </c>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" ht="14.5" customHeight="1">
-      <c r="A24" t="s" s="21">
+      <c r="B30" s="28"/>
+      <c r="C30" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:5" ht="62.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="42">
+        <v>600</v>
+      </c>
+      <c r="D32" s="29">
+        <v>600</v>
+      </c>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="1:5" ht="62.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35">
-        <v>120</v>
-      </c>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" ht="62.6" customHeight="1">
-      <c r="A25" t="s" s="21">
-        <v>16</v>
-      </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" t="s" s="26">
-        <v>32</v>
-      </c>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" ht="14.5" customHeight="1">
-      <c r="A27" s="30"/>
-      <c r="B27" t="s" s="31">
-        <v>33</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" ht="38.6" customHeight="1">
-      <c r="A28" t="s" s="21">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s" s="22">
-        <v>34</v>
-      </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" ht="14.5" customHeight="1">
-      <c r="A29" s="24"/>
-      <c r="B29" t="s" s="25">
-        <v>22</v>
-      </c>
-      <c r="C29" t="s" s="25">
-        <v>22</v>
-      </c>
-      <c r="D29" t="s" s="25">
-        <v>22</v>
-      </c>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" ht="146.6" customHeight="1">
-      <c r="A30" t="s" s="21">
-        <v>7</v>
-      </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" t="s" s="26">
+      <c r="B33" s="28"/>
+      <c r="C33" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" ht="62.6" customHeight="1">
-      <c r="A31" t="s" s="21">
-        <v>11</v>
-      </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" t="s" s="26">
-        <v>36</v>
-      </c>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" ht="14.5" customHeight="1">
-      <c r="A32" t="s" s="21">
-        <v>15</v>
-      </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="35">
-        <v>600</v>
-      </c>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" ht="62.6" customHeight="1">
-      <c r="A33" t="s" s="21">
-        <v>16</v>
-      </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" t="s" s="26">
-        <v>37</v>
-      </c>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" ht="14.5" customHeight="1">
+    <row r="35" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
-      <c r="B35" s="36"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" ht="13.5" customHeight="1">
+    <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" ht="14.5" customHeight="1">
-      <c r="A37" s="37"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
+    <row r="37" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="31"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" ht="14.5" customHeight="1">
-      <c r="A38" s="37"/>
+    <row r="38" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="31"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" ht="14.5" customHeight="1">
-      <c r="A39" s="37"/>
+    <row r="39" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="31"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" ht="14.5" customHeight="1">
-      <c r="A40" s="37"/>
+    <row r="40" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="31"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" ht="14.5" customHeight="1">
-      <c r="A41" s="37"/>
+    <row r="41" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="31"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" ht="13.5" customHeight="1">
+    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" ht="14.5" customHeight="1">
+    <row r="43" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
-      <c r="B43" s="36"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" ht="13.5" customHeight="1">
+    <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" ht="14.5" customHeight="1">
-      <c r="A45" s="37"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
+    <row r="45" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="31"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" ht="14.5" customHeight="1">
-      <c r="A46" s="37"/>
+    <row r="46" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="31"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" ht="14.5" customHeight="1">
-      <c r="A47" s="37"/>
+    <row r="47" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="31"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" ht="14.5" customHeight="1">
-      <c r="A48" s="37"/>
+    <row r="48" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="31"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" ht="14.5" customHeight="1">
-      <c r="A49" s="37"/>
+    <row r="49" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="31"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="39"/>
+      <c r="E49" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2087,7 +2198,7 @@
     <mergeCell ref="B37:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Progress.Diary.xlsx
+++ b/Progress.Diary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisabott/Desktop/uni/2023:24_id/105_projektmodul-start/team-10-whatson/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glori\team-10-whatson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F8C3D7-5E75-654C-88FC-1049DC11228E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EF3E8C-342D-41B7-8A55-DCDB12BB5026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="33600" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>Progress Diary</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Wie man Github verwendet. Dass wir nochmal genau überlegen sollten, welchen Mehrwert unser Chatbot liefern sollte.</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t>Brainstorming zu sowohl Chatbot-Namen als auch Chatbot-Logos. Recherche zu Branding von verschiedenen News- und Chatbot-Diensten</t>
   </si>
   <si>
-    <t>GitHub besser kennengelernt. Dass man genau schauen sollte wie man was gestaltet und solche Entscheidungen nicht nur nach Gefühl und "das sieht schön aus" trifft</t>
-  </si>
-  <si>
     <t>Besonders wenn der Name und Charakter noch nicht feststeht ist es schwierig Icons zu erstellen und weitere Design-Entscheidungen zu treffen</t>
   </si>
   <si>
@@ -158,6 +152,36 @@
   </si>
   <si>
     <t>Ich kenne mich zwar mit Themes, css und dem Aufbau gut aus, jedoch mit Llama-index und OpenAI sehr viel weniger. Dies muss ich unbedingt ändern!!</t>
+  </si>
+  <si>
+    <t>Icon Design ist eine komplexe Arbeit bei der man alle Aspekte durchleuchten muss und sich am Besten ein Konzept erstellt um strukturiert die Aufgabe zu lösen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie man Github verwendet, wie man Vektorart macht (Also Kunst in Adobe Illustrator zu machen) und hab allgemein viel über Illustrator dazugelernt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich habe ein neues User Icon erstellt und das bereits bestehende Chatbot Icon in Illustrator erneuert. Beide Icons habe ich anschließend in den Code imp+C14lime+C14ntiert,  </t>
+  </si>
+  <si>
+    <t>Conversation Design Canvas/Worksheet, Chatbot Personality/Tone-of-Voice ausgefüllt, In Firefly Maskottchen generieren lassen, ein Maskottchen/Avatar erstellt (zuerst skizziert in Procreate und anschließend in Vektorart gestaltet)</t>
+  </si>
+  <si>
+    <t>Mir ist bewusst geworden, dass man anhand des Designs Dinge erreicht, die allein mit der Informatik nicht erreichbar sind (z.B. Individualisierung, Wiedererkennungswert, ...) Außerdem ist mir aufgefallen, dass man sich im ersten Moment "produktiver" fühlt, wenn man Programmiert, doch das Design benötigt genau so viel Zuwendung, da Ideen und Konzepte erst mit der Zeit reifen und gut werden können</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meine Kenntnisse in CSS-Code vertieft, Meine Kenntnisse in Github Befehlen (push, pull, …) verbessert, mich über "HuggingFaces" informiert, sowie meine Kenntnisse zu Gradio Blocks vertieft </t>
+  </si>
+  <si>
+    <t>Das ich erst am Anfang meiner Programierreise bin (der Termin mit Maxi war sehr Aufschlussreich, das noch viel Platz nach oben ist)</t>
+  </si>
+  <si>
+    <t>Die Unterlagen, die Marcia in Git hochgeladen hat in den Chatbot implementiert und den vollständig funktionierenden Chatbot in Git hochgeladen,  mich in Brand Icon erstellen eingearbeitet (Websites + YouTube) und mit dem Wissen ein Konzept geschrieben für das Icon Design, dann 11 Icons entworfen, das Miro-Board formatiert/geordnet und all meine Logos + Icons hinzugefügt</t>
+  </si>
+  <si>
+    <t>Icons zu entwerfen ist ein laufender und aufeinander aufbauender Prozess, bei dem man sich von Icon zu Icon verbessert, das Zeitmanagement war besser durchdacht und somit weniger Stress gehabt</t>
+  </si>
+  <si>
+    <t>Ich habe ein neues User Icon erstellt und das bereits bestehende Chatbot Icon in Illustrator erneuert. Beide Icons habe ich anschließend in den Code implimentiert, ich habe versucht den Submit Button kleiner zu machen mit CSS Code. Dann habe ich es noch mit HuggingFace und Gradio Blocks probiert. Wiki gemacht für Sprint 1 und Miro Board vervollständigt, Präsentation erstellt</t>
   </si>
 </sst>
 </file>
@@ -479,6 +503,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -496,18 +532,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1671,11 +1695,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="23.33203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="23.33203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" style="1" customWidth="1"/>
@@ -1683,7 +1707,7 @@
     <col min="7" max="16384" width="23.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1692,14 +1716,14 @@
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>1</v>
@@ -1708,18 +1732,18 @@
       <c r="D3" s="9"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>4</v>
@@ -1732,22 +1756,22 @@
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="41" t="s">
-        <v>42</v>
+      <c r="C6" s="35" t="s">
+        <v>40</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:5" ht="182" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1762,7 +1786,7 @@
       </c>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -1777,7 +1801,7 @@
       </c>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
@@ -1792,14 +1816,14 @@
       </c>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
         <v>19</v>
@@ -1808,18 +1832,18 @@
       <c r="D11" s="9"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="21" t="s">
         <v>21</v>
@@ -1832,42 +1856,42 @@
       </c>
       <c r="E13" s="13"/>
     </row>
-    <row r="14" spans="1:5" ht="62.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>23</v>
-      </c>
       <c r="E14" s="13"/>
     </row>
-    <row r="15" spans="1:5" ht="50.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>36</v>
+        <v>51</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>35</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="13"/>
     </row>
-    <row r="16" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>22</v>
+      <c r="B16" s="29">
+        <v>420</v>
       </c>
       <c r="C16" s="29">
         <v>200</v>
@@ -1877,49 +1901,49 @@
       </c>
       <c r="E16" s="13"/>
     </row>
-    <row r="17" spans="1:5" ht="62.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>38</v>
+        <v>52</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>36</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="13"/>
     </row>
-    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25"/>
       <c r="B19" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
+      <c r="B20" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="21" t="s">
         <v>21</v>
@@ -1932,38 +1956,44 @@
       </c>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="1:5" ht="134.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="40" t="s">
-        <v>39</v>
+      <c r="B22" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>37</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="1:5" ht="98.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="138" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="40" t="s">
-        <v>40</v>
+      <c r="B23" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>38</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" s="13"/>
     </row>
-    <row r="24" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28">
+      <c r="B24" s="36">
+        <v>330</v>
+      </c>
+      <c r="C24" s="36">
         <v>500</v>
       </c>
       <c r="D24" s="29">
@@ -1971,47 +2001,49 @@
       </c>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="1:5" ht="62.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="40" t="s">
-        <v>41</v>
+      <c r="B25" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>39</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25"/>
       <c r="B27" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" ht="38.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
+      <c r="B28" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
       <c r="B29" s="21" t="s">
         <v>21</v>
@@ -2024,38 +2056,44 @@
       </c>
       <c r="E29" s="13"/>
     </row>
-    <row r="30" spans="1:5" ht="146.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="40" t="s">
-        <v>43</v>
+      <c r="B30" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>41</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30" s="13"/>
     </row>
-    <row r="31" spans="1:5" ht="62.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="40" t="s">
-        <v>44</v>
+      <c r="B31" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>42</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" s="13"/>
     </row>
-    <row r="32" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="42">
+      <c r="B32" s="36">
+        <v>600</v>
+      </c>
+      <c r="C32" s="36">
         <v>600</v>
       </c>
       <c r="D32" s="29">
@@ -2063,125 +2101,127 @@
       </c>
       <c r="E32" s="13"/>
     </row>
-    <row r="33" spans="1:5" ht="62.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="40" t="s">
-        <v>45</v>
+      <c r="B33" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>43</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E33" s="13"/>
     </row>
-    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="30"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="31"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="31"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="31"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="31"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="31"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="30"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="31"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="31"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="31"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="31"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="31"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>

--- a/Progress.Diary.xlsx
+++ b/Progress.Diary.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glori\team-10-whatson\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EF3E8C-342D-41B7-8A55-DCDB12BB5026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>Progress Diary</t>
   </si>
@@ -49,6 +40,9 @@
     <t>Coden ist sehr viel try and error und Online nach Problemllösungen suchen (Websites, Youtube Videos)</t>
   </si>
   <si>
+    <t>Wie man die Persönlichkeit des Chatbots und/oder Nutzer an das Branding anpassen kann und Designentscheidungen abwägen muss</t>
+  </si>
+  <si>
     <t>Was RSS-Feeds sind und wie man einen Scrapper baut, um diese von einer Seite “herunter zu ziehen” und in einer .txt-Datei zu speichern</t>
   </si>
   <si>
@@ -88,12 +82,30 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Icon Design ist eine komplexe Arbeit bei der man alle Aspekte durchleuchten muss und sich am Besten ein Konzept erstellt um strukturiert die Aufgabe zu lösen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich habe ein neues User Icon erstellt und das bereits bestehende Chatbot Icon in Illustrator erneuert. Beide Icons habe ich anschließend in den Code imp+C14lime+C14ntiert,  </t>
+  </si>
+  <si>
     <t>Wie man Github verwendet. Dass wir nochmal genau überlegen sollten, welchen Mehrwert unser Chatbot liefern sollte.</t>
   </si>
   <si>
+    <t>Die Unterlagen, die Marcia in Git hochgeladen hat in den Chatbot implementiert und den vollständig funktionierenden Chatbot in Git hochgeladen,  mich in Brand Icon erstellen eingearbeitet (Websites + YouTube) und mit dem Wissen ein Konzept geschrieben für das Icon Design, dann 11 Icons entworfen, das Miro-Board formatiert/geordnet und all meine Logos + Icons hinzugefügt</t>
+  </si>
+  <si>
+    <t>Brainstorming zu sowohl Chatbot-Namen als auch Chatbot-Logos. Recherche zu Branding von verschiedenen News- und Chatbot-Diensten</t>
+  </si>
+  <si>
     <t>Brainstorming zu möglichen Chatbot-Namen. Design möglicher Icons/Mascots.</t>
   </si>
   <si>
+    <t>Icons zu entwerfen ist ein laufender und aufeinander aufbauender Prozess, bei dem man sich von Icon zu Icon verbessert, das Zeitmanagement war besser durchdacht und somit weniger Stress gehabt</t>
+  </si>
+  <si>
+    <t>Besonders wenn der Name und Charakter noch nicht feststeht ist es schwierig Icons zu erstellen und weitere Design-Entscheidungen zu treffen</t>
+  </si>
+  <si>
     <t>Icons gehen einem nicht so leicht von der Hand. Der Mehrwert einer Idee ist vielleicht doch nicht so klar, wie man zuerst dachte.</t>
   </si>
   <si>
@@ -103,12 +115,30 @@
     <t>Chatbot-Charakter entwickeln, Anpassung der Gradio Blocks / des UI</t>
   </si>
   <si>
+    <t xml:space="preserve">Wie man Github verwendet, wie man Vektorart macht (Also Kunst in Adobe Illustrator zu machen) und hab allgemein viel über Illustrator dazugelernt </t>
+  </si>
+  <si>
+    <t>Wie man mit Gradio Blocks das Chat-Interface nach seinen Wünschen anpassen kann und wie css für die Gestaltung genutzt wird. Welche Blöcke als Input, und welche als Output genutzt werden und weitere Funktionen die mit dem Chatbot helfen können</t>
+  </si>
+  <si>
     <t>Die Charaktereigenschaften, die wir uns für den Chatbot überlegt haben, können mittels Prompt Engineering im Code umgesetzt werden. Mit Gradio Blocks teilt man die Chatbot-Oberfläche in Rows und Columns auf und fügt beliebige Elemente hinzu.</t>
   </si>
   <si>
+    <t>Conversation Design Canvas/Worksheet, Chatbot Personality/Tone-of-Voice ausgefüllt, In Firefly Maskottchen generieren lassen, ein Maskottchen/Avatar erstellt (zuerst skizziert in Procreate und anschließend in Vektorart gestaltet)</t>
+  </si>
+  <si>
+    <t>Gestaltung von Avataren, Logo und User bzw. Chatbot-Icon. Anpassung von Design und den Gradio-Blocks bis zum Layout</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ergänzende Beiträge zu Conversation Design Canvas/Worksheet, Chatbot Personality/Tone-of-Voice. Gestaltung und Implementierung von Avataren für User und Chatbot. </t>
   </si>
   <si>
+    <t>Mir ist bewusst geworden, dass man anhand des Designs Dinge erreicht, die allein mit der Informatik nicht erreichbar sind (z.B. Individualisierung, Wiedererkennungswert, ...) Außerdem ist mir aufgefallen, dass man sich im ersten Moment "produktiver" fühlt, wenn man Programmiert, doch das Design benötigt genau so viel Zuwendung, da Ideen und Konzepte erst mit der Zeit reifen und gut werden können</t>
+  </si>
+  <si>
+    <t>Die Gestaltung ist zwar ein wichtiger Bestandteil des Chatbots, solange jedoch der Chatbot noch nicht läuft wird das Design nebensächlich sein. Ich sollte mich deshalb nicht nur auf einen Teil des Projekts konzentrieren sondern ebenfalls andere Bereiche kennenlernen.</t>
+  </si>
+  <si>
     <t>Ich muss mich mit Prompt Engineering befassen. Gradio Blocks erlauben ein individuelleres Styling des Chatbots.</t>
   </si>
   <si>
@@ -118,96 +148,128 @@
     <t>Finalisierung von Sprint1: Github Issues verwenden, Prompt Engineering, CSS anpassen, Themenauswahl über Dropdown Menü, Zugriff auf gescrapte Daten, Vorbereitung des Sprint 1 Review, Aktualisierung des Wiki</t>
   </si>
   <si>
+    <t xml:space="preserve">Meine Kenntnisse in CSS-Code vertieft, Meine Kenntnisse in Github Befehlen (push, pull, …) verbessert, mich über "HuggingFaces" informiert, sowie meine Kenntnisse zu Gradio Blocks vertieft </t>
+  </si>
+  <si>
+    <t>Grundlegende Struktur eines -auf ChatGPT- besierendem Chatbot verstanden, Zugreifen auf einzelne Elemente oder Elementgruppen mithilfe von Styles. Aufrufen und Verwendung von gescrapten Dokumenten im Chatbot.</t>
+  </si>
+  <si>
     <t>Gescrapte Daten verwenden, um documents anzulegen, auf die der Chatbot zugreift und um dem User einen Überblick über die aktuellen Schlagzeilen zu geben. Chatbot-Charakter und Tone-of-Voice über Prompt Engineering vorgeben. Llama-Index-Versionen werden oft erneuert.</t>
   </si>
   <si>
+    <t>Ich habe ein neues User Icon erstellt und das bereits bestehende Chatbot Icon in Illustrator erneuert. Beide Icons habe ich anschließend in den Code implimentiert, ich habe versucht den Submit Button kleiner zu machen mit CSS Code. Dann habe ich es noch mit HuggingFace und Gradio Blocks probiert. Wiki gemacht für Sprint 1 und Miro Board vervollständigt, Präsentation erstellt</t>
+  </si>
+  <si>
+    <t>Design umgeworfen und neu etabliert, in diesem Feinheiten verändert, Gradio Blocks angepasst und Präsentation vorbereitet</t>
+  </si>
+  <si>
     <t>Scraping Funktion in main.py eingesetzt, Prompt Engineering, Analogie-Text verfasst, Präsentation vorbereitet</t>
   </si>
   <si>
+    <t>Das ich erst am Anfang meiner Programierreise bin (der Termin mit Maxi war sehr Aufschlussreich, das noch viel Platz nach oben ist)</t>
+  </si>
+  <si>
+    <t>Ich kenne mich zwar mit Themes, css und dem Aufbau gut aus, jedoch mit Llama-index und OpenAI sehr viel weniger. Dies muss ich unbedingt ändern!!</t>
+  </si>
+  <si>
     <t>Ich muss mich mehr mit den Dokumentationen zu Llama-Index und Gradio befassen. Ohne Maxi wären wir aufgeschmissen.</t>
   </si>
   <si>
-    <t>Brainstorming zu sowohl Chatbot-Namen als auch Chatbot-Logos. Recherche zu Branding von verschiedenen News- und Chatbot-Diensten</t>
-  </si>
-  <si>
-    <t>Besonders wenn der Name und Charakter noch nicht feststeht ist es schwierig Icons zu erstellen und weitere Design-Entscheidungen zu treffen</t>
-  </si>
-  <si>
-    <t>Wie man mit Gradio Blocks das Chat-Interface nach seinen Wünschen anpassen kann und wie css für die Gestaltung genutzt wird. Welche Blöcke als Input, und welche als Output genutzt werden und weitere Funktionen die mit dem Chatbot helfen können</t>
-  </si>
-  <si>
-    <t>Gestaltung von Avataren, Logo und User bzw. Chatbot-Icon. Anpassung von Design und den Gradio-Blocks bis zum Layout</t>
-  </si>
-  <si>
-    <t>Die Gestaltung ist zwar ein wichtiger Bestandteil des Chatbots, solange jedoch der Chatbot noch nicht läuft wird das Design nebensächlich sein. Ich sollte mich deshalb nicht nur auf einen Teil des Projekts konzentrieren sondern ebenfalls andere Bereiche kennenlernen.</t>
-  </si>
-  <si>
-    <t>Wie man die Persönlichkeit des Chatbots und/oder Nutzer an das Branding anpassen kann und Designentscheidungen abwägen muss</t>
-  </si>
-  <si>
-    <t>Grundlegende Struktur eines -auf ChatGPT- besierendem Chatbot verstanden, Zugreifen auf einzelne Elemente oder Elementgruppen mithilfe von Styles. Aufrufen und Verwendung von gescrapten Dokumenten im Chatbot.</t>
-  </si>
-  <si>
-    <t>Design umgeworfen und neu etabliert, in diesem Feinheiten verändert, Gradio Blocks angepasst und Präsentation vorbereitet</t>
-  </si>
-  <si>
-    <t>Ich kenne mich zwar mit Themes, css und dem Aufbau gut aus, jedoch mit Llama-index und OpenAI sehr viel weniger. Dies muss ich unbedingt ändern!!</t>
-  </si>
-  <si>
-    <t>Icon Design ist eine komplexe Arbeit bei der man alle Aspekte durchleuchten muss und sich am Besten ein Konzept erstellt um strukturiert die Aufgabe zu lösen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wie man Github verwendet, wie man Vektorart macht (Also Kunst in Adobe Illustrator zu machen) und hab allgemein viel über Illustrator dazugelernt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ich habe ein neues User Icon erstellt und das bereits bestehende Chatbot Icon in Illustrator erneuert. Beide Icons habe ich anschließend in den Code imp+C14lime+C14ntiert,  </t>
-  </si>
-  <si>
-    <t>Conversation Design Canvas/Worksheet, Chatbot Personality/Tone-of-Voice ausgefüllt, In Firefly Maskottchen generieren lassen, ein Maskottchen/Avatar erstellt (zuerst skizziert in Procreate und anschließend in Vektorart gestaltet)</t>
-  </si>
-  <si>
-    <t>Mir ist bewusst geworden, dass man anhand des Designs Dinge erreicht, die allein mit der Informatik nicht erreichbar sind (z.B. Individualisierung, Wiedererkennungswert, ...) Außerdem ist mir aufgefallen, dass man sich im ersten Moment "produktiver" fühlt, wenn man Programmiert, doch das Design benötigt genau so viel Zuwendung, da Ideen und Konzepte erst mit der Zeit reifen und gut werden können</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meine Kenntnisse in CSS-Code vertieft, Meine Kenntnisse in Github Befehlen (push, pull, …) verbessert, mich über "HuggingFaces" informiert, sowie meine Kenntnisse zu Gradio Blocks vertieft </t>
-  </si>
-  <si>
-    <t>Das ich erst am Anfang meiner Programierreise bin (der Termin mit Maxi war sehr Aufschlussreich, das noch viel Platz nach oben ist)</t>
-  </si>
-  <si>
-    <t>Die Unterlagen, die Marcia in Git hochgeladen hat in den Chatbot implementiert und den vollständig funktionierenden Chatbot in Git hochgeladen,  mich in Brand Icon erstellen eingearbeitet (Websites + YouTube) und mit dem Wissen ein Konzept geschrieben für das Icon Design, dann 11 Icons entworfen, das Miro-Board formatiert/geordnet und all meine Logos + Icons hinzugefügt</t>
-  </si>
-  <si>
-    <t>Icons zu entwerfen ist ein laufender und aufeinander aufbauender Prozess, bei dem man sich von Icon zu Icon verbessert, das Zeitmanagement war besser durchdacht und somit weniger Stress gehabt</t>
-  </si>
-  <si>
-    <t>Ich habe ein neues User Icon erstellt und das bereits bestehende Chatbot Icon in Illustrator erneuert. Beide Icons habe ich anschließend in den Code implimentiert, ich habe versucht den Submit Button kleiner zu machen mit CSS Code. Dann habe ich es noch mit HuggingFace und Gradio Blocks probiert. Wiki gemacht für Sprint 1 und Miro Board vervollständigt, Präsentation erstellt</t>
+    <t>Week 51</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="15"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>huggingface.co</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Space einrichten</t>
+    </r>
+  </si>
+  <si>
+    <t>Man kann den bisher nur lokal aufrufbaren Chatbot auch für andere Nutzer/Interessierte zur Verfügung stellen, indem man einen Space bei huggingface einrichtet.</t>
+  </si>
+  <si>
+    <t>Account bei huggingface angelegt. app.py und requirements.txt angelegt. Spaces bei huggingface in Augenschein genommen.</t>
+  </si>
+  <si>
+    <t>Mehr über huggingface lernen</t>
+  </si>
+  <si>
+    <t>Week 52</t>
+  </si>
+  <si>
+    <t>Anpassung des CSS im Huggingface Space, Probleme mit OpenAI Tokens</t>
+  </si>
+  <si>
+    <t>Huggingface gibt das UI des Chatbots nicht genauso wieder wir beim lokalen Aufruf des Chatbots. Man sollte im Auge behalten, wie viele Tokens bei der Nutzung des Chatbots verbraucht werden.</t>
+  </si>
+  <si>
+    <t>Versuch mich um das CSS auf huggingface zu kümmern fehlgeschlagen, da Chatbot sich wegen Probleme mit OpenAI nicht mehr öffnen/nutzen ließ.</t>
+  </si>
+  <si>
+    <t>Mehr über OpenAI Tokens lernen. Über sparsameren Chatbot bzgl Tokens nachdenken.</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Code von app.py geändert, Lösungen für Token-Problem überlegen, User Testing</t>
+  </si>
+  <si>
+    <t>app.py geändert: es werden nur noch RSS Feeds von einer Seite abgerufen. Dropdown durch reine Textbox ersetzt.</t>
+  </si>
+  <si>
+    <t>Week 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="16"/>
       <color indexed="9"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -228,16 +290,10 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u val="single"/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="15"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -260,7 +316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -281,30 +337,6 @@
       <bottom style="thin">
         <color indexed="11"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -384,17 +416,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="11"/>
       </left>
       <right style="thin">
@@ -410,12 +431,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="11"/>
       </bottom>
@@ -423,203 +446,150 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="36">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFDB7E40"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFFD965"/>
-      <rgbColor rgb="FF1F2328"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffdb7e40"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffffc000"/>
+      <rgbColor rgb="ffffd965"/>
+      <rgbColor rgb="ff1f2328"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -745,7 +715,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -754,7 +724,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -763,7 +733,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -837,7 +807,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -845,7 +815,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -863,7 +833,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -892,7 +862,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -917,7 +887,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -942,7 +912,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -967,7 +937,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -992,7 +962,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1017,7 +987,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1042,7 +1012,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1067,7 +1037,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1092,7 +1062,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1105,15 +1075,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1128,7 +1092,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1136,7 +1100,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1154,7 +1118,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1179,7 +1143,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1204,7 +1168,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1229,7 +1193,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1254,7 +1218,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1279,7 +1243,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1304,7 +1268,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1329,7 +1293,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1354,7 +1318,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1379,7 +1343,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1392,15 +1356,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1414,7 +1372,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1432,7 +1390,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1461,7 +1419,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1486,7 +1444,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1511,7 +1469,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1536,7 +1494,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1561,7 +1519,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1586,7 +1544,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1611,7 +1569,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1636,7 +1594,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1661,7 +1619,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1674,571 +1632,712 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E49"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="23.33203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="23.3333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="23.33203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="23.33203125" style="1"/>
+    <col min="1" max="1" width="45.6719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6719" style="1" customWidth="1"/>
+    <col min="3" max="4" width="23.3516" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="23.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1">
+      <c r="A2" s="4"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+    </row>
+    <row r="3" ht="14.55" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" ht="39.45" customHeight="1">
+      <c r="A4" t="s" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" t="s" s="9">
         <v>3</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" ht="14.55" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
+      <c r="B5" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+    </row>
+    <row r="6" ht="63.75" customHeight="1">
+      <c r="A6" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" t="s" s="13">
         <v>8</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" t="s" s="13">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="184.8" customHeight="1">
+      <c r="A7" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="13">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="14.55" customHeight="1">
+      <c r="A8" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="B8" s="15">
+        <v>600</v>
+      </c>
+      <c r="C8" s="15">
+        <v>450</v>
+      </c>
+      <c r="D8" s="15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" ht="42" customHeight="1">
+      <c r="A9" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s" s="14">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s" s="14">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s" s="14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" ht="13.5" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" ht="14.55" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" ht="26.55" customHeight="1">
+      <c r="A12" t="s" s="18">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s" s="19">
+        <v>21</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" ht="14.55" customHeight="1">
+      <c r="A13" s="21"/>
+      <c r="B13" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" ht="110.4" customHeight="1">
+      <c r="A14" t="s" s="18">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s" s="23">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s" s="23">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s" s="23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" ht="220.8" customHeight="1">
+      <c r="A15" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s" s="23">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s" s="23">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s" s="23">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" ht="14.55" customHeight="1">
+      <c r="A16" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="B16" s="24">
+        <v>420</v>
+      </c>
+      <c r="C16" s="24">
+        <v>200</v>
+      </c>
+      <c r="D16" s="24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" ht="110.4" customHeight="1">
+      <c r="A17" t="s" s="18">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s" s="23">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s" s="23">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s" s="23">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+    </row>
+    <row r="19" ht="14.55" customHeight="1">
+      <c r="A19" s="27"/>
+      <c r="B19" t="s" s="28">
+        <v>32</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+    </row>
+    <row r="20" ht="14.55" customHeight="1">
+      <c r="A20" t="s" s="18">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s" s="30">
+        <v>33</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" ht="14.55" customHeight="1">
+      <c r="A21" s="21"/>
+      <c r="B21" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" ht="165.6" customHeight="1">
+      <c r="A22" t="s" s="18">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s" s="23">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s" s="23">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s" s="23">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" ht="138" customHeight="1">
+      <c r="A23" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s" s="23">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s" s="23">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s" s="23">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" ht="14.55" customHeight="1">
+      <c r="A24" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="B24" s="24">
+        <v>330</v>
+      </c>
+      <c r="C24" s="24">
+        <v>500</v>
+      </c>
+      <c r="D24" s="24">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" ht="220.8" customHeight="1">
+      <c r="A25" t="s" s="18">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s" s="23">
         <v>40</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" ht="184.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="14" t="s">
+      <c r="C25" t="s" s="23">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s" s="23">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+    </row>
+    <row r="27" ht="14.55" customHeight="1">
+      <c r="A27" s="27"/>
+      <c r="B27" t="s" s="28">
+        <v>43</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+    </row>
+    <row r="28" ht="38.55" customHeight="1">
+      <c r="A28" t="s" s="18">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s" s="19">
+        <v>44</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+    </row>
+    <row r="29" ht="14.55" customHeight="1">
+      <c r="A29" s="21"/>
+      <c r="B29" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" ht="193.2" customHeight="1">
+      <c r="A30" t="s" s="18">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s" s="23">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s" s="23">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s" s="23">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" ht="193.2" customHeight="1">
+      <c r="A31" t="s" s="18">
         <v>11</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="16">
+      <c r="B31" t="s" s="23">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s" s="23">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s" s="23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" ht="14.55" customHeight="1">
+      <c r="A32" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="B32" s="24">
         <v>600</v>
       </c>
-      <c r="C8" s="16">
-        <v>450</v>
-      </c>
-      <c r="D8" s="16">
-        <v>500</v>
-      </c>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="C32" s="24">
+        <v>600</v>
+      </c>
+      <c r="D32" s="24">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" ht="96.6" customHeight="1">
+      <c r="A33" t="s" s="18">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s" s="23">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s" s="23">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s" s="23">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" ht="13.5" customHeight="1">
+      <c r="A34" s="31"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+    </row>
+    <row r="35" ht="14.55" customHeight="1">
+      <c r="A35" s="31"/>
+      <c r="B35" t="s" s="28">
+        <v>54</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+    </row>
+    <row r="36" ht="14.6" customHeight="1">
+      <c r="A36" t="s" s="18">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s" s="19">
+        <v>55</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+    </row>
+    <row r="37" ht="14.55" customHeight="1">
+      <c r="A37" s="21"/>
+      <c r="B37" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" ht="86.6" customHeight="1">
+      <c r="A38" t="s" s="18">
+        <v>7</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" t="s" s="23">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" ht="62.6" customHeight="1">
+      <c r="A39" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" t="s" s="23">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" ht="14.55" customHeight="1">
+      <c r="A40" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="24">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" ht="26.6" customHeight="1">
+      <c r="A41" t="s" s="18">
         <v>16</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" t="s" s="23">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" ht="13.5" customHeight="1">
+      <c r="A42" s="31"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+    </row>
+    <row r="43" ht="14.55" customHeight="1">
+      <c r="A43" s="31"/>
+      <c r="B43" t="s" s="28">
+        <v>59</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+    </row>
+    <row r="44" ht="14.6" customHeight="1">
+      <c r="A44" t="s" s="18">
         <v>2</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="21" t="s">
+      <c r="B44" t="s" s="19">
+        <v>60</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" ht="14.55" customHeight="1">
+      <c r="A45" s="21"/>
+      <c r="B45" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="C45" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="D45" t="s" s="22">
         <v>6</v>
       </c>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="1:5" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+    </row>
+    <row r="46" ht="110.6" customHeight="1">
+      <c r="A46" t="s" s="18">
         <v>7</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="22" t="s">
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" t="s" s="23">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" ht="74.6" customHeight="1">
+      <c r="A47" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" t="s" s="23">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" ht="14.55" customHeight="1">
+      <c r="A48" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="24">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" ht="50.6" customHeight="1">
+      <c r="A49" t="s" s="18">
+        <v>16</v>
+      </c>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" t="s" s="23">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" ht="14.55" customHeight="1">
+      <c r="A50" s="18"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" ht="14.55" customHeight="1">
+      <c r="A51" s="31"/>
+      <c r="B51" t="s" s="28">
+        <v>64</v>
+      </c>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+    </row>
+    <row r="52" ht="14.6" customHeight="1">
+      <c r="A52" t="s" s="18">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s" s="19">
+        <v>65</v>
+      </c>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+    </row>
+    <row r="53" ht="14.55" customHeight="1">
+      <c r="A53" s="21"/>
+      <c r="B53" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:5" ht="220.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="29">
-        <v>420</v>
-      </c>
-      <c r="C16" s="29">
-        <v>200</v>
-      </c>
-      <c r="D16" s="29">
-        <v>200</v>
-      </c>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="C53" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="D53" t="s" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" ht="14.55" customHeight="1">
+      <c r="A54" t="s" s="18">
+        <v>7</v>
+      </c>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+    </row>
+    <row r="55" ht="62.6" customHeight="1">
+      <c r="A55" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" t="s" s="23">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" ht="14.55" customHeight="1">
+      <c r="A56" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="24">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" ht="14.55" customHeight="1">
+      <c r="A57" t="s" s="18">
+        <v>16</v>
+      </c>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+    </row>
+    <row r="58" ht="14.55" customHeight="1">
+      <c r="A58" s="18"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+    </row>
+    <row r="59" ht="14.55" customHeight="1">
+      <c r="A59" s="31"/>
+      <c r="B59" t="s" s="28">
+        <v>67</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+    </row>
+    <row r="60" ht="14.55" customHeight="1">
+      <c r="A60" t="s" s="18">
         <v>2</v>
       </c>
-      <c r="B20" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" spans="1:5" ht="165.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+      <c r="B60" s="34"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" ht="14.55" customHeight="1">
+      <c r="A61" s="21"/>
+      <c r="B61" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="C61" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="D61" t="s" s="22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" ht="14.55" customHeight="1">
+      <c r="A62" t="s" s="18">
         <v>7</v>
       </c>
-      <c r="B22" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" spans="1:5" ht="138" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="36">
-        <v>330</v>
-      </c>
-      <c r="C24" s="36">
-        <v>500</v>
-      </c>
-      <c r="D24" s="29">
-        <v>120</v>
-      </c>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="1:5" ht="220.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+    </row>
+    <row r="63" ht="14.55" customHeight="1">
+      <c r="A63" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+    </row>
+    <row r="64" ht="14.55" customHeight="1">
+      <c r="A64" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="B25" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
-      <c r="B27" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30" spans="1:5" ht="193.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:5" ht="193.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="36">
-        <v>600</v>
-      </c>
-      <c r="C32" s="36">
-        <v>600</v>
-      </c>
-      <c r="D32" s="29">
-        <v>600</v>
-      </c>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="31"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="31"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="31"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="31"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="31"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="6"/>
-    </row>
-    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="31"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="31"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="31"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="31"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="32"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="35"/>
+    </row>
+    <row r="65" ht="14.55" customHeight="1">
+      <c r="A65" t="s" s="18">
+        <v>16</v>
+      </c>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B45:D45"/>
+  <mergeCells count="8">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B60:D60"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B36" r:id="rId1" location="" tooltip="" display="huggingface.co"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Progress.Diary.xlsx
+++ b/Progress.Diary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>Progress Diary</t>
   </si>
@@ -227,10 +227,19 @@
     <t>Code von app.py geändert, Lösungen für Token-Problem überlegen, User Testing</t>
   </si>
   <si>
-    <t>app.py geändert: es werden nur noch RSS Feeds von einer Seite abgerufen. Dropdown durch reine Textbox ersetzt.</t>
+    <t>Vorbereitung eines Usability Testings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app.py geändert: es werden nur noch RSS Feeds von einer Seite abgerufen. Dropdown durch reine Textbox ersetzt. Ausgabe der Headlines begrenzt. Skript für Usability Testing verfasst. </t>
+  </si>
+  <si>
+    <t>Es ist schwer vorauszusagen, wie zeitintensiv der geplante User Test ausfällt. Deshalb muss man überlegen, wie viele und welche Aufgaben man dem Probanden aufgibt.</t>
   </si>
   <si>
     <t>Week 2</t>
+  </si>
+  <si>
+    <t>User Testing und Auswertung der Tests</t>
   </si>
 </sst>
 </file>
@@ -316,7 +325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -337,6 +346,30 @@
       <bottom style="thin">
         <color indexed="11"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -416,6 +449,17 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="11"/>
       </left>
       <right style="thin">
@@ -444,13 +488,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -463,101 +520,110 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1644,7 +1710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1652,8 +1718,8 @@
   <cols>
     <col min="1" max="1" width="45.6719" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.6719" style="1" customWidth="1"/>
-    <col min="3" max="4" width="23.3516" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="23.3516" style="1" customWidth="1"/>
+    <col min="3" max="5" width="23.3516" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="23.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
@@ -1663,664 +1729,735 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="13.5" customHeight="1">
-      <c r="A2" s="4"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="14.55" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" t="s" s="6">
+      <c r="A3" s="7"/>
+      <c r="B3" t="s" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="39.45" customHeight="1">
-      <c r="A4" t="s" s="8">
+      <c r="A4" t="s" s="10">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="9">
+      <c r="B4" t="s" s="11">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="14.55" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" t="s" s="12">
+      <c r="A5" s="13"/>
+      <c r="B5" t="s" s="14">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="14">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="14">
         <v>6</v>
       </c>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" ht="63.75" customHeight="1">
-      <c r="A6" t="s" s="8">
+      <c r="A6" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="B6" t="s" s="13">
+      <c r="B6" t="s" s="16">
         <v>8</v>
       </c>
-      <c r="C6" t="s" s="13">
+      <c r="C6" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="D6" t="s" s="13">
+      <c r="D6" t="s" s="16">
         <v>10</v>
       </c>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" ht="184.8" customHeight="1">
-      <c r="A7" t="s" s="8">
+      <c r="A7" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="B7" t="s" s="13">
+      <c r="B7" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="C7" t="s" s="14">
+      <c r="C7" t="s" s="17">
         <v>13</v>
       </c>
-      <c r="D7" t="s" s="14">
+      <c r="D7" t="s" s="17">
         <v>14</v>
       </c>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" ht="14.55" customHeight="1">
-      <c r="A8" t="s" s="8">
+      <c r="A8" t="s" s="10">
         <v>15</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="18">
         <v>600</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="18">
         <v>450</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="18">
         <v>500</v>
       </c>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" ht="42" customHeight="1">
-      <c r="A9" t="s" s="8">
+      <c r="A9" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="B9" t="s" s="14">
+      <c r="B9" t="s" s="17">
         <v>17</v>
       </c>
-      <c r="C9" t="s" s="14">
+      <c r="C9" t="s" s="17">
         <v>18</v>
       </c>
-      <c r="D9" t="s" s="14">
+      <c r="D9" t="s" s="17">
         <v>19</v>
       </c>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" ht="14.55" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" t="s" s="6">
+      <c r="A11" s="7"/>
+      <c r="B11" t="s" s="8">
         <v>20</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" ht="26.55" customHeight="1">
-      <c r="A12" t="s" s="18">
+      <c r="A12" t="s" s="21">
         <v>2</v>
       </c>
-      <c r="B12" t="s" s="19">
+      <c r="B12" t="s" s="22">
         <v>21</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" ht="14.55" customHeight="1">
-      <c r="A13" s="21"/>
-      <c r="B13" t="s" s="22">
+      <c r="A13" s="24"/>
+      <c r="B13" t="s" s="25">
         <v>22</v>
       </c>
-      <c r="C13" t="s" s="22">
+      <c r="C13" t="s" s="25">
         <v>22</v>
       </c>
-      <c r="D13" t="s" s="22">
+      <c r="D13" t="s" s="25">
         <v>6</v>
       </c>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" ht="110.4" customHeight="1">
-      <c r="A14" t="s" s="18">
+      <c r="A14" t="s" s="21">
         <v>7</v>
       </c>
-      <c r="B14" t="s" s="23">
+      <c r="B14" t="s" s="26">
         <v>23</v>
       </c>
-      <c r="C14" t="s" s="23">
+      <c r="C14" t="s" s="26">
         <v>24</v>
       </c>
-      <c r="D14" t="s" s="23">
+      <c r="D14" t="s" s="26">
         <v>25</v>
       </c>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" ht="220.8" customHeight="1">
-      <c r="A15" t="s" s="18">
+      <c r="A15" t="s" s="21">
         <v>11</v>
       </c>
-      <c r="B15" t="s" s="23">
+      <c r="B15" t="s" s="26">
         <v>26</v>
       </c>
-      <c r="C15" t="s" s="23">
+      <c r="C15" t="s" s="26">
         <v>27</v>
       </c>
-      <c r="D15" t="s" s="23">
+      <c r="D15" t="s" s="26">
         <v>28</v>
       </c>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" ht="14.55" customHeight="1">
-      <c r="A16" t="s" s="18">
+      <c r="A16" t="s" s="21">
         <v>15</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="27">
         <v>420</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="27">
         <v>200</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="27">
         <v>200</v>
       </c>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" ht="110.4" customHeight="1">
-      <c r="A17" t="s" s="18">
+      <c r="A17" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="23">
+      <c r="B17" t="s" s="26">
         <v>29</v>
       </c>
-      <c r="C17" t="s" s="23">
+      <c r="C17" t="s" s="26">
         <v>30</v>
       </c>
-      <c r="D17" t="s" s="23">
+      <c r="D17" t="s" s="26">
         <v>31</v>
       </c>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" ht="14.55" customHeight="1">
-      <c r="A19" s="27"/>
-      <c r="B19" t="s" s="28">
+      <c r="A19" s="30"/>
+      <c r="B19" t="s" s="31">
         <v>32</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" ht="14.55" customHeight="1">
-      <c r="A20" t="s" s="18">
+      <c r="A20" t="s" s="21">
         <v>2</v>
       </c>
-      <c r="B20" t="s" s="30">
+      <c r="B20" t="s" s="33">
         <v>33</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" ht="14.55" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" t="s" s="22">
+      <c r="A21" s="24"/>
+      <c r="B21" t="s" s="25">
         <v>22</v>
       </c>
-      <c r="C21" t="s" s="22">
+      <c r="C21" t="s" s="25">
         <v>22</v>
       </c>
-      <c r="D21" t="s" s="22">
+      <c r="D21" t="s" s="25">
         <v>6</v>
       </c>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" ht="165.6" customHeight="1">
-      <c r="A22" t="s" s="18">
+      <c r="A22" t="s" s="21">
         <v>7</v>
       </c>
-      <c r="B22" t="s" s="23">
+      <c r="B22" t="s" s="26">
         <v>34</v>
       </c>
-      <c r="C22" t="s" s="23">
+      <c r="C22" t="s" s="26">
         <v>35</v>
       </c>
-      <c r="D22" t="s" s="23">
+      <c r="D22" t="s" s="26">
         <v>36</v>
       </c>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" ht="138" customHeight="1">
-      <c r="A23" t="s" s="18">
+      <c r="A23" t="s" s="21">
         <v>11</v>
       </c>
-      <c r="B23" t="s" s="23">
+      <c r="B23" t="s" s="26">
         <v>37</v>
       </c>
-      <c r="C23" t="s" s="23">
+      <c r="C23" t="s" s="26">
         <v>38</v>
       </c>
-      <c r="D23" t="s" s="23">
+      <c r="D23" t="s" s="26">
         <v>39</v>
       </c>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" ht="14.55" customHeight="1">
-      <c r="A24" t="s" s="18">
+      <c r="A24" t="s" s="21">
         <v>15</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="27">
         <v>330</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="27">
         <v>500</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="27">
         <v>120</v>
       </c>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" ht="220.8" customHeight="1">
-      <c r="A25" t="s" s="18">
+      <c r="A25" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="B25" t="s" s="23">
+      <c r="B25" t="s" s="26">
         <v>40</v>
       </c>
-      <c r="C25" t="s" s="23">
+      <c r="C25" t="s" s="26">
         <v>41</v>
       </c>
-      <c r="D25" t="s" s="23">
+      <c r="D25" t="s" s="26">
         <v>42</v>
       </c>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" ht="14.55" customHeight="1">
-      <c r="A27" s="27"/>
-      <c r="B27" t="s" s="28">
+      <c r="A27" s="30"/>
+      <c r="B27" t="s" s="31">
         <v>43</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" ht="38.55" customHeight="1">
-      <c r="A28" t="s" s="18">
+      <c r="A28" t="s" s="21">
         <v>2</v>
       </c>
-      <c r="B28" t="s" s="19">
+      <c r="B28" t="s" s="22">
         <v>44</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" ht="14.55" customHeight="1">
-      <c r="A29" s="21"/>
-      <c r="B29" t="s" s="22">
+      <c r="A29" s="24"/>
+      <c r="B29" t="s" s="25">
         <v>22</v>
       </c>
-      <c r="C29" t="s" s="22">
+      <c r="C29" t="s" s="25">
         <v>22</v>
       </c>
-      <c r="D29" t="s" s="22">
+      <c r="D29" t="s" s="25">
         <v>6</v>
       </c>
+      <c r="E29" s="15"/>
     </row>
     <row r="30" ht="193.2" customHeight="1">
-      <c r="A30" t="s" s="18">
+      <c r="A30" t="s" s="21">
         <v>7</v>
       </c>
-      <c r="B30" t="s" s="23">
+      <c r="B30" t="s" s="26">
         <v>45</v>
       </c>
-      <c r="C30" t="s" s="23">
+      <c r="C30" t="s" s="26">
         <v>46</v>
       </c>
-      <c r="D30" t="s" s="23">
+      <c r="D30" t="s" s="26">
         <v>47</v>
       </c>
+      <c r="E30" s="15"/>
     </row>
     <row r="31" ht="193.2" customHeight="1">
-      <c r="A31" t="s" s="18">
+      <c r="A31" t="s" s="21">
         <v>11</v>
       </c>
-      <c r="B31" t="s" s="23">
+      <c r="B31" t="s" s="26">
         <v>48</v>
       </c>
-      <c r="C31" t="s" s="23">
+      <c r="C31" t="s" s="26">
         <v>49</v>
       </c>
-      <c r="D31" t="s" s="23">
+      <c r="D31" t="s" s="26">
         <v>50</v>
       </c>
+      <c r="E31" s="15"/>
     </row>
     <row r="32" ht="14.55" customHeight="1">
-      <c r="A32" t="s" s="18">
+      <c r="A32" t="s" s="21">
         <v>15</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="27">
         <v>600</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="27">
         <v>600</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="27">
         <v>600</v>
       </c>
+      <c r="E32" s="15"/>
     </row>
     <row r="33" ht="96.6" customHeight="1">
-      <c r="A33" t="s" s="18">
+      <c r="A33" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="B33" t="s" s="23">
+      <c r="B33" t="s" s="26">
         <v>51</v>
       </c>
-      <c r="C33" t="s" s="23">
+      <c r="C33" t="s" s="26">
         <v>52</v>
       </c>
-      <c r="D33" t="s" s="23">
+      <c r="D33" t="s" s="26">
         <v>53</v>
       </c>
+      <c r="E33" s="15"/>
     </row>
     <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="31"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" ht="14.55" customHeight="1">
-      <c r="A35" s="31"/>
-      <c r="B35" t="s" s="28">
+      <c r="A35" s="34"/>
+      <c r="B35" t="s" s="31">
         <v>54</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" ht="14.6" customHeight="1">
-      <c r="A36" t="s" s="18">
+      <c r="A36" t="s" s="21">
         <v>2</v>
       </c>
-      <c r="B36" t="s" s="19">
+      <c r="B36" t="s" s="22">
         <v>55</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" ht="14.55" customHeight="1">
-      <c r="A37" s="21"/>
-      <c r="B37" t="s" s="22">
+      <c r="A37" s="24"/>
+      <c r="B37" t="s" s="25">
         <v>22</v>
       </c>
-      <c r="C37" t="s" s="22">
+      <c r="C37" t="s" s="25">
         <v>22</v>
       </c>
-      <c r="D37" t="s" s="22">
+      <c r="D37" t="s" s="25">
         <v>6</v>
       </c>
+      <c r="E37" s="15"/>
     </row>
     <row r="38" ht="86.6" customHeight="1">
-      <c r="A38" t="s" s="18">
+      <c r="A38" t="s" s="21">
         <v>7</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" t="s" s="23">
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" t="s" s="26">
         <v>56</v>
       </c>
+      <c r="E38" s="15"/>
     </row>
     <row r="39" ht="62.6" customHeight="1">
-      <c r="A39" t="s" s="18">
+      <c r="A39" t="s" s="21">
         <v>11</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" t="s" s="23">
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" t="s" s="26">
         <v>57</v>
       </c>
+      <c r="E39" s="15"/>
     </row>
     <row r="40" ht="14.55" customHeight="1">
-      <c r="A40" t="s" s="18">
+      <c r="A40" t="s" s="21">
         <v>15</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="24">
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="27">
         <v>60</v>
       </c>
+      <c r="E40" s="15"/>
     </row>
     <row r="41" ht="26.6" customHeight="1">
-      <c r="A41" t="s" s="18">
+      <c r="A41" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" t="s" s="23">
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" t="s" s="26">
         <v>58</v>
       </c>
+      <c r="E41" s="15"/>
     </row>
     <row r="42" ht="13.5" customHeight="1">
-      <c r="A42" s="31"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" ht="14.55" customHeight="1">
-      <c r="A43" s="31"/>
-      <c r="B43" t="s" s="28">
+      <c r="A43" s="34"/>
+      <c r="B43" t="s" s="31">
         <v>59</v>
       </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="6"/>
     </row>
     <row r="44" ht="14.6" customHeight="1">
-      <c r="A44" t="s" s="18">
+      <c r="A44" t="s" s="21">
         <v>2</v>
       </c>
-      <c r="B44" t="s" s="19">
+      <c r="B44" t="s" s="22">
         <v>60</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" ht="14.55" customHeight="1">
-      <c r="A45" s="21"/>
-      <c r="B45" t="s" s="22">
+      <c r="A45" s="24"/>
+      <c r="B45" t="s" s="25">
         <v>22</v>
       </c>
-      <c r="C45" t="s" s="22">
+      <c r="C45" t="s" s="25">
         <v>22</v>
       </c>
-      <c r="D45" t="s" s="22">
+      <c r="D45" t="s" s="25">
         <v>6</v>
       </c>
+      <c r="E45" s="15"/>
     </row>
     <row r="46" ht="110.6" customHeight="1">
-      <c r="A46" t="s" s="18">
+      <c r="A46" t="s" s="21">
         <v>7</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" t="s" s="23">
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" t="s" s="26">
         <v>61</v>
       </c>
+      <c r="E46" s="15"/>
     </row>
     <row r="47" ht="74.6" customHeight="1">
-      <c r="A47" t="s" s="18">
+      <c r="A47" t="s" s="21">
         <v>11</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" t="s" s="23">
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" t="s" s="26">
         <v>62</v>
       </c>
+      <c r="E47" s="15"/>
     </row>
     <row r="48" ht="14.55" customHeight="1">
-      <c r="A48" t="s" s="18">
+      <c r="A48" t="s" s="21">
         <v>15</v>
       </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="24">
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="27">
         <v>60</v>
       </c>
+      <c r="E48" s="15"/>
     </row>
     <row r="49" ht="50.6" customHeight="1">
-      <c r="A49" t="s" s="18">
+      <c r="A49" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" t="s" s="23">
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" t="s" s="26">
         <v>63</v>
       </c>
+      <c r="E49" s="15"/>
     </row>
     <row r="50" ht="14.55" customHeight="1">
-      <c r="A50" s="18"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="15"/>
     </row>
     <row r="51" ht="14.55" customHeight="1">
-      <c r="A51" s="31"/>
-      <c r="B51" t="s" s="28">
+      <c r="A51" s="34"/>
+      <c r="B51" t="s" s="31">
         <v>64</v>
       </c>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="6"/>
     </row>
     <row r="52" ht="14.6" customHeight="1">
-      <c r="A52" t="s" s="18">
+      <c r="A52" t="s" s="21">
         <v>2</v>
       </c>
-      <c r="B52" t="s" s="19">
+      <c r="B52" t="s" s="22">
         <v>65</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" ht="14.55" customHeight="1">
-      <c r="A53" s="21"/>
-      <c r="B53" t="s" s="22">
+      <c r="A53" s="24"/>
+      <c r="B53" t="s" s="25">
         <v>22</v>
       </c>
-      <c r="C53" t="s" s="22">
+      <c r="C53" t="s" s="25">
         <v>22</v>
       </c>
-      <c r="D53" t="s" s="22">
+      <c r="D53" t="s" s="25">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" ht="14.55" customHeight="1">
-      <c r="A54" t="s" s="18">
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" ht="26.6" customHeight="1">
+      <c r="A54" t="s" s="21">
         <v>7</v>
       </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-    </row>
-    <row r="55" ht="62.6" customHeight="1">
-      <c r="A55" t="s" s="18">
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" t="s" s="26">
+        <v>66</v>
+      </c>
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" ht="98.6" customHeight="1">
+      <c r="A55" t="s" s="21">
         <v>11</v>
       </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" t="s" s="23">
-        <v>66</v>
-      </c>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" t="s" s="26">
+        <v>67</v>
+      </c>
+      <c r="E55" s="15"/>
     </row>
     <row r="56" ht="14.55" customHeight="1">
-      <c r="A56" t="s" s="18">
+      <c r="A56" t="s" s="21">
         <v>15</v>
       </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="24">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" ht="14.55" customHeight="1">
-      <c r="A57" t="s" s="18">
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="27">
+        <v>240</v>
+      </c>
+      <c r="E56" s="15"/>
+    </row>
+    <row r="57" ht="98.6" customHeight="1">
+      <c r="A57" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" t="s" s="26">
+        <v>68</v>
+      </c>
+      <c r="E57" s="15"/>
     </row>
     <row r="58" ht="14.55" customHeight="1">
-      <c r="A58" s="18"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="15"/>
     </row>
     <row r="59" ht="14.55" customHeight="1">
-      <c r="A59" s="31"/>
-      <c r="B59" t="s" s="28">
-        <v>67</v>
-      </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-    </row>
-    <row r="60" ht="14.55" customHeight="1">
-      <c r="A60" t="s" s="18">
+      <c r="A59" s="34"/>
+      <c r="B59" t="s" s="31">
+        <v>69</v>
+      </c>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" ht="14.6" customHeight="1">
+      <c r="A60" t="s" s="21">
         <v>2</v>
       </c>
-      <c r="B60" s="34"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
+      <c r="B60" t="s" s="22">
+        <v>70</v>
+      </c>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="6"/>
     </row>
     <row r="61" ht="14.55" customHeight="1">
-      <c r="A61" s="21"/>
-      <c r="B61" t="s" s="22">
+      <c r="A61" s="24"/>
+      <c r="B61" t="s" s="25">
         <v>22</v>
       </c>
-      <c r="C61" t="s" s="22">
+      <c r="C61" t="s" s="25">
         <v>22</v>
       </c>
-      <c r="D61" t="s" s="22">
+      <c r="D61" t="s" s="25">
         <v>22</v>
       </c>
+      <c r="E61" s="15"/>
     </row>
     <row r="62" ht="14.55" customHeight="1">
-      <c r="A62" t="s" s="18">
+      <c r="A62" t="s" s="21">
         <v>7</v>
       </c>
-      <c r="B62" s="32"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="15"/>
     </row>
     <row r="63" ht="14.55" customHeight="1">
-      <c r="A63" t="s" s="18">
+      <c r="A63" t="s" s="21">
         <v>11</v>
       </c>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="15"/>
     </row>
     <row r="64" ht="14.55" customHeight="1">
-      <c r="A64" t="s" s="18">
+      <c r="A64" t="s" s="21">
         <v>15</v>
       </c>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="15"/>
     </row>
     <row r="65" ht="14.55" customHeight="1">
-      <c r="A65" t="s" s="18">
+      <c r="A65" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2334,7 +2471,7 @@
     <mergeCell ref="B60:D60"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B36" r:id="rId1" location="" tooltip="" display="huggingface.co"/>
+    <hyperlink ref="B36" r:id="rId1" location="" tooltip="" display="huggingface.co Space einrichten"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/Progress.Diary.xlsx
+++ b/Progress.Diary.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glori\team-10-whatson\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14521AE-7263-4DA2-90F4-4BF5B478B76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
   <si>
     <t>Progress Diary</t>
   </si>
@@ -180,7 +189,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="15"/>
         <rFont val="Arial"/>
@@ -206,9 +215,6 @@
     <t>Mehr über huggingface lernen</t>
   </si>
   <si>
-    <t>Week 52</t>
-  </si>
-  <si>
     <t>Anpassung des CSS im Huggingface Space, Probleme mit OpenAI Tokens</t>
   </si>
   <si>
@@ -221,9 +227,6 @@
     <t>Mehr über OpenAI Tokens lernen. Über sparsameren Chatbot bzgl Tokens nachdenken.</t>
   </si>
   <si>
-    <t>Week 1</t>
-  </si>
-  <si>
     <t>Code von app.py geändert, Lösungen für Token-Problem überlegen, User Testing</t>
   </si>
   <si>
@@ -240,45 +243,65 @@
   </si>
   <si>
     <t>User Testing und Auswertung der Tests</t>
+  </si>
+  <si>
+    <t>Week 52 Ferien</t>
+  </si>
+  <si>
+    <t>Week 1 Ferien</t>
+  </si>
+  <si>
+    <t>Account bei HuggingFace angelegt und die Seite kennengelernt</t>
+  </si>
+  <si>
+    <t>Huggingface besser verstehen und handlen können</t>
+  </si>
+  <si>
+    <t>Wie man in HuggingFace einen Space einrichtet. Außerdem das es zu unterschiedlichen Darstellungen des Chatbots kommen kann, wenn man ihn lokal oder auf HuggingFace öffnet</t>
+  </si>
+  <si>
+    <t>Das unser Chatbot enorm viel Tokens verwendet bei Benutzung. Dies ist zudem sehr teuer und erzeugt hohe Kosten</t>
+  </si>
+  <si>
+    <t>E-Mail Schriftverkehr verfolgt bezüglich der hohen angefallenen Kosten aller Chatbots. In HuggingFace den Space pausiert</t>
+  </si>
+  <si>
+    <t>Beim Zoom Gespräch habe ich gelernt wie der Code von Frau Socher funktioniert und was sie an Code implementiert hat</t>
+  </si>
+  <si>
+    <t>Zoom-Call am 03.01.24 mit Frau Socher und das gesamte Team 10</t>
+  </si>
+  <si>
+    <t>Ich habe gelernt, wie man mir CSS Code einen Button rund machen kann und interaktiv (das er sich verändert, wenn man drüber hovered)</t>
+  </si>
+  <si>
+    <t>bis 4:22 Angefangen um 15:00 mit Thorben, 09.01 bis 01:45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="16"/>
       <color indexed="9"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -299,7 +322,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="15"/>
       <name val="Arial"/>
@@ -503,159 +526,191 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="39">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffdb7e40"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffc000"/>
-      <rgbColor rgb="ffffd965"/>
-      <rgbColor rgb="ff1f2328"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFDB7E40"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFFD965"/>
+      <rgbColor rgb="FF1F2328"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -781,7 +836,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -790,7 +845,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -799,7 +854,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -873,7 +928,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -881,7 +936,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -899,7 +954,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -928,7 +983,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -953,7 +1008,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -978,7 +1033,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1003,7 +1058,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1028,7 +1083,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1053,7 +1108,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1078,7 +1133,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1103,7 +1158,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1128,7 +1183,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1141,9 +1196,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1158,7 +1219,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1166,7 +1227,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1184,7 +1245,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1209,7 +1270,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1234,7 +1295,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1259,7 +1320,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1284,7 +1345,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1309,7 +1370,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1334,7 +1395,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1359,7 +1420,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1384,7 +1445,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1409,7 +1470,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1422,9 +1483,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1438,7 +1505,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1456,7 +1523,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1485,7 +1552,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1510,7 +1577,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1535,7 +1602,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1560,7 +1627,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1585,7 +1652,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1610,7 +1677,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1635,7 +1702,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1660,7 +1727,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1685,7 +1752,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1698,32 +1765,41 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.3333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="23.36328125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.6719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6719" style="1" customWidth="1"/>
-    <col min="3" max="5" width="23.3516" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="23.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6328125" style="1" customWidth="1"/>
+    <col min="3" max="6" width="23.36328125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="23.36328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1731,750 +1807,774 @@
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" ht="14.55" customHeight="1">
+    <row r="3" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" ht="39.45" customHeight="1">
-      <c r="A4" t="s" s="10">
+    <row r="4" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="11">
+      <c r="B4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" ht="14.55" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" t="s" s="14">
+    <row r="5" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="14">
+      <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="14">
+      <c r="D5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" ht="63.75" customHeight="1">
-      <c r="A6" t="s" s="10">
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s" s="16">
+      <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s" s="16">
+      <c r="C6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s" s="16">
+      <c r="D6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" ht="184.8" customHeight="1">
-      <c r="A7" t="s" s="10">
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" ht="184.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s" s="16">
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s" s="17">
+      <c r="C7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s" s="17">
+      <c r="D7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" ht="14.55" customHeight="1">
-      <c r="A8" t="s" s="10">
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="16">
         <v>600</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="16">
         <v>450</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <v>500</v>
       </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" ht="42" customHeight="1">
-      <c r="A9" t="s" s="10">
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s" s="17">
+      <c r="B9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s" s="17">
+      <c r="C9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s" s="17">
+      <c r="D9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" ht="14.55" customHeight="1">
+    <row r="11" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
-      <c r="B11" t="s" s="8">
+      <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" ht="26.55" customHeight="1">
-      <c r="A12" t="s" s="21">
+    <row r="12" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B12" t="s" s="22">
+      <c r="B12" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" ht="14.55" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" t="s" s="25">
+    <row r="13" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s" s="25">
+      <c r="C13" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D13" t="s" s="25">
+      <c r="D13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" ht="110.4" customHeight="1">
-      <c r="A14" t="s" s="21">
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" ht="110.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B14" t="s" s="26">
+      <c r="B14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s" s="26">
+      <c r="C14" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D14" t="s" s="26">
+      <c r="D14" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" ht="220.8" customHeight="1">
-      <c r="A15" t="s" s="21">
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" ht="220.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s" s="26">
+      <c r="B15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s" s="26">
+      <c r="C15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s" s="26">
+      <c r="D15" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" ht="14.55" customHeight="1">
-      <c r="A16" t="s" s="21">
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="23">
         <v>420</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="23">
         <v>200</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="23">
         <v>200</v>
       </c>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" ht="110.4" customHeight="1">
-      <c r="A17" t="s" s="21">
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" ht="110.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="26">
+      <c r="B17" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s" s="26">
+      <c r="C17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D17" t="s" s="26">
+      <c r="D17" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" ht="14.55" customHeight="1">
-      <c r="A19" s="30"/>
-      <c r="B19" t="s" s="31">
+    <row r="19" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" ht="14.55" customHeight="1">
-      <c r="A20" t="s" s="21">
+    <row r="20" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B20" t="s" s="33">
+      <c r="B20" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" ht="14.55" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" t="s" s="25">
+    <row r="21" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C21" t="s" s="25">
+      <c r="C21" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D21" t="s" s="25">
+      <c r="D21" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" ht="165.6" customHeight="1">
-      <c r="A22" t="s" s="21">
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5" ht="165.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B22" t="s" s="26">
+      <c r="B22" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C22" t="s" s="26">
+      <c r="C22" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D22" t="s" s="26">
+      <c r="D22" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" ht="138" customHeight="1">
-      <c r="A23" t="s" s="21">
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" ht="138" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B23" t="s" s="26">
+      <c r="B23" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C23" t="s" s="26">
+      <c r="C23" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D23" t="s" s="26">
+      <c r="D23" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" ht="14.55" customHeight="1">
-      <c r="A24" t="s" s="21">
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="23">
         <v>330</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="23">
         <v>500</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="23">
         <v>120</v>
       </c>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" ht="220.8" customHeight="1">
-      <c r="A25" t="s" s="21">
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" ht="220.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B25" t="s" s="26">
+      <c r="B25" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C25" t="s" s="26">
+      <c r="C25" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D25" t="s" s="26">
+      <c r="D25" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" ht="14.55" customHeight="1">
-      <c r="A27" s="30"/>
-      <c r="B27" t="s" s="31">
+    <row r="27" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="26"/>
+      <c r="B27" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" ht="38.55" customHeight="1">
-      <c r="A28" t="s" s="21">
+    <row r="28" spans="1:5" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B28" t="s" s="22">
+      <c r="B28" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" ht="14.55" customHeight="1">
-      <c r="A29" s="24"/>
-      <c r="B29" t="s" s="25">
+    <row r="29" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="20"/>
+      <c r="B29" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C29" t="s" s="25">
+      <c r="C29" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D29" t="s" s="25">
+      <c r="D29" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" ht="193.2" customHeight="1">
-      <c r="A30" t="s" s="21">
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:5" ht="193.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B30" t="s" s="26">
+      <c r="B30" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C30" t="s" s="26">
+      <c r="C30" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D30" t="s" s="26">
+      <c r="D30" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" ht="193.2" customHeight="1">
-      <c r="A31" t="s" s="21">
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:5" ht="193.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B31" t="s" s="26">
+      <c r="B31" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C31" t="s" s="26">
+      <c r="C31" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D31" t="s" s="26">
+      <c r="D31" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" ht="14.55" customHeight="1">
-      <c r="A32" t="s" s="21">
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B32" s="23">
         <v>600</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="23">
         <v>600</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="23">
         <v>600</v>
       </c>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" ht="96.6" customHeight="1">
-      <c r="A33" t="s" s="21">
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="1:5" ht="96.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B33" t="s" s="26">
+      <c r="B33" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C33" t="s" s="26">
+      <c r="C33" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D33" t="s" s="26">
+      <c r="D33" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="34"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="29"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" ht="14.55" customHeight="1">
-      <c r="A35" s="34"/>
-      <c r="B35" t="s" s="31">
+    <row r="35" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="29"/>
+      <c r="B35" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" ht="14.6" customHeight="1">
-      <c r="A36" t="s" s="21">
+    <row r="36" spans="1:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B36" t="s" s="22">
+      <c r="B36" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" ht="14.55" customHeight="1">
-      <c r="A37" s="24"/>
-      <c r="B37" t="s" s="25">
+    <row r="37" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="20"/>
+      <c r="B37" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C37" t="s" s="25">
+      <c r="C37" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D37" t="s" s="25">
+      <c r="D37" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" ht="86.6" customHeight="1">
-      <c r="A38" t="s" s="21">
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="1:5" ht="112" x14ac:dyDescent="0.35">
+      <c r="A38" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" t="s" s="26">
+      <c r="B38" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" ht="62.6" customHeight="1">
-      <c r="A39" t="s" s="21">
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="1:5" ht="84" x14ac:dyDescent="0.35">
+      <c r="A39" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" t="s" s="26">
+      <c r="B39" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="30"/>
+      <c r="D39" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" ht="14.55" customHeight="1">
-      <c r="A40" t="s" s="21">
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="27">
+      <c r="B40" s="30">
         <v>60</v>
       </c>
-      <c r="E40" s="15"/>
-    </row>
-    <row r="41" ht="26.6" customHeight="1">
-      <c r="A41" t="s" s="21">
+      <c r="C40" s="30"/>
+      <c r="D40" s="23">
+        <v>60</v>
+      </c>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="1:5" ht="26.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" t="s" s="26">
+      <c r="B41" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E41" s="15"/>
-    </row>
-    <row r="42" ht="13.5" customHeight="1">
-      <c r="A42" s="34"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="29"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" ht="14.55" customHeight="1">
-      <c r="A43" s="34"/>
-      <c r="B43" t="s" s="31">
+    <row r="43" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="29"/>
+      <c r="B43" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" ht="14.6" customHeight="1">
-      <c r="A44" t="s" s="21">
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="20"/>
+      <c r="B45" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="1:5" ht="126" x14ac:dyDescent="0.35">
+      <c r="A46" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="30"/>
+      <c r="D46" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="13"/>
+    </row>
+    <row r="47" spans="1:5" ht="98" x14ac:dyDescent="0.35">
+      <c r="A47" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="30"/>
+      <c r="D47" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="13"/>
+    </row>
+    <row r="48" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="30">
+        <v>30</v>
+      </c>
+      <c r="C48" s="30"/>
+      <c r="D48" s="23">
+        <v>60</v>
+      </c>
+      <c r="E48" s="13"/>
+    </row>
+    <row r="49" spans="1:5" ht="56" x14ac:dyDescent="0.35">
+      <c r="A49" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="13"/>
+    </row>
+    <row r="50" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="19"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="13"/>
+    </row>
+    <row r="51" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="29"/>
+      <c r="B51" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="1:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B44" t="s" s="22">
-        <v>60</v>
-      </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" ht="14.55" customHeight="1">
-      <c r="A45" s="24"/>
-      <c r="B45" t="s" s="25">
+      <c r="B52" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="20"/>
+      <c r="B53" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C45" t="s" s="25">
+      <c r="C53" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D45" t="s" s="25">
+      <c r="D53" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="15"/>
-    </row>
-    <row r="46" ht="110.6" customHeight="1">
-      <c r="A46" t="s" s="21">
+      <c r="E53" s="13"/>
+    </row>
+    <row r="54" spans="1:5" ht="70" x14ac:dyDescent="0.35">
+      <c r="A54" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" t="s" s="26">
-        <v>61</v>
-      </c>
-      <c r="E46" s="15"/>
-    </row>
-    <row r="47" ht="74.6" customHeight="1">
-      <c r="A47" t="s" s="21">
+      <c r="B54" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="30"/>
+      <c r="D54" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="13"/>
+    </row>
+    <row r="55" spans="1:5" ht="126" x14ac:dyDescent="0.35">
+      <c r="A55" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" t="s" s="26">
-        <v>62</v>
-      </c>
-      <c r="E47" s="15"/>
-    </row>
-    <row r="48" ht="14.55" customHeight="1">
-      <c r="A48" t="s" s="21">
+      <c r="B55" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="30"/>
+      <c r="D55" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="13"/>
+    </row>
+    <row r="56" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="27">
-        <v>60</v>
-      </c>
-      <c r="E48" s="15"/>
-    </row>
-    <row r="49" ht="50.6" customHeight="1">
-      <c r="A49" t="s" s="21">
+      <c r="B56" s="30">
+        <v>90</v>
+      </c>
+      <c r="C56" s="30"/>
+      <c r="D56" s="23">
+        <v>240</v>
+      </c>
+      <c r="E56" s="13"/>
+    </row>
+    <row r="57" spans="1:5" ht="98.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" t="s" s="26">
-        <v>63</v>
-      </c>
-      <c r="E49" s="15"/>
-    </row>
-    <row r="50" ht="14.55" customHeight="1">
-      <c r="A50" s="21"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="15"/>
-    </row>
-    <row r="51" ht="14.55" customHeight="1">
-      <c r="A51" s="34"/>
-      <c r="B51" t="s" s="31">
-        <v>64</v>
-      </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" ht="14.6" customHeight="1">
-      <c r="A52" t="s" s="21">
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="13"/>
+    </row>
+    <row r="58" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="19"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="13"/>
+    </row>
+    <row r="59" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="29"/>
+      <c r="B59" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B52" t="s" s="22">
-        <v>65</v>
-      </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="53" ht="14.55" customHeight="1">
-      <c r="A53" s="24"/>
-      <c r="B53" t="s" s="25">
+      <c r="B60" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="20"/>
+      <c r="B61" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C53" t="s" s="25">
+      <c r="C61" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D53" t="s" s="25">
-        <v>6</v>
-      </c>
-      <c r="E53" s="15"/>
-    </row>
-    <row r="54" ht="26.6" customHeight="1">
-      <c r="A54" t="s" s="21">
+      <c r="D61" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="13"/>
+    </row>
+    <row r="62" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" t="s" s="26">
-        <v>66</v>
-      </c>
-      <c r="E54" s="15"/>
-    </row>
-    <row r="55" ht="98.6" customHeight="1">
-      <c r="A55" t="s" s="21">
+      <c r="B62" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="13"/>
+    </row>
+    <row r="63" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" t="s" s="26">
-        <v>67</v>
-      </c>
-      <c r="E55" s="15"/>
-    </row>
-    <row r="56" ht="14.55" customHeight="1">
-      <c r="A56" t="s" s="21">
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="13"/>
+    </row>
+    <row r="64" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="27">
-        <v>240</v>
-      </c>
-      <c r="E56" s="15"/>
-    </row>
-    <row r="57" ht="98.6" customHeight="1">
-      <c r="A57" t="s" s="21">
+      <c r="B64" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="30"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="13"/>
+    </row>
+    <row r="65" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" t="s" s="26">
-        <v>68</v>
-      </c>
-      <c r="E57" s="15"/>
-    </row>
-    <row r="58" ht="14.55" customHeight="1">
-      <c r="A58" s="21"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="15"/>
-    </row>
-    <row r="59" ht="14.55" customHeight="1">
-      <c r="A59" s="34"/>
-      <c r="B59" t="s" s="31">
-        <v>69</v>
-      </c>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="6"/>
-    </row>
-    <row r="60" ht="14.6" customHeight="1">
-      <c r="A60" t="s" s="21">
-        <v>2</v>
-      </c>
-      <c r="B60" t="s" s="22">
-        <v>70</v>
-      </c>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" ht="14.55" customHeight="1">
-      <c r="A61" s="24"/>
-      <c r="B61" t="s" s="25">
-        <v>22</v>
-      </c>
-      <c r="C61" t="s" s="25">
-        <v>22</v>
-      </c>
-      <c r="D61" t="s" s="25">
-        <v>22</v>
-      </c>
-      <c r="E61" s="15"/>
-    </row>
-    <row r="62" ht="14.55" customHeight="1">
-      <c r="A62" t="s" s="21">
-        <v>7</v>
-      </c>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="15"/>
-    </row>
-    <row r="63" ht="14.55" customHeight="1">
-      <c r="A63" t="s" s="21">
-        <v>11</v>
-      </c>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="15"/>
-    </row>
-    <row r="64" ht="14.55" customHeight="1">
-      <c r="A64" t="s" s="21">
-        <v>15</v>
-      </c>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="15"/>
-    </row>
-    <row r="65" ht="14.55" customHeight="1">
-      <c r="A65" t="s" s="21">
-        <v>16</v>
-      </c>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="38"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B60:D60"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B60:D60"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B36" r:id="rId1" location="" tooltip="" display="huggingface.co Space einrichten"/>
+    <hyperlink ref="B36" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Progress.Diary.xlsx
+++ b/Progress.Diary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>Progress Diary</t>
   </si>
@@ -224,7 +224,7 @@
     <t>Week 1</t>
   </si>
   <si>
-    <t>Code von app.py geändert, Lösungen für Token-Problem überlegen, User Testing</t>
+    <t>Code von app.py geändert, Lösungen für Token-Problem überlegen, User Testing vorbereiten</t>
   </si>
   <si>
     <t>Vorbereitung eines Usability Testings.</t>
@@ -239,7 +239,46 @@
     <t>Week 2</t>
   </si>
   <si>
-    <t>User Testing und Auswertung der Tests</t>
+    <t>Landing Page Vorschläge erstellen. User Testing und Auswertung der Tests, Entscheidung für und Priorisierung von nötigen Änderungen/Anpassungen, die die Tests uns gezeigt haben</t>
+  </si>
+  <si>
+    <t>Ein User Testing durchzuführen und im Anschluss auszuwerten.</t>
+  </si>
+  <si>
+    <t>Meinen Vorschlag für eine Landing Page in Firma erstellt. User Test zu Hause lokal durchgeführt.</t>
+  </si>
+  <si>
+    <t>Die Erstellung meines Landing Page Vorschlags hat mir großen Spaß gemacht. Es ist gar nicht so einfach, ein User Testing allein durchzuführen, da man Moderator, Beobachter und Protokollant in einem ist.</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Entscheidung für die Landing Page treffen. Abschlusspräsentation vorbereiten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurz gefasst alle wichtigen Informationen und Learnings des Projektes in eine Präsentation verpacken. </t>
+  </si>
+  <si>
+    <t>Landing Page Vorschläge aller zu einem finalen Konzept zusammengefasst. Anteilige Mitarbeit an den Präsentationsfolien, Vorbereitung des Chatbot-Demonstration-Teils der Abschlusspräsentation.</t>
+  </si>
+  <si>
+    <t>Durch die Vereinigung unserer Ideen haben wir eine tolle Landing Page gestaltet. Es ist nicht leicht, die Arbeit der letzten Wochen in einer kurzen Präsentation zusammen zu fassen.</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Finalisierung von Sprint2</t>
+  </si>
+  <si>
+    <t>Leider konnte ich keine Lösung finden, wie das Updaten einzelner Blocks durch die Auswahl der Radio Buttons getriggert werden kann.</t>
+  </si>
+  <si>
+    <t>Nach wiederholt fehlgeschlagenem Versuch die Modusauswahl zum Laufen zu bringen, Entscheidung für Weglassen der Modi getroffen. Modusauswahl entfernt. Kleinere Anpassungen am Styling vorgenommen.  Fehlende Inhalte im Wiki ergänzt.</t>
+  </si>
+  <si>
+    <t>Bei unserem Chatbot handelt es sich noch immer um einen Prototyp. Bis zu einem fertigen Produkt wäre noch ein weiter Weg. Ich bin stolz wie weit wir gekommen sind.</t>
   </si>
 </sst>
 </file>
@@ -325,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -346,30 +385,6 @@
       <bottom style="thin">
         <color indexed="11"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -449,17 +464,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="11"/>
       </left>
       <right style="thin">
@@ -488,26 +492,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -520,110 +511,95 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1710,7 +1686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1718,8 +1694,8 @@
   <cols>
     <col min="1" max="1" width="45.6719" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.6719" style="1" customWidth="1"/>
-    <col min="3" max="5" width="23.3516" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="23.3516" style="1" customWidth="1"/>
+    <col min="3" max="4" width="23.3516" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="23.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
@@ -1729,738 +1705,833 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="13.5" customHeight="1">
-      <c r="A2" s="5"/>
+      <c r="A2" s="4"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="14.55" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" t="s" s="8">
+      <c r="A3" s="5"/>
+      <c r="B3" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" ht="39.45" customHeight="1">
-      <c r="A4" t="s" s="10">
+      <c r="A4" t="s" s="8">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="11">
+      <c r="B4" t="s" s="9">
         <v>3</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="6"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" ht="14.55" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" t="s" s="14">
+      <c r="A5" s="11"/>
+      <c r="B5" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="14">
+      <c r="C5" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="14">
+      <c r="D5" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="E5" s="15"/>
     </row>
     <row r="6" ht="63.75" customHeight="1">
-      <c r="A6" t="s" s="10">
+      <c r="A6" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="B6" t="s" s="16">
+      <c r="B6" t="s" s="13">
         <v>8</v>
       </c>
-      <c r="C6" t="s" s="16">
+      <c r="C6" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="D6" t="s" s="16">
+      <c r="D6" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="E6" s="15"/>
     </row>
     <row r="7" ht="184.8" customHeight="1">
-      <c r="A7" t="s" s="10">
+      <c r="A7" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="B7" t="s" s="16">
+      <c r="B7" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="C7" t="s" s="17">
+      <c r="C7" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="D7" t="s" s="17">
+      <c r="D7" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="E7" s="15"/>
     </row>
     <row r="8" ht="14.55" customHeight="1">
-      <c r="A8" t="s" s="10">
+      <c r="A8" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="15">
         <v>600</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="15">
         <v>450</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="15">
         <v>500</v>
       </c>
-      <c r="E8" s="15"/>
     </row>
     <row r="9" ht="42" customHeight="1">
-      <c r="A9" t="s" s="10">
+      <c r="A9" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="B9" t="s" s="17">
+      <c r="B9" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C9" t="s" s="17">
+      <c r="C9" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D9" t="s" s="17">
+      <c r="D9" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E9" s="15"/>
     </row>
     <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="6"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" ht="14.55" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" t="s" s="8">
+      <c r="A11" s="5"/>
+      <c r="B11" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" ht="26.55" customHeight="1">
-      <c r="A12" t="s" s="21">
+      <c r="A12" t="s" s="18">
         <v>2</v>
       </c>
-      <c r="B12" t="s" s="22">
+      <c r="B12" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" ht="14.55" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" t="s" s="25">
+      <c r="A13" s="21"/>
+      <c r="B13" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="C13" t="s" s="25">
+      <c r="C13" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="D13" t="s" s="25">
+      <c r="D13" t="s" s="22">
         <v>6</v>
       </c>
-      <c r="E13" s="15"/>
     </row>
     <row r="14" ht="110.4" customHeight="1">
-      <c r="A14" t="s" s="21">
+      <c r="A14" t="s" s="18">
         <v>7</v>
       </c>
-      <c r="B14" t="s" s="26">
+      <c r="B14" t="s" s="23">
         <v>23</v>
       </c>
-      <c r="C14" t="s" s="26">
+      <c r="C14" t="s" s="23">
         <v>24</v>
       </c>
-      <c r="D14" t="s" s="26">
+      <c r="D14" t="s" s="23">
         <v>25</v>
       </c>
-      <c r="E14" s="15"/>
     </row>
     <row r="15" ht="220.8" customHeight="1">
-      <c r="A15" t="s" s="21">
+      <c r="A15" t="s" s="18">
         <v>11</v>
       </c>
-      <c r="B15" t="s" s="26">
+      <c r="B15" t="s" s="23">
         <v>26</v>
       </c>
-      <c r="C15" t="s" s="26">
+      <c r="C15" t="s" s="23">
         <v>27</v>
       </c>
-      <c r="D15" t="s" s="26">
+      <c r="D15" t="s" s="23">
         <v>28</v>
       </c>
-      <c r="E15" s="15"/>
     </row>
     <row r="16" ht="14.55" customHeight="1">
-      <c r="A16" t="s" s="21">
+      <c r="A16" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="24">
         <v>420</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="24">
         <v>200</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="24">
         <v>200</v>
       </c>
-      <c r="E16" s="15"/>
     </row>
     <row r="17" ht="110.4" customHeight="1">
-      <c r="A17" t="s" s="21">
+      <c r="A17" t="s" s="18">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="26">
+      <c r="B17" t="s" s="23">
         <v>29</v>
       </c>
-      <c r="C17" t="s" s="26">
+      <c r="C17" t="s" s="23">
         <v>30</v>
       </c>
-      <c r="D17" t="s" s="26">
+      <c r="D17" t="s" s="23">
         <v>31</v>
       </c>
-      <c r="E17" s="15"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="6"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" ht="14.55" customHeight="1">
-      <c r="A19" s="30"/>
-      <c r="B19" t="s" s="31">
+      <c r="A19" s="27"/>
+      <c r="B19" t="s" s="28">
         <v>32</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="6"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
     </row>
     <row r="20" ht="14.55" customHeight="1">
-      <c r="A20" t="s" s="21">
+      <c r="A20" t="s" s="18">
         <v>2</v>
       </c>
-      <c r="B20" t="s" s="33">
+      <c r="B20" t="s" s="30">
         <v>33</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="6"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" ht="14.55" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" t="s" s="25">
+      <c r="A21" s="21"/>
+      <c r="B21" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="C21" t="s" s="25">
+      <c r="C21" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="D21" t="s" s="25">
+      <c r="D21" t="s" s="22">
         <v>6</v>
       </c>
-      <c r="E21" s="15"/>
     </row>
     <row r="22" ht="165.6" customHeight="1">
-      <c r="A22" t="s" s="21">
+      <c r="A22" t="s" s="18">
         <v>7</v>
       </c>
-      <c r="B22" t="s" s="26">
+      <c r="B22" t="s" s="23">
         <v>34</v>
       </c>
-      <c r="C22" t="s" s="26">
+      <c r="C22" t="s" s="23">
         <v>35</v>
       </c>
-      <c r="D22" t="s" s="26">
+      <c r="D22" t="s" s="23">
         <v>36</v>
       </c>
-      <c r="E22" s="15"/>
     </row>
     <row r="23" ht="138" customHeight="1">
-      <c r="A23" t="s" s="21">
+      <c r="A23" t="s" s="18">
         <v>11</v>
       </c>
-      <c r="B23" t="s" s="26">
+      <c r="B23" t="s" s="23">
         <v>37</v>
       </c>
-      <c r="C23" t="s" s="26">
+      <c r="C23" t="s" s="23">
         <v>38</v>
       </c>
-      <c r="D23" t="s" s="26">
+      <c r="D23" t="s" s="23">
         <v>39</v>
       </c>
-      <c r="E23" s="15"/>
     </row>
     <row r="24" ht="14.55" customHeight="1">
-      <c r="A24" t="s" s="21">
+      <c r="A24" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="24">
         <v>330</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="24">
         <v>500</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="24">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" ht="220.8" customHeight="1">
+      <c r="A25" t="s" s="18">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s" s="23">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s" s="23">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s" s="23">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+    </row>
+    <row r="27" ht="14.55" customHeight="1">
+      <c r="A27" s="27"/>
+      <c r="B27" t="s" s="28">
+        <v>43</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+    </row>
+    <row r="28" ht="38.55" customHeight="1">
+      <c r="A28" t="s" s="18">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s" s="19">
+        <v>44</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+    </row>
+    <row r="29" ht="14.55" customHeight="1">
+      <c r="A29" s="21"/>
+      <c r="B29" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" ht="193.2" customHeight="1">
+      <c r="A30" t="s" s="18">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s" s="23">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s" s="23">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s" s="23">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" ht="193.2" customHeight="1">
+      <c r="A31" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s" s="23">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s" s="23">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s" s="23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" ht="14.55" customHeight="1">
+      <c r="A32" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="B32" s="24">
+        <v>600</v>
+      </c>
+      <c r="C32" s="24">
+        <v>600</v>
+      </c>
+      <c r="D32" s="24">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" ht="96.6" customHeight="1">
+      <c r="A33" t="s" s="18">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s" s="23">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s" s="23">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s" s="23">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" ht="13.5" customHeight="1">
+      <c r="A34" s="31"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+    </row>
+    <row r="35" ht="14.55" customHeight="1">
+      <c r="A35" s="31"/>
+      <c r="B35" t="s" s="28">
+        <v>54</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+    </row>
+    <row r="36" ht="14.6" customHeight="1">
+      <c r="A36" t="s" s="18">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s" s="19">
+        <v>55</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+    </row>
+    <row r="37" ht="14.55" customHeight="1">
+      <c r="A37" s="21"/>
+      <c r="B37" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" ht="86.6" customHeight="1">
+      <c r="A38" t="s" s="18">
+        <v>7</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" t="s" s="23">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" ht="62.6" customHeight="1">
+      <c r="A39" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" t="s" s="23">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" ht="14.55" customHeight="1">
+      <c r="A40" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="24">
         <v>120</v>
       </c>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" ht="220.8" customHeight="1">
-      <c r="A25" t="s" s="21">
+    </row>
+    <row r="41" ht="26.6" customHeight="1">
+      <c r="A41" t="s" s="18">
         <v>16</v>
       </c>
-      <c r="B25" t="s" s="26">
-        <v>40</v>
-      </c>
-      <c r="C25" t="s" s="26">
-        <v>41</v>
-      </c>
-      <c r="D25" t="s" s="26">
-        <v>42</v>
-      </c>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" ht="14.55" customHeight="1">
-      <c r="A27" s="30"/>
-      <c r="B27" t="s" s="31">
-        <v>43</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" ht="38.55" customHeight="1">
-      <c r="A28" t="s" s="21">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" t="s" s="23">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" ht="13.5" customHeight="1">
+      <c r="A42" s="31"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+    </row>
+    <row r="43" ht="14.55" customHeight="1">
+      <c r="A43" s="31"/>
+      <c r="B43" t="s" s="28">
+        <v>59</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+    </row>
+    <row r="44" ht="14.6" customHeight="1">
+      <c r="A44" t="s" s="18">
         <v>2</v>
       </c>
-      <c r="B28" t="s" s="22">
-        <v>44</v>
-      </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" ht="14.55" customHeight="1">
-      <c r="A29" s="24"/>
-      <c r="B29" t="s" s="25">
+      <c r="B44" t="s" s="19">
+        <v>60</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" ht="14.55" customHeight="1">
+      <c r="A45" s="21"/>
+      <c r="B45" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="C29" t="s" s="25">
+      <c r="C45" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="D29" t="s" s="25">
+      <c r="D45" t="s" s="22">
         <v>6</v>
       </c>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" ht="193.2" customHeight="1">
-      <c r="A30" t="s" s="21">
+    </row>
+    <row r="46" ht="110.6" customHeight="1">
+      <c r="A46" t="s" s="18">
         <v>7</v>
       </c>
-      <c r="B30" t="s" s="26">
-        <v>45</v>
-      </c>
-      <c r="C30" t="s" s="26">
-        <v>46</v>
-      </c>
-      <c r="D30" t="s" s="26">
-        <v>47</v>
-      </c>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" ht="193.2" customHeight="1">
-      <c r="A31" t="s" s="21">
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" t="s" s="23">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" ht="74.6" customHeight="1">
+      <c r="A47" t="s" s="18">
         <v>11</v>
       </c>
-      <c r="B31" t="s" s="26">
-        <v>48</v>
-      </c>
-      <c r="C31" t="s" s="26">
-        <v>49</v>
-      </c>
-      <c r="D31" t="s" s="26">
-        <v>50</v>
-      </c>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" ht="14.55" customHeight="1">
-      <c r="A32" t="s" s="21">
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" t="s" s="23">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" ht="14.55" customHeight="1">
+      <c r="A48" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="B32" s="27">
-        <v>600</v>
-      </c>
-      <c r="C32" s="27">
-        <v>600</v>
-      </c>
-      <c r="D32" s="27">
-        <v>600</v>
-      </c>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" ht="96.6" customHeight="1">
-      <c r="A33" t="s" s="21">
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" ht="50.6" customHeight="1">
+      <c r="A49" t="s" s="18">
         <v>16</v>
       </c>
-      <c r="B33" t="s" s="26">
-        <v>51</v>
-      </c>
-      <c r="C33" t="s" s="26">
-        <v>52</v>
-      </c>
-      <c r="D33" t="s" s="26">
-        <v>53</v>
-      </c>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="34"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" ht="14.55" customHeight="1">
-      <c r="A35" s="34"/>
-      <c r="B35" t="s" s="31">
-        <v>54</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" ht="14.6" customHeight="1">
-      <c r="A36" t="s" s="21">
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" t="s" s="23">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" ht="14.55" customHeight="1">
+      <c r="A50" s="18"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" ht="14.55" customHeight="1">
+      <c r="A51" s="31"/>
+      <c r="B51" t="s" s="28">
+        <v>64</v>
+      </c>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+    </row>
+    <row r="52" ht="26.6" customHeight="1">
+      <c r="A52" t="s" s="18">
         <v>2</v>
       </c>
-      <c r="B36" t="s" s="22">
-        <v>55</v>
-      </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" ht="14.55" customHeight="1">
-      <c r="A37" s="24"/>
-      <c r="B37" t="s" s="25">
+      <c r="B52" t="s" s="19">
+        <v>65</v>
+      </c>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+    </row>
+    <row r="53" ht="14.55" customHeight="1">
+      <c r="A53" s="21"/>
+      <c r="B53" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="C37" t="s" s="25">
+      <c r="C53" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="D37" t="s" s="25">
+      <c r="D53" t="s" s="22">
         <v>6</v>
       </c>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" ht="86.6" customHeight="1">
-      <c r="A38" t="s" s="21">
+    </row>
+    <row r="54" ht="26.6" customHeight="1">
+      <c r="A54" t="s" s="18">
         <v>7</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" t="s" s="26">
-        <v>56</v>
-      </c>
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" ht="62.6" customHeight="1">
-      <c r="A39" t="s" s="21">
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" t="s" s="23">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" ht="98.6" customHeight="1">
+      <c r="A55" t="s" s="18">
         <v>11</v>
       </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" t="s" s="26">
-        <v>57</v>
-      </c>
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" ht="14.55" customHeight="1">
-      <c r="A40" t="s" s="21">
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" t="s" s="23">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" ht="14.55" customHeight="1">
+      <c r="A56" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="27">
-        <v>60</v>
-      </c>
-      <c r="E40" s="15"/>
-    </row>
-    <row r="41" ht="26.6" customHeight="1">
-      <c r="A41" t="s" s="21">
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="24">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" ht="98.6" customHeight="1">
+      <c r="A57" t="s" s="18">
         <v>16</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" t="s" s="26">
-        <v>58</v>
-      </c>
-      <c r="E41" s="15"/>
-    </row>
-    <row r="42" ht="13.5" customHeight="1">
-      <c r="A42" s="34"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" ht="14.55" customHeight="1">
-      <c r="A43" s="34"/>
-      <c r="B43" t="s" s="31">
-        <v>59</v>
-      </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" ht="14.6" customHeight="1">
-      <c r="A44" t="s" s="21">
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" t="s" s="23">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" ht="14.55" customHeight="1">
+      <c r="A58" s="18"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+    </row>
+    <row r="59" ht="14.55" customHeight="1">
+      <c r="A59" s="31"/>
+      <c r="B59" t="s" s="28">
+        <v>69</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+    </row>
+    <row r="60" ht="38.6" customHeight="1">
+      <c r="A60" t="s" s="18">
         <v>2</v>
       </c>
-      <c r="B44" t="s" s="22">
-        <v>60</v>
-      </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" ht="14.55" customHeight="1">
-      <c r="A45" s="24"/>
-      <c r="B45" t="s" s="25">
+      <c r="B60" t="s" s="19">
+        <v>70</v>
+      </c>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" ht="14.55" customHeight="1">
+      <c r="A61" s="21"/>
+      <c r="B61" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="C45" t="s" s="25">
+      <c r="C61" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="D45" t="s" s="25">
+      <c r="D61" t="s" s="22">
         <v>6</v>
       </c>
-      <c r="E45" s="15"/>
-    </row>
-    <row r="46" ht="110.6" customHeight="1">
-      <c r="A46" t="s" s="21">
+    </row>
+    <row r="62" ht="38.6" customHeight="1">
+      <c r="A62" t="s" s="18">
         <v>7</v>
       </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" t="s" s="26">
-        <v>61</v>
-      </c>
-      <c r="E46" s="15"/>
-    </row>
-    <row r="47" ht="74.6" customHeight="1">
-      <c r="A47" t="s" s="21">
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" t="s" s="23">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" ht="50.6" customHeight="1">
+      <c r="A63" t="s" s="18">
         <v>11</v>
       </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" t="s" s="26">
-        <v>62</v>
-      </c>
-      <c r="E47" s="15"/>
-    </row>
-    <row r="48" ht="14.55" customHeight="1">
-      <c r="A48" t="s" s="21">
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" t="s" s="23">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" ht="14.55" customHeight="1">
+      <c r="A64" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="27">
-        <v>60</v>
-      </c>
-      <c r="E48" s="15"/>
-    </row>
-    <row r="49" ht="50.6" customHeight="1">
-      <c r="A49" t="s" s="21">
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="24">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" ht="110.6" customHeight="1">
+      <c r="A65" t="s" s="18">
         <v>16</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" t="s" s="26">
-        <v>63</v>
-      </c>
-      <c r="E49" s="15"/>
-    </row>
-    <row r="50" ht="14.55" customHeight="1">
-      <c r="A50" s="21"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="15"/>
-    </row>
-    <row r="51" ht="14.55" customHeight="1">
-      <c r="A51" s="34"/>
-      <c r="B51" t="s" s="31">
-        <v>64</v>
-      </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" ht="14.6" customHeight="1">
-      <c r="A52" t="s" s="21">
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" t="s" s="23">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" ht="14.55" customHeight="1">
+      <c r="A66" s="18"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+    </row>
+    <row r="67" ht="14.55" customHeight="1">
+      <c r="A67" s="31"/>
+      <c r="B67" t="s" s="28">
+        <v>74</v>
+      </c>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+    </row>
+    <row r="68" ht="14.55" customHeight="1">
+      <c r="A68" t="s" s="18">
         <v>2</v>
       </c>
-      <c r="B52" t="s" s="22">
-        <v>65</v>
-      </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="53" ht="14.55" customHeight="1">
-      <c r="A53" s="24"/>
-      <c r="B53" t="s" s="25">
+      <c r="B68" t="s" s="19">
+        <v>75</v>
+      </c>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+    </row>
+    <row r="69" ht="14.55" customHeight="1">
+      <c r="A69" s="21"/>
+      <c r="B69" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="C53" t="s" s="25">
+      <c r="C69" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="D53" t="s" s="25">
+      <c r="D69" t="s" s="22">
         <v>6</v>
       </c>
-      <c r="E53" s="15"/>
-    </row>
-    <row r="54" ht="26.6" customHeight="1">
-      <c r="A54" t="s" s="21">
+    </row>
+    <row r="70" ht="62.6" customHeight="1">
+      <c r="A70" t="s" s="18">
         <v>7</v>
       </c>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" t="s" s="26">
-        <v>66</v>
-      </c>
-      <c r="E54" s="15"/>
-    </row>
-    <row r="55" ht="98.6" customHeight="1">
-      <c r="A55" t="s" s="21">
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" t="s" s="23">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" ht="110.6" customHeight="1">
+      <c r="A71" t="s" s="18">
         <v>11</v>
       </c>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" t="s" s="26">
-        <v>67</v>
-      </c>
-      <c r="E55" s="15"/>
-    </row>
-    <row r="56" ht="14.55" customHeight="1">
-      <c r="A56" t="s" s="21">
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" t="s" s="23">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" ht="14.55" customHeight="1">
+      <c r="A72" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="27">
-        <v>240</v>
-      </c>
-      <c r="E56" s="15"/>
-    </row>
-    <row r="57" ht="98.6" customHeight="1">
-      <c r="A57" t="s" s="21">
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="24">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="73" ht="98.6" customHeight="1">
+      <c r="A73" t="s" s="18">
         <v>16</v>
       </c>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" t="s" s="26">
-        <v>68</v>
-      </c>
-      <c r="E57" s="15"/>
-    </row>
-    <row r="58" ht="14.55" customHeight="1">
-      <c r="A58" s="21"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="15"/>
-    </row>
-    <row r="59" ht="14.55" customHeight="1">
-      <c r="A59" s="34"/>
-      <c r="B59" t="s" s="31">
-        <v>69</v>
-      </c>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="6"/>
-    </row>
-    <row r="60" ht="14.6" customHeight="1">
-      <c r="A60" t="s" s="21">
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" t="s" s="23">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" ht="14.55" customHeight="1">
+      <c r="A74" s="18"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+    </row>
+    <row r="75" ht="14.55" customHeight="1">
+      <c r="A75" s="31"/>
+      <c r="B75" t="s" s="28">
+        <v>79</v>
+      </c>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+    </row>
+    <row r="76" ht="14.55" customHeight="1">
+      <c r="A76" t="s" s="18">
         <v>2</v>
       </c>
-      <c r="B60" t="s" s="22">
-        <v>70</v>
-      </c>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" ht="14.55" customHeight="1">
-      <c r="A61" s="24"/>
-      <c r="B61" t="s" s="25">
+      <c r="B76" t="s" s="19">
+        <v>80</v>
+      </c>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+    </row>
+    <row r="77" ht="14.55" customHeight="1">
+      <c r="A77" s="21"/>
+      <c r="B77" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="C61" t="s" s="25">
+      <c r="C77" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="D61" t="s" s="25">
-        <v>22</v>
-      </c>
-      <c r="E61" s="15"/>
-    </row>
-    <row r="62" ht="14.55" customHeight="1">
-      <c r="A62" t="s" s="21">
+      <c r="D77" t="s" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" ht="74.6" customHeight="1">
+      <c r="A78" t="s" s="18">
         <v>7</v>
       </c>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="15"/>
-    </row>
-    <row r="63" ht="14.55" customHeight="1">
-      <c r="A63" t="s" s="21">
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" t="s" s="23">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" ht="134.6" customHeight="1">
+      <c r="A79" t="s" s="18">
         <v>11</v>
       </c>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="15"/>
-    </row>
-    <row r="64" ht="14.55" customHeight="1">
-      <c r="A64" t="s" s="21">
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" t="s" s="23">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" ht="14.55" customHeight="1">
+      <c r="A80" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="15"/>
-    </row>
-    <row r="65" ht="14.55" customHeight="1">
-      <c r="A65" t="s" s="21">
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="24">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" ht="86.6" customHeight="1">
+      <c r="A81" t="s" s="18">
         <v>16</v>
       </c>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="38"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" t="s" s="23">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B20:D20"/>
@@ -2469,6 +2540,8 @@
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B76:D76"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B36" r:id="rId1" location="" tooltip="" display="huggingface.co Space einrichten"/>

--- a/Progress.Diary.xlsx
+++ b/Progress.Diary.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisabott/Desktop/uni/2023:24_id/105_projektmodul-start/team-10-whatson/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF4F3D1-963F-A44C-B20A-5C0CC0C926DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="31080" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="91">
   <si>
     <t>Progress Diary</t>
   </si>
@@ -73,21 +82,12 @@
     <t>Der Grund, warum etwas nicht funktioniert, ist manchmal ziemlich banal</t>
   </si>
   <si>
-    <t>Week 48</t>
-  </si>
-  <si>
     <t>Github beherrschen und benutzen. Code aufräumen. Chatbot Scope und Identität nachschärfen.</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Icon Design ist eine komplexe Arbeit bei der man alle Aspekte durchleuchten muss und sich am Besten ein Konzept erstellt um strukturiert die Aufgabe zu lösen</t>
   </si>
   <si>
-    <t xml:space="preserve">Ich habe ein neues User Icon erstellt und das bereits bestehende Chatbot Icon in Illustrator erneuert. Beide Icons habe ich anschließend in den Code imp+C14lime+C14ntiert,  </t>
-  </si>
-  <si>
     <t>Wie man Github verwendet. Dass wir nochmal genau überlegen sollten, welchen Mehrwert unser Chatbot liefern sollte.</t>
   </si>
   <si>
@@ -109,9 +109,6 @@
     <t>Icons gehen einem nicht so leicht von der Hand. Der Mehrwert einer Idee ist vielleicht doch nicht so klar, wie man zuerst dachte.</t>
   </si>
   <si>
-    <t>Week 49</t>
-  </si>
-  <si>
     <t>Chatbot-Charakter entwickeln, Anpassung der Gradio Blocks / des UI</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>Ich muss mich mit Prompt Engineering befassen. Gradio Blocks erlauben ein individuelleres Styling des Chatbots.</t>
   </si>
   <si>
-    <t>Week 50</t>
-  </si>
-  <si>
     <t>Finalisierung von Sprint1: Github Issues verwenden, Prompt Engineering, CSS anpassen, Themenauswahl über Dropdown Menü, Zugriff auf gescrapte Daten, Vorbereitung des Sprint 1 Review, Aktualisierung des Wiki</t>
   </si>
   <si>
@@ -173,14 +167,11 @@
   </si>
   <si>
     <t>Ich muss mich mehr mit den Dokumentationen zu Llama-Index und Gradio befassen. Ohne Maxi wären wir aufgeschmissen.</t>
-  </si>
-  <si>
-    <t>Week 51</t>
   </si>
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="15"/>
         <rFont val="Arial"/>
@@ -206,9 +197,6 @@
     <t>Mehr über huggingface lernen</t>
   </si>
   <si>
-    <t>Week 52</t>
-  </si>
-  <si>
     <t>Anpassung des CSS im Huggingface Space, Probleme mit OpenAI Tokens</t>
   </si>
   <si>
@@ -221,10 +209,7 @@
     <t>Mehr über OpenAI Tokens lernen. Über sparsameren Chatbot bzgl Tokens nachdenken.</t>
   </si>
   <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Code von app.py geändert, Lösungen für Token-Problem überlegen, User Testing vorbereiten</t>
+    <t>Code von app.py geändert, Lösungen für Token-Problem überlegen, User Testing</t>
   </si>
   <si>
     <t>Vorbereitung eines Usability Testings.</t>
@@ -236,88 +221,114 @@
     <t>Es ist schwer vorauszusagen, wie zeitintensiv der geplante User Test ausfällt. Deshalb muss man überlegen, wie viele und welche Aufgaben man dem Probanden aufgibt.</t>
   </si>
   <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Landing Page Vorschläge erstellen. User Testing und Auswertung der Tests, Entscheidung für und Priorisierung von nötigen Änderungen/Anpassungen, die die Tests uns gezeigt haben</t>
-  </si>
-  <si>
-    <t>Ein User Testing durchzuführen und im Anschluss auszuwerten.</t>
-  </si>
-  <si>
-    <t>Meinen Vorschlag für eine Landing Page in Firma erstellt. User Test zu Hause lokal durchgeführt.</t>
-  </si>
-  <si>
-    <t>Die Erstellung meines Landing Page Vorschlags hat mir großen Spaß gemacht. Es ist gar nicht so einfach, ein User Testing allein durchzuführen, da man Moderator, Beobachter und Protokollant in einem ist.</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Entscheidung für die Landing Page treffen. Abschlusspräsentation vorbereiten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kurz gefasst alle wichtigen Informationen und Learnings des Projektes in eine Präsentation verpacken. </t>
-  </si>
-  <si>
-    <t>Landing Page Vorschläge aller zu einem finalen Konzept zusammengefasst. Anteilige Mitarbeit an den Präsentationsfolien, Vorbereitung des Chatbot-Demonstration-Teils der Abschlusspräsentation.</t>
-  </si>
-  <si>
-    <t>Durch die Vereinigung unserer Ideen haben wir eine tolle Landing Page gestaltet. Es ist nicht leicht, die Arbeit der letzten Wochen in einer kurzen Präsentation zusammen zu fassen.</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>Finalisierung von Sprint2</t>
-  </si>
-  <si>
-    <t>Leider konnte ich keine Lösung finden, wie das Updaten einzelner Blocks durch die Auswahl der Radio Buttons getriggert werden kann.</t>
-  </si>
-  <si>
-    <t>Nach wiederholt fehlgeschlagenem Versuch die Modusauswahl zum Laufen zu bringen, Entscheidung für Weglassen der Modi getroffen. Modusauswahl entfernt. Kleinere Anpassungen am Styling vorgenommen.  Fehlende Inhalte im Wiki ergänzt.</t>
-  </si>
-  <si>
-    <t>Bei unserem Chatbot handelt es sich noch immer um einen Prototyp. Bis zu einem fertigen Produkt wäre noch ein weiter Weg. Ich bin stolz wie weit wir gekommen sind.</t>
+    <t>User Testing und Auswertung der Tests</t>
+  </si>
+  <si>
+    <t>Über die technischen Aspekte eines Projekts mehr lernen/recherchieren. Genau wissen was hinter welchen Zeilen Code steckt.</t>
+  </si>
+  <si>
+    <t>Ich habe ein neues User Icon erstellt und das bereits bestehende Chatbot Icon in Illustrator erneuert. Beide Icons habe ich anschließend in den Code implimentiert</t>
+  </si>
+  <si>
+    <t>Den Chatbot auf einer externen Plattform zu hosten ist praktisch und kann schnell eingerichtet werden, jedoch ist ein Nachteil, dass der Code nicht mit GitHub verknüpft ist</t>
+  </si>
+  <si>
+    <t>Account bei Hugging Face angelegt, Code von GitHub eingefüg. Versucht zu verstehen, weswegen HuggingFace manche CSS-Zeilen nicht umsetzt.</t>
+  </si>
+  <si>
+    <t>Über HuggingFace lernen und verstehen</t>
+  </si>
+  <si>
+    <t>Gradio unterstützt zwar, dass einzelne Blöcke geupdated werden, jedoch nicht dass das gesamte Interface refreshed wird. Eine scheinbar einfache Erweiterungen kann länger dauern als gedacht.</t>
+  </si>
+  <si>
+    <t>Mich viel mit der Gradio Dokumentation beschäftigt. app.py mehrmals abgeändert, damit das Theme sich auf Knopfdruck ändert. -&gt; noch nicht implementiert</t>
+  </si>
+  <si>
+    <t>Eine Funktion, welche zunächst einfach aussieht ist oft sehr schwer umzusetzen und dauert sehr lang.</t>
+  </si>
+  <si>
+    <t>Mehr über die Nutzung von OpenAI lernen. Über Vorteile und Nachteile nachdenken und genau wissen weswegen man sich für ein Produkt entschieden hat</t>
+  </si>
+  <si>
+    <t>Das Aussehen unseres Chatbots konnte nicht verändert werden, da man die Chatbots nicht öffnen konnte.</t>
+  </si>
+  <si>
+    <t>Vorbereitung auf die Endpräsentation, Abstimmung der Landing Page</t>
+  </si>
+  <si>
+    <t>Finale Ausarbeitung des Chatbots</t>
+  </si>
+  <si>
+    <t>KW 48</t>
+  </si>
+  <si>
+    <t>KW 49</t>
+  </si>
+  <si>
+    <t>KW 50</t>
+  </si>
+  <si>
+    <t>KW 51</t>
+  </si>
+  <si>
+    <t>KW 52</t>
+  </si>
+  <si>
+    <t>KW 1</t>
+  </si>
+  <si>
+    <t>KW 2</t>
+  </si>
+  <si>
+    <t>KW 3</t>
+  </si>
+  <si>
+    <t>KW 4</t>
+  </si>
+  <si>
+    <t>Dass ein User Testing sehr hilreich sein kann und je nach Interviewpartner unterschiedlich hilfreich / aufschlussreich</t>
+  </si>
+  <si>
+    <t>User Testing durchgeführt, dieses ausgewertet, eine der drei Landing-Pages erstellt und nach einer Lösung für die Themenanpassung gesucht</t>
+  </si>
+  <si>
+    <t>Wenn man sehr lange an einem einzelnen Enhancement festhängt ist dies sehr frustrierend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teamarbeit und gutes Zeitmanagement sind sehr wichtig! </t>
+  </si>
+  <si>
+    <t>Erstellen der Präsentation, Anpassung von einigen gestalterischen Aspekten, Abstimmung über eine Landing Page</t>
+  </si>
+  <si>
+    <t>Bessere Kommunikation über das Aufteilen von Aufgaben bzw. kleinteiligere Aufgabenverteilung</t>
+  </si>
+  <si>
+    <t>Wie schnell so ein Projekt doch vorbei sein kann, dass das Feedback von Kommilitonen sehr hilfreich sein kann</t>
+  </si>
+  <si>
+    <t>Letzte Weiterentwicklungen implementieren, Code kommentieren und verständlich machen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="16"/>
       <color indexed="9"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -328,20 +339,46 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="14"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="15"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color indexed="15"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -364,7 +401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -385,6 +422,30 @@
       <bottom style="thin">
         <color indexed="11"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -464,6 +525,17 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="11"/>
       </left>
       <right style="thin">
@@ -492,146 +564,210 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="41">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffdb7e40"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffc000"/>
-      <rgbColor rgb="ffffd965"/>
-      <rgbColor rgb="ff1f2328"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFDB7E40"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFFD965"/>
+      <rgbColor rgb="FF1F2328"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -757,7 +893,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -766,7 +902,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -775,7 +911,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -849,7 +985,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -857,7 +993,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -875,7 +1011,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -904,7 +1040,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -929,7 +1065,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -954,7 +1090,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -979,7 +1115,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1004,7 +1140,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1029,7 +1165,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1054,7 +1190,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1079,7 +1215,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1104,7 +1240,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1117,9 +1253,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1134,7 +1276,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1142,7 +1284,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1160,7 +1302,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1185,7 +1327,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1210,7 +1352,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1235,7 +1377,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1260,7 +1402,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1285,7 +1427,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1310,7 +1452,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1335,7 +1477,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1360,7 +1502,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1385,7 +1527,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1398,9 +1540,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1414,7 +1562,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1432,7 +1580,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1461,7 +1609,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1486,7 +1634,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1511,7 +1659,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1536,7 +1684,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1561,7 +1709,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1586,7 +1734,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1611,7 +1759,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1636,7 +1784,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1661,7 +1809,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1674,880 +1822,993 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="144" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.3333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="23.33203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.6719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6719" style="1" customWidth="1"/>
-    <col min="3" max="4" width="23.3516" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="23.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="36" customWidth="1"/>
+    <col min="3" max="4" width="23.33203125" style="36" customWidth="1"/>
+    <col min="5" max="6" width="23.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="23.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" ht="13.5" customHeight="1">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" ht="14.55" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" t="s" s="6">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" ht="39.45" customHeight="1">
-      <c r="A4" t="s" s="8">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="9">
+      <c r="B4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" ht="14.55" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" t="s" s="12">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" s="24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" ht="63.75" customHeight="1">
-      <c r="A6" t="s" s="8">
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s" s="13">
+      <c r="B6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s" s="13">
+      <c r="C6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s" s="13">
+      <c r="D6" s="25" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" ht="184.8" customHeight="1">
-      <c r="A7" t="s" s="8">
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="184.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s" s="13">
+      <c r="B7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s" s="14">
+      <c r="C7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s" s="14">
+      <c r="D7" s="27" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" ht="14.55" customHeight="1">
-      <c r="A8" t="s" s="8">
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="26">
         <v>600</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="26">
         <v>450</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="26">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" ht="42" customHeight="1">
-      <c r="A9" t="s" s="8">
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s" s="14">
+      <c r="B9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s" s="14">
+      <c r="C9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s" s="14">
+      <c r="D9" s="27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" ht="14.55" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" t="s" s="6">
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" ht="26.55" customHeight="1">
-      <c r="A12" t="s" s="18">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s" s="19">
-        <v>21</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
-    </row>
-    <row r="13" ht="14.55" customHeight="1">
-      <c r="A13" s="21"/>
-      <c r="B13" t="s" s="22">
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s" s="22">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s" s="22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" ht="110.4" customHeight="1">
-      <c r="A14" t="s" s="18">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s" s="23">
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" ht="163" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s" s="23">
+      <c r="C15" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D14" t="s" s="23">
+      <c r="D15" s="30" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" ht="220.8" customHeight="1">
-      <c r="A15" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s" s="23">
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="31">
+        <v>420</v>
+      </c>
+      <c r="C16" s="31">
+        <v>200</v>
+      </c>
+      <c r="D16" s="31">
+        <v>200</v>
+      </c>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s" s="23">
+      <c r="C17" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s" s="23">
+      <c r="D17" s="30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" ht="14.55" customHeight="1">
-      <c r="A16" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="B16" s="24">
-        <v>420</v>
-      </c>
-      <c r="C16" s="24">
-        <v>200</v>
-      </c>
-      <c r="D16" s="24">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" ht="110.4" customHeight="1">
-      <c r="A17" t="s" s="18">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s" s="23">
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>29</v>
-      </c>
-      <c r="C17" t="s" s="23">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s" s="23">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-    </row>
-    <row r="19" ht="14.55" customHeight="1">
-      <c r="A19" s="27"/>
-      <c r="B19" t="s" s="28">
-        <v>32</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-    </row>
-    <row r="20" ht="14.55" customHeight="1">
-      <c r="A20" t="s" s="18">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s" s="30">
-        <v>33</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
-    </row>
-    <row r="21" ht="14.55" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" t="s" s="22">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s" s="22">
-        <v>22</v>
-      </c>
-      <c r="D21" t="s" s="22">
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" ht="165.6" customHeight="1">
-      <c r="A22" t="s" s="18">
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="137" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B22" t="s" s="23">
+      <c r="B22" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C22" t="s" s="23">
+      <c r="D23" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D22" t="s" s="23">
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="31">
+        <v>330</v>
+      </c>
+      <c r="C24" s="31">
+        <v>500</v>
+      </c>
+      <c r="D24" s="31">
+        <v>120</v>
+      </c>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" ht="138" customHeight="1">
-      <c r="A23" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="B23" t="s" s="23">
+      <c r="C25" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C23" t="s" s="23">
+      <c r="D25" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D23" t="s" s="23">
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="24" ht="14.55" customHeight="1">
-      <c r="A24" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="B24" s="24">
-        <v>330</v>
-      </c>
-      <c r="C24" s="24">
-        <v>500</v>
-      </c>
-      <c r="D24" s="24">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="25" ht="220.8" customHeight="1">
-      <c r="A25" t="s" s="18">
-        <v>16</v>
-      </c>
-      <c r="B25" t="s" s="23">
-        <v>40</v>
-      </c>
-      <c r="C25" t="s" s="23">
-        <v>41</v>
-      </c>
-      <c r="D25" t="s" s="23">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-    </row>
-    <row r="27" ht="14.55" customHeight="1">
-      <c r="A27" s="27"/>
-      <c r="B27" t="s" s="28">
-        <v>43</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-    </row>
-    <row r="28" ht="38.55" customHeight="1">
-      <c r="A28" t="s" s="18">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s" s="19">
-        <v>44</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
-    </row>
-    <row r="29" ht="14.55" customHeight="1">
-      <c r="A29" s="21"/>
-      <c r="B29" t="s" s="22">
-        <v>22</v>
-      </c>
-      <c r="C29" t="s" s="22">
-        <v>22</v>
-      </c>
-      <c r="D29" t="s" s="22">
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
+      <c r="B29" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" ht="193.2" customHeight="1">
-      <c r="A30" t="s" s="18">
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B30" t="s" s="23">
+      <c r="B30" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C30" t="s" s="23">
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="31">
+        <v>600</v>
+      </c>
+      <c r="C32" s="31">
+        <v>600</v>
+      </c>
+      <c r="D32" s="31">
+        <v>600</v>
+      </c>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D30" t="s" s="23">
+      <c r="C33" s="30" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" ht="193.2" customHeight="1">
-      <c r="A31" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="B31" t="s" s="23">
+      <c r="D33" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C31" t="s" s="23">
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="D31" t="s" s="23">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" ht="14.55" customHeight="1">
-      <c r="A32" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="B32" s="24">
-        <v>600</v>
-      </c>
-      <c r="C32" s="24">
-        <v>600</v>
-      </c>
-      <c r="D32" s="24">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="33" ht="96.6" customHeight="1">
-      <c r="A33" t="s" s="18">
-        <v>16</v>
-      </c>
-      <c r="B33" t="s" s="23">
-        <v>51</v>
-      </c>
-      <c r="C33" t="s" s="23">
-        <v>52</v>
-      </c>
-      <c r="D33" t="s" s="23">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="31"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-    </row>
-    <row r="35" ht="14.55" customHeight="1">
-      <c r="A35" s="31"/>
-      <c r="B35" t="s" s="28">
-        <v>54</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-    </row>
-    <row r="36" ht="14.6" customHeight="1">
-      <c r="A36" t="s" s="18">
-        <v>2</v>
-      </c>
-      <c r="B36" t="s" s="19">
-        <v>55</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
-    </row>
-    <row r="37" ht="14.55" customHeight="1">
-      <c r="A37" s="21"/>
-      <c r="B37" t="s" s="22">
-        <v>22</v>
-      </c>
-      <c r="C37" t="s" s="22">
-        <v>22</v>
-      </c>
-      <c r="D37" t="s" s="22">
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" ht="86.6" customHeight="1">
-      <c r="A38" t="s" s="18">
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" t="s" s="23">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" ht="62.6" customHeight="1">
-      <c r="A39" t="s" s="18">
+      <c r="B38" s="34"/>
+      <c r="C38" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:5" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" t="s" s="23">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" ht="14.55" customHeight="1">
-      <c r="A40" t="s" s="18">
+      <c r="B39" s="34"/>
+      <c r="C39" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="24">
+      <c r="B40" s="34"/>
+      <c r="C40" s="39">
         <v>120</v>
       </c>
-    </row>
-    <row r="41" ht="26.6" customHeight="1">
-      <c r="A41" t="s" s="18">
+      <c r="D40" s="31">
+        <v>60</v>
+      </c>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" t="s" s="23">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" ht="13.5" customHeight="1">
-      <c r="A42" s="31"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-    </row>
-    <row r="43" ht="14.55" customHeight="1">
-      <c r="A43" s="31"/>
-      <c r="B43" t="s" s="28">
-        <v>59</v>
-      </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-    </row>
-    <row r="44" ht="14.6" customHeight="1">
-      <c r="A44" t="s" s="18">
+      <c r="B41" s="34"/>
+      <c r="C41" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+      <c r="B43" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B44" t="s" s="19">
-        <v>60</v>
+      <c r="B44" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
-    </row>
-    <row r="45" ht="14.55" customHeight="1">
-      <c r="A45" s="21"/>
-      <c r="B45" t="s" s="22">
-        <v>22</v>
-      </c>
-      <c r="C45" t="s" s="22">
-        <v>22</v>
-      </c>
-      <c r="D45" t="s" s="22">
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="12"/>
+      <c r="B45" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" ht="110.6" customHeight="1">
-      <c r="A46" t="s" s="18">
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" spans="1:5" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" t="s" s="23">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" ht="74.6" customHeight="1">
-      <c r="A47" t="s" s="18">
+      <c r="B46" s="34"/>
+      <c r="C46" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" t="s" s="23">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" ht="14.55" customHeight="1">
-      <c r="A48" t="s" s="18">
+      <c r="B47" s="34"/>
+      <c r="C47" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" ht="50.6" customHeight="1">
-      <c r="A49" t="s" s="18">
+      <c r="B48" s="34"/>
+      <c r="C48" s="39">
+        <v>60</v>
+      </c>
+      <c r="D48" s="31">
+        <v>60</v>
+      </c>
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="1:5" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" t="s" s="23">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" ht="14.55" customHeight="1">
-      <c r="A50" s="18"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-    </row>
-    <row r="51" ht="14.55" customHeight="1">
-      <c r="A51" s="31"/>
-      <c r="B51" t="s" s="28">
-        <v>64</v>
-      </c>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-    </row>
-    <row r="52" ht="26.6" customHeight="1">
-      <c r="A52" t="s" s="18">
+      <c r="B49" s="34"/>
+      <c r="C49" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="11"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="9"/>
+    </row>
+    <row r="51" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="15"/>
+      <c r="B51" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B52" t="s" s="19">
-        <v>65</v>
+      <c r="B52" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
-    </row>
-    <row r="53" ht="14.55" customHeight="1">
-      <c r="A53" s="21"/>
-      <c r="B53" t="s" s="22">
-        <v>22</v>
-      </c>
-      <c r="C53" t="s" s="22">
-        <v>22</v>
-      </c>
-      <c r="D53" t="s" s="22">
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="12"/>
+      <c r="B53" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" ht="26.6" customHeight="1">
-      <c r="A54" t="s" s="18">
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" t="s" s="23">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" ht="98.6" customHeight="1">
-      <c r="A55" t="s" s="18">
+      <c r="B54" s="34"/>
+      <c r="C54" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" spans="1:5" ht="98.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" t="s" s="23">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" ht="14.55" customHeight="1">
-      <c r="A56" t="s" s="18">
+      <c r="B55" s="34"/>
+      <c r="C55" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="9"/>
+    </row>
+    <row r="56" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="24">
+      <c r="B56" s="34"/>
+      <c r="C56" s="39">
+        <v>550</v>
+      </c>
+      <c r="D56" s="31">
         <v>240</v>
       </c>
-    </row>
-    <row r="57" ht="98.6" customHeight="1">
-      <c r="A57" t="s" s="18">
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" t="s" s="23">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" ht="14.55" customHeight="1">
-      <c r="A58" s="18"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-    </row>
-    <row r="59" ht="14.55" customHeight="1">
-      <c r="A59" s="31"/>
-      <c r="B59" t="s" s="28">
+      <c r="B57" s="34"/>
+      <c r="C57" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-    </row>
-    <row r="60" ht="38.6" customHeight="1">
-      <c r="A60" t="s" s="18">
+      <c r="D57" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="9"/>
+    </row>
+    <row r="58" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="11"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="15"/>
+      <c r="B59" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B60" t="s" s="19">
-        <v>70</v>
+      <c r="B60" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
-    </row>
-    <row r="61" ht="14.55" customHeight="1">
-      <c r="A61" s="21"/>
-      <c r="B61" t="s" s="22">
-        <v>22</v>
-      </c>
-      <c r="C61" t="s" s="22">
-        <v>22</v>
-      </c>
-      <c r="D61" t="s" s="22">
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="12"/>
+      <c r="B61" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" ht="38.6" customHeight="1">
-      <c r="A62" t="s" s="18">
+      <c r="E61" s="9"/>
+    </row>
+    <row r="62" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="32"/>
-      <c r="C62" s="32"/>
-      <c r="D62" t="s" s="23">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" ht="50.6" customHeight="1">
-      <c r="A63" t="s" s="18">
+      <c r="B62" s="34"/>
+      <c r="C62" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="34"/>
+      <c r="E62" s="9"/>
+    </row>
+    <row r="63" spans="1:5" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
-      <c r="D63" t="s" s="23">
+      <c r="B63" s="34"/>
+      <c r="C63" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="34"/>
+      <c r="E63" s="9"/>
+    </row>
+    <row r="64" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="34"/>
+      <c r="C64" s="39">
+        <v>500</v>
+      </c>
+      <c r="D64" s="39"/>
+      <c r="E64" s="9"/>
+    </row>
+    <row r="65" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="34"/>
+      <c r="E65" s="9"/>
+    </row>
+    <row r="66" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="11"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="9"/>
+    </row>
+    <row r="67" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="15"/>
+      <c r="B67" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="9"/>
+    </row>
+    <row r="68" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="40" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="64" ht="14.55" customHeight="1">
-      <c r="A64" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="24">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="65" ht="110.6" customHeight="1">
-      <c r="A65" t="s" s="18">
-        <v>16</v>
-      </c>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" t="s" s="23">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" ht="14.55" customHeight="1">
-      <c r="A66" s="18"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-    </row>
-    <row r="67" ht="14.55" customHeight="1">
-      <c r="A67" s="31"/>
-      <c r="B67" t="s" s="28">
-        <v>74</v>
-      </c>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-    </row>
-    <row r="68" ht="14.55" customHeight="1">
-      <c r="A68" t="s" s="18">
-        <v>2</v>
-      </c>
-      <c r="B68" t="s" s="19">
-        <v>75</v>
       </c>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
-    </row>
-    <row r="69" ht="14.55" customHeight="1">
-      <c r="A69" s="21"/>
-      <c r="B69" t="s" s="22">
-        <v>22</v>
-      </c>
-      <c r="C69" t="s" s="22">
-        <v>22</v>
-      </c>
-      <c r="D69" t="s" s="22">
+      <c r="E68" s="9"/>
+    </row>
+    <row r="69" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="12"/>
+      <c r="B69" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" ht="62.6" customHeight="1">
-      <c r="A70" t="s" s="18">
+      <c r="E69" s="9"/>
+    </row>
+    <row r="70" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" t="s" s="23">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="71" ht="110.6" customHeight="1">
-      <c r="A71" t="s" s="18">
+      <c r="B70" s="34"/>
+      <c r="C70" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="34"/>
+      <c r="E70" s="9"/>
+    </row>
+    <row r="71" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
-      <c r="D71" t="s" s="23">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" ht="14.55" customHeight="1">
-      <c r="A72" t="s" s="18">
+      <c r="B71" s="34"/>
+      <c r="C71" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71" s="34"/>
+      <c r="E71" s="9"/>
+    </row>
+    <row r="72" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="24">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="73" ht="98.6" customHeight="1">
-      <c r="A73" t="s" s="18">
+      <c r="B72" s="34"/>
+      <c r="C72" s="34">
+        <v>300</v>
+      </c>
+      <c r="D72" s="39"/>
+      <c r="E72" s="9"/>
+    </row>
+    <row r="73" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" t="s" s="23">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="74" ht="14.55" customHeight="1">
-      <c r="A74" s="18"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-    </row>
-    <row r="75" ht="14.55" customHeight="1">
-      <c r="A75" s="31"/>
-      <c r="B75" t="s" s="28">
-        <v>79</v>
-      </c>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-    </row>
-    <row r="76" ht="14.55" customHeight="1">
-      <c r="A76" t="s" s="18">
+      <c r="B73" s="34"/>
+      <c r="C73" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" s="34"/>
+      <c r="E73" s="9"/>
+    </row>
+    <row r="74" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="11"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="9"/>
+    </row>
+    <row r="75" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="15"/>
+      <c r="B75" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="9"/>
+    </row>
+    <row r="76" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B76" t="s" s="19">
-        <v>80</v>
+      <c r="B76" s="40" t="s">
+        <v>73</v>
       </c>
       <c r="C76" s="20"/>
       <c r="D76" s="20"/>
-    </row>
-    <row r="77" ht="14.55" customHeight="1">
-      <c r="A77" s="21"/>
-      <c r="B77" t="s" s="22">
-        <v>22</v>
-      </c>
-      <c r="C77" t="s" s="22">
-        <v>22</v>
-      </c>
-      <c r="D77" t="s" s="22">
+      <c r="E76" s="9"/>
+    </row>
+    <row r="77" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="12"/>
+      <c r="B77" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" ht="74.6" customHeight="1">
-      <c r="A78" t="s" s="18">
+      <c r="E77" s="9"/>
+    </row>
+    <row r="78" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B78" s="32"/>
-      <c r="C78" s="32"/>
-      <c r="D78" t="s" s="23">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" ht="134.6" customHeight="1">
-      <c r="A79" t="s" s="18">
+      <c r="B78" s="34"/>
+      <c r="C78" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D78" s="34"/>
+      <c r="E78" s="9"/>
+    </row>
+    <row r="79" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
-      <c r="D79" t="s" s="23">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" ht="14.55" customHeight="1">
-      <c r="A80" t="s" s="18">
+      <c r="B79" s="34"/>
+      <c r="C79" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" s="34"/>
+      <c r="E79" s="9"/>
+    </row>
+    <row r="80" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B80" s="32"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="24">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="81" ht="86.6" customHeight="1">
-      <c r="A81" t="s" s="18">
+      <c r="B80" s="34"/>
+      <c r="C80" s="34">
+        <v>120</v>
+      </c>
+      <c r="D80" s="39"/>
+      <c r="E80" s="9"/>
+    </row>
+    <row r="81" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B81" s="32"/>
-      <c r="C81" s="32"/>
-      <c r="D81" t="s" s="23">
-        <v>83</v>
-      </c>
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B60:D60"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B76:D76"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B36" r:id="rId1" location="" tooltip="" display="huggingface.co Space einrichten"/>
+    <hyperlink ref="B36" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Progress.Diary.xlsx
+++ b/Progress.Diary.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisabott/Desktop/uni/2023:24_id/105_projektmodul-start/team-10-whatson/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF4F3D1-963F-A44C-B20A-5C0CC0C926DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="40" yWindow="500" windowWidth="31080" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>Progress Diary</t>
   </si>
@@ -82,12 +73,18 @@
     <t>Der Grund, warum etwas nicht funktioniert, ist manchmal ziemlich banal</t>
   </si>
   <si>
+    <t>KW 48</t>
+  </si>
+  <si>
     <t>Github beherrschen und benutzen. Code aufräumen. Chatbot Scope und Identität nachschärfen.</t>
   </si>
   <si>
     <t>Icon Design ist eine komplexe Arbeit bei der man alle Aspekte durchleuchten muss und sich am Besten ein Konzept erstellt um strukturiert die Aufgabe zu lösen</t>
   </si>
   <si>
+    <t>Ich habe ein neues User Icon erstellt und das bereits bestehende Chatbot Icon in Illustrator erneuert. Beide Icons habe ich anschließend in den Code implimentiert</t>
+  </si>
+  <si>
     <t>Wie man Github verwendet. Dass wir nochmal genau überlegen sollten, welchen Mehrwert unser Chatbot liefern sollte.</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
     <t>Icons gehen einem nicht so leicht von der Hand. Der Mehrwert einer Idee ist vielleicht doch nicht so klar, wie man zuerst dachte.</t>
   </si>
   <si>
+    <t>KW 49</t>
+  </si>
+  <si>
     <t>Chatbot-Charakter entwickeln, Anpassung der Gradio Blocks / des UI</t>
   </si>
   <si>
@@ -139,6 +139,9 @@
     <t>Ich muss mich mit Prompt Engineering befassen. Gradio Blocks erlauben ein individuelleres Styling des Chatbots.</t>
   </si>
   <si>
+    <t>KW 50</t>
+  </si>
+  <si>
     <t>Finalisierung von Sprint1: Github Issues verwenden, Prompt Engineering, CSS anpassen, Themenauswahl über Dropdown Menü, Zugriff auf gescrapte Daten, Vorbereitung des Sprint 1 Review, Aktualisierung des Wiki</t>
   </si>
   <si>
@@ -167,11 +170,14 @@
   </si>
   <si>
     <t>Ich muss mich mehr mit den Dokumentationen zu Llama-Index und Gradio befassen. Ohne Maxi wären wir aufgeschmissen.</t>
+  </si>
+  <si>
+    <t>KW 51</t>
   </si>
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="11"/>
         <color indexed="15"/>
         <rFont val="Arial"/>
@@ -188,147 +194,178 @@
     </r>
   </si>
   <si>
+    <t>Den Chatbot auf einer externen Plattform zu hosten ist praktisch und kann schnell eingerichtet werden, jedoch ist ein Nachteil, dass der Code nicht mit GitHub verknüpft ist</t>
+  </si>
+  <si>
     <t>Man kann den bisher nur lokal aufrufbaren Chatbot auch für andere Nutzer/Interessierte zur Verfügung stellen, indem man einen Space bei huggingface einrichtet.</t>
   </si>
   <si>
+    <t>Account bei Hugging Face angelegt, Code von GitHub eingefüg. Versucht zu verstehen, weswegen HuggingFace manche CSS-Zeilen nicht umsetzt.</t>
+  </si>
+  <si>
     <t>Account bei huggingface angelegt. app.py und requirements.txt angelegt. Spaces bei huggingface in Augenschein genommen.</t>
   </si>
   <si>
+    <t>Über HuggingFace lernen und verstehen</t>
+  </si>
+  <si>
     <t>Mehr über huggingface lernen</t>
   </si>
   <si>
+    <t>KW 52</t>
+  </si>
+  <si>
     <t>Anpassung des CSS im Huggingface Space, Probleme mit OpenAI Tokens</t>
   </si>
   <si>
+    <t>Über die technischen Aspekte eines Projekts mehr lernen/recherchieren. Genau wissen was hinter welchen Zeilen Code steckt.</t>
+  </si>
+  <si>
     <t>Huggingface gibt das UI des Chatbots nicht genauso wieder wir beim lokalen Aufruf des Chatbots. Man sollte im Auge behalten, wie viele Tokens bei der Nutzung des Chatbots verbraucht werden.</t>
   </si>
   <si>
+    <t>Das Aussehen unseres Chatbots konnte nicht verändert werden, da man die Chatbots nicht öffnen konnte.</t>
+  </si>
+  <si>
     <t>Versuch mich um das CSS auf huggingface zu kümmern fehlgeschlagen, da Chatbot sich wegen Probleme mit OpenAI nicht mehr öffnen/nutzen ließ.</t>
   </si>
   <si>
+    <t>Mehr über die Nutzung von OpenAI lernen. Über Vorteile und Nachteile nachdenken und genau wissen weswegen man sich für ein Produkt entschieden hat</t>
+  </si>
+  <si>
     <t>Mehr über OpenAI Tokens lernen. Über sparsameren Chatbot bzgl Tokens nachdenken.</t>
   </si>
   <si>
+    <t>KW 1</t>
+  </si>
+  <si>
     <t>Code von app.py geändert, Lösungen für Token-Problem überlegen, User Testing</t>
   </si>
   <si>
+    <t>Gradio unterstützt zwar, dass einzelne Blöcke geupdated werden, jedoch nicht dass das gesamte Interface refreshed wird. Eine scheinbar einfache Erweiterungen kann länger dauern als gedacht.</t>
+  </si>
+  <si>
     <t>Vorbereitung eines Usability Testings.</t>
   </si>
   <si>
+    <t>Mich viel mit der Gradio Dokumentation beschäftigt. app.py mehrmals abgeändert, damit das Theme sich auf Knopfdruck ändert. -&gt; noch nicht implementiert</t>
+  </si>
+  <si>
     <t xml:space="preserve">app.py geändert: es werden nur noch RSS Feeds von einer Seite abgerufen. Dropdown durch reine Textbox ersetzt. Ausgabe der Headlines begrenzt. Skript für Usability Testing verfasst. </t>
   </si>
   <si>
+    <t>Eine Funktion, welche zunächst einfach aussieht ist oft sehr schwer umzusetzen und dauert sehr lang.</t>
+  </si>
+  <si>
     <t>Es ist schwer vorauszusagen, wie zeitintensiv der geplante User Test ausfällt. Deshalb muss man überlegen, wie viele und welche Aufgaben man dem Probanden aufgibt.</t>
   </si>
   <si>
-    <t>User Testing und Auswertung der Tests</t>
-  </si>
-  <si>
-    <t>Über die technischen Aspekte eines Projekts mehr lernen/recherchieren. Genau wissen was hinter welchen Zeilen Code steckt.</t>
-  </si>
-  <si>
-    <t>Ich habe ein neues User Icon erstellt und das bereits bestehende Chatbot Icon in Illustrator erneuert. Beide Icons habe ich anschließend in den Code implimentiert</t>
-  </si>
-  <si>
-    <t>Den Chatbot auf einer externen Plattform zu hosten ist praktisch und kann schnell eingerichtet werden, jedoch ist ein Nachteil, dass der Code nicht mit GitHub verknüpft ist</t>
-  </si>
-  <si>
-    <t>Account bei Hugging Face angelegt, Code von GitHub eingefüg. Versucht zu verstehen, weswegen HuggingFace manche CSS-Zeilen nicht umsetzt.</t>
-  </si>
-  <si>
-    <t>Über HuggingFace lernen und verstehen</t>
-  </si>
-  <si>
-    <t>Gradio unterstützt zwar, dass einzelne Blöcke geupdated werden, jedoch nicht dass das gesamte Interface refreshed wird. Eine scheinbar einfache Erweiterungen kann länger dauern als gedacht.</t>
-  </si>
-  <si>
-    <t>Mich viel mit der Gradio Dokumentation beschäftigt. app.py mehrmals abgeändert, damit das Theme sich auf Knopfdruck ändert. -&gt; noch nicht implementiert</t>
-  </si>
-  <si>
-    <t>Eine Funktion, welche zunächst einfach aussieht ist oft sehr schwer umzusetzen und dauert sehr lang.</t>
-  </si>
-  <si>
-    <t>Mehr über die Nutzung von OpenAI lernen. Über Vorteile und Nachteile nachdenken und genau wissen weswegen man sich für ein Produkt entschieden hat</t>
-  </si>
-  <si>
-    <t>Das Aussehen unseres Chatbots konnte nicht verändert werden, da man die Chatbots nicht öffnen konnte.</t>
+    <t>KW 2</t>
+  </si>
+  <si>
+    <t>Landing Page Vorschläge erstellen. User Testing und Auswertung der Tests, Entscheidung für und Priorisierung von nötigen Änderungen/Anpassungen, die die Tests uns gezeigt haben</t>
+  </si>
+  <si>
+    <t>Dass ein User Testing sehr hilreich sein kann und je nach Interviewpartner unterschiedlich hilfreich / aufschlussreich</t>
+  </si>
+  <si>
+    <t>Ein User Testing durchzuführen und im Anschluss auszuwerten.</t>
+  </si>
+  <si>
+    <t>User Testing durchgeführt, dieses ausgewertet, eine der drei Landing-Pages erstellt und nach einer Lösung für die Themenanpassung gesucht</t>
+  </si>
+  <si>
+    <t>Meinen Vorschlag für eine Landing Page in Firma erstellt. User Test zu Hause lokal durchgeführt.</t>
+  </si>
+  <si>
+    <t>Wenn man sehr lange an einem einzelnen Enhancement festhängt ist dies sehr frustrierend</t>
+  </si>
+  <si>
+    <t>Die Erstellung meines Landing Page Vorschlags hat mir großen Spaß gemacht. Es ist gar nicht so einfach, ein User Testing allein durchzuführen, da man Moderator, Beobachter und Protokollant in einem ist.</t>
+  </si>
+  <si>
+    <t>KW 3</t>
   </si>
   <si>
     <t>Vorbereitung auf die Endpräsentation, Abstimmung der Landing Page</t>
   </si>
   <si>
-    <t>Finale Ausarbeitung des Chatbots</t>
-  </si>
-  <si>
-    <t>KW 48</t>
-  </si>
-  <si>
-    <t>KW 49</t>
-  </si>
-  <si>
-    <t>KW 50</t>
-  </si>
-  <si>
-    <t>KW 51</t>
-  </si>
-  <si>
-    <t>KW 52</t>
-  </si>
-  <si>
-    <t>KW 1</t>
-  </si>
-  <si>
-    <t>KW 2</t>
-  </si>
-  <si>
-    <t>KW 3</t>
+    <t xml:space="preserve">Teamarbeit und gutes Zeitmanagement sind sehr wichtig! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurz gefasst alle wichtigen Informationen und Learnings des Projektes in eine Präsentation verpacken. </t>
+  </si>
+  <si>
+    <t>Erstellen der Präsentation, Anpassung von einigen gestalterischen Aspekten, Abstimmung über eine Landing Page</t>
+  </si>
+  <si>
+    <t>Landing Page Vorschläge aller zu einem finalen Konzept zusammengefasst. Anteilige Mitarbeit an den Präsentationsfolien, Vorbereitung des Chatbot-Demonstration-Teils der Abschlusspräsentation.</t>
+  </si>
+  <si>
+    <t>Bessere Kommunikation über das Aufteilen von Aufgaben bzw. kleinteiligere Aufgabenverteilung</t>
+  </si>
+  <si>
+    <t>Durch die Vereinigung unserer Ideen haben wir eine tolle Landing Page gestaltet. Es ist nicht leicht, die Arbeit der letzten Wochen in einer kurzen Präsentation zusammen zu fassen.</t>
   </si>
   <si>
     <t>KW 4</t>
   </si>
   <si>
-    <t>Dass ein User Testing sehr hilreich sein kann und je nach Interviewpartner unterschiedlich hilfreich / aufschlussreich</t>
-  </si>
-  <si>
-    <t>User Testing durchgeführt, dieses ausgewertet, eine der drei Landing-Pages erstellt und nach einer Lösung für die Themenanpassung gesucht</t>
-  </si>
-  <si>
-    <t>Wenn man sehr lange an einem einzelnen Enhancement festhängt ist dies sehr frustrierend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teamarbeit und gutes Zeitmanagement sind sehr wichtig! </t>
-  </si>
-  <si>
-    <t>Erstellen der Präsentation, Anpassung von einigen gestalterischen Aspekten, Abstimmung über eine Landing Page</t>
-  </si>
-  <si>
-    <t>Bessere Kommunikation über das Aufteilen von Aufgaben bzw. kleinteiligere Aufgabenverteilung</t>
+    <t>Finalisierung von Sprint2</t>
   </si>
   <si>
     <t>Wie schnell so ein Projekt doch vorbei sein kann, dass das Feedback von Kommilitonen sehr hilfreich sein kann</t>
   </si>
   <si>
+    <t>Leider konnte ich keine Lösung finden, wie das Updaten einzelner Blocks durch die Auswahl der Radio Buttons getriggert werden kann.</t>
+  </si>
+  <si>
     <t>Letzte Weiterentwicklungen implementieren, Code kommentieren und verständlich machen</t>
+  </si>
+  <si>
+    <t>Nach wiederholt fehlgeschlagenem Versuch die Modusauswahl zum Laufen zu bringen, Entscheidung für Weglassen der Modi getroffen. Modusauswahl entfernt. Kleinere Anpassungen am Styling vorgenommen.  Fehlende Inhalte im Wiki ergänzt.</t>
+  </si>
+  <si>
+    <t>Bei unserem Chatbot handelt es sich noch immer um einen Prototyp. Bis zu einem fertigen Produkt wäre noch ein weiter Weg. Ich bin stolz wie weit wir gekommen sind.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="16"/>
       <color indexed="9"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -339,46 +376,20 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="15"/>
+      <sz val="10"/>
+      <color indexed="14"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="12"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color indexed="15"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -401,7 +412,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -566,6 +577,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="thin">
@@ -579,195 +605,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="41">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFDB7E40"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFFD965"/>
-      <rgbColor rgb="FF1F2328"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffdb7e40"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffffc000"/>
+      <rgbColor rgb="ffffd965"/>
+      <rgbColor rgb="ff1f2328"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -893,7 +889,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -902,7 +898,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -911,7 +907,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -985,7 +981,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -993,7 +989,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1011,7 +1007,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1040,7 +1036,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1065,7 +1061,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1090,7 +1086,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1115,7 +1111,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1140,7 +1136,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1165,7 +1161,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1190,7 +1186,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1215,7 +1211,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1240,7 +1236,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1253,15 +1249,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1276,7 +1266,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1284,7 +1274,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1302,7 +1292,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1327,7 +1317,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1352,7 +1342,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1377,7 +1367,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1402,7 +1392,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1427,7 +1417,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1452,7 +1442,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1477,7 +1467,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1502,7 +1492,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1527,7 +1517,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1540,15 +1530,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1562,7 +1546,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1580,7 +1564,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1609,7 +1593,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1634,7 +1618,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1659,7 +1643,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1684,7 +1668,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1709,7 +1693,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1734,7 +1718,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1759,7 +1743,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1784,7 +1768,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1809,7 +1793,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1822,974 +1806,988 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="144" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="23.33203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="23.3333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="36" customWidth="1"/>
-    <col min="3" max="4" width="23.33203125" style="36" customWidth="1"/>
-    <col min="5" max="6" width="23.33203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="23.33203125" style="1"/>
+    <col min="1" max="1" width="45.6719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6719" style="1" customWidth="1"/>
+    <col min="3" max="5" width="23.3516" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="23.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="23" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" ht="14.5" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" t="s" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" ht="39.5" customHeight="1">
+      <c r="A4" t="s" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" t="s" s="11">
         <v>3</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="24" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" ht="14.5" customHeight="1">
+      <c r="A5" s="13"/>
+      <c r="B5" t="s" s="14">
         <v>4</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" t="s" s="14">
         <v>5</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" t="s" s="14">
         <v>6</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" ht="63.75" customHeight="1">
+      <c r="A6" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" t="s" s="16">
         <v>8</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="184.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" ht="184.75" customHeight="1">
+      <c r="A7" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" t="s" s="17">
         <v>13</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" t="s" s="17">
         <v>14</v>
       </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" ht="14.5" customHeight="1">
+      <c r="A8" t="s" s="10">
         <v>15</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="18">
         <v>600</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="18">
         <v>450</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="18">
         <v>500</v>
       </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" ht="42" customHeight="1">
+      <c r="A9" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" t="s" s="17">
         <v>17</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" t="s" s="17">
         <v>18</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" t="s" s="17">
         <v>19</v>
       </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="23" t="s">
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" ht="13.5" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" ht="14.5" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" ht="26.5" customHeight="1">
+      <c r="A12" t="s" s="21">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s" s="22">
+        <v>21</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" ht="14.5" customHeight="1">
+      <c r="A13" s="24"/>
+      <c r="B13" t="s" s="14">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s" s="14">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s" s="25">
+        <v>6</v>
+      </c>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" ht="110.5" customHeight="1">
+      <c r="A14" t="s" s="21">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" ht="163" customHeight="1">
+      <c r="A15" t="s" s="21">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s" s="26">
+        <v>27</v>
+      </c>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" ht="14.5" customHeight="1">
+      <c r="A16" t="s" s="21">
+        <v>15</v>
+      </c>
+      <c r="B16" s="27">
+        <v>420</v>
+      </c>
+      <c r="C16" s="27">
+        <v>200</v>
+      </c>
+      <c r="D16" s="27">
+        <v>200</v>
+      </c>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" ht="98" customHeight="1">
+      <c r="A17" t="s" s="21">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s" s="26">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s" s="26">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" ht="14.5" customHeight="1">
+      <c r="A19" s="30"/>
+      <c r="B19" t="s" s="31">
+        <v>31</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" ht="14.5" customHeight="1">
+      <c r="A20" t="s" s="21">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s" s="33">
+        <v>32</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" ht="14.5" customHeight="1">
+      <c r="A21" s="24"/>
+      <c r="B21" t="s" s="14">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s" s="14">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s" s="25">
+        <v>6</v>
+      </c>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" ht="137" customHeight="1">
+      <c r="A22" t="s" s="21">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s" s="26">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s" s="26">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s" s="26">
+        <v>35</v>
+      </c>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" ht="114" customHeight="1">
+      <c r="A23" t="s" s="21">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s" s="26">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s" s="26">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s" s="26">
+        <v>38</v>
+      </c>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" ht="14.5" customHeight="1">
+      <c r="A24" t="s" s="21">
+        <v>15</v>
+      </c>
+      <c r="B24" s="27">
+        <v>330</v>
+      </c>
+      <c r="C24" s="27">
+        <v>500</v>
+      </c>
+      <c r="D24" s="27">
+        <v>240</v>
+      </c>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" ht="180" customHeight="1">
+      <c r="A25" t="s" s="21">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s" s="26">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s" s="26">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s" s="26">
+        <v>41</v>
+      </c>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" ht="14.5" customHeight="1">
+      <c r="A27" s="30"/>
+      <c r="B27" t="s" s="31">
+        <v>42</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" ht="45" customHeight="1">
+      <c r="A28" t="s" s="21">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s" s="22">
+        <v>43</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" ht="14.5" customHeight="1">
+      <c r="A29" s="24"/>
+      <c r="B29" t="s" s="14">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s" s="14">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s" s="25">
+        <v>6</v>
+      </c>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" ht="136" customHeight="1">
+      <c r="A30" t="s" s="21">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s" s="26">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s" s="26">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s" s="26">
+        <v>46</v>
+      </c>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" ht="150" customHeight="1">
+      <c r="A31" t="s" s="21">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s" s="26">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s" s="26">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s" s="26">
+        <v>49</v>
+      </c>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" ht="14.5" customHeight="1">
+      <c r="A32" t="s" s="21">
+        <v>15</v>
+      </c>
+      <c r="B32" s="27">
+        <v>600</v>
+      </c>
+      <c r="C32" s="27">
+        <v>600</v>
+      </c>
+      <c r="D32" s="27">
+        <v>600</v>
+      </c>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" ht="84" customHeight="1">
+      <c r="A33" t="s" s="21">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s" s="26">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s" s="26">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s" s="26">
+        <v>52</v>
+      </c>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" ht="13.5" customHeight="1">
+      <c r="A34" s="34"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" ht="14.5" customHeight="1">
+      <c r="A35" s="34"/>
+      <c r="B35" t="s" s="31">
+        <v>53</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" ht="14.5" customHeight="1">
+      <c r="A36" t="s" s="21">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s" s="22">
+        <v>54</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" ht="14.5" customHeight="1">
+      <c r="A37" s="24"/>
+      <c r="B37" t="s" s="14">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s" s="14">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s" s="25">
+        <v>6</v>
+      </c>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" ht="86.5" customHeight="1">
+      <c r="A38" t="s" s="21">
+        <v>7</v>
+      </c>
+      <c r="B38" s="35"/>
+      <c r="C38" t="s" s="26">
+        <v>55</v>
+      </c>
+      <c r="D38" t="s" s="26">
+        <v>56</v>
+      </c>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" ht="86" customHeight="1">
+      <c r="A39" t="s" s="21">
+        <v>11</v>
+      </c>
+      <c r="B39" s="35"/>
+      <c r="C39" t="s" s="26">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s" s="26">
+        <v>58</v>
+      </c>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" ht="14.5" customHeight="1">
+      <c r="A40" t="s" s="21">
+        <v>15</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="27">
+        <v>120</v>
+      </c>
+      <c r="D40" s="27">
+        <v>120</v>
+      </c>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" ht="26.5" customHeight="1">
+      <c r="A41" t="s" s="21">
+        <v>16</v>
+      </c>
+      <c r="B41" s="35"/>
+      <c r="C41" t="s" s="26">
+        <v>59</v>
+      </c>
+      <c r="D41" t="s" s="26">
+        <v>60</v>
+      </c>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" ht="13.5" customHeight="1">
+      <c r="A42" s="34"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" ht="14.5" customHeight="1">
+      <c r="A43" s="34"/>
+      <c r="B43" t="s" s="31">
+        <v>61</v>
+      </c>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" ht="14.5" customHeight="1">
+      <c r="A44" t="s" s="21">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s" s="22">
+        <v>62</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" ht="14.5" customHeight="1">
+      <c r="A45" s="24"/>
+      <c r="B45" t="s" s="14">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s" s="14">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s" s="25">
+        <v>6</v>
+      </c>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" ht="110.5" customHeight="1">
+      <c r="A46" t="s" s="21">
+        <v>7</v>
+      </c>
+      <c r="B46" s="35"/>
+      <c r="C46" t="s" s="26">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s" s="26">
+        <v>64</v>
+      </c>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" ht="81" customHeight="1">
+      <c r="A47" t="s" s="21">
+        <v>11</v>
+      </c>
+      <c r="B47" s="35"/>
+      <c r="C47" t="s" s="26">
+        <v>65</v>
+      </c>
+      <c r="D47" t="s" s="26">
+        <v>66</v>
+      </c>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" ht="14.5" customHeight="1">
+      <c r="A48" t="s" s="21">
+        <v>15</v>
+      </c>
+      <c r="B48" s="35"/>
+      <c r="C48" s="27">
+        <v>60</v>
+      </c>
+      <c r="D48" s="27">
+        <v>100</v>
+      </c>
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" ht="67" customHeight="1">
+      <c r="A49" t="s" s="21">
+        <v>16</v>
+      </c>
+      <c r="B49" s="35"/>
+      <c r="C49" t="s" s="26">
+        <v>67</v>
+      </c>
+      <c r="D49" t="s" s="26">
+        <v>68</v>
+      </c>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" ht="14.5" customHeight="1">
+      <c r="A50" s="21"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" ht="14.5" customHeight="1">
+      <c r="A51" s="34"/>
+      <c r="B51" t="s" s="31">
+        <v>69</v>
+      </c>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" ht="14.5" customHeight="1">
+      <c r="A52" t="s" s="21">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s" s="22">
+        <v>70</v>
+      </c>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" ht="14.5" customHeight="1">
+      <c r="A53" s="24"/>
+      <c r="B53" t="s" s="14">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s" s="14">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s" s="25">
+        <v>6</v>
+      </c>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" ht="93" customHeight="1">
+      <c r="A54" t="s" s="21">
+        <v>7</v>
+      </c>
+      <c r="B54" s="35"/>
+      <c r="C54" t="s" s="26">
+        <v>71</v>
+      </c>
+      <c r="D54" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" ht="98.5" customHeight="1">
+      <c r="A55" t="s" s="21">
+        <v>11</v>
+      </c>
+      <c r="B55" s="35"/>
+      <c r="C55" t="s" s="26">
+        <v>73</v>
+      </c>
+      <c r="D55" t="s" s="26">
         <v>74</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" ht="14.5" customHeight="1">
+      <c r="A56" t="s" s="21">
+        <v>15</v>
+      </c>
+      <c r="B56" s="35"/>
+      <c r="C56" s="27">
+        <v>550</v>
+      </c>
+      <c r="D56" s="27">
+        <v>240</v>
+      </c>
+      <c r="E56" s="15"/>
+    </row>
+    <row r="57" ht="90" customHeight="1">
+      <c r="A57" t="s" s="21">
+        <v>16</v>
+      </c>
+      <c r="B57" s="35"/>
+      <c r="C57" t="s" s="26">
+        <v>75</v>
+      </c>
+      <c r="D57" t="s" s="26">
+        <v>76</v>
+      </c>
+      <c r="E57" s="15"/>
+    </row>
+    <row r="58" ht="14.5" customHeight="1">
+      <c r="A58" s="21"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="15"/>
+    </row>
+    <row r="59" ht="14.5" customHeight="1">
+      <c r="A59" s="34"/>
+      <c r="B59" t="s" s="31">
+        <v>77</v>
+      </c>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" ht="38.6" customHeight="1">
+      <c r="A60" t="s" s="21">
         <v>2</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="24" t="s">
+      <c r="B60" t="s" s="22">
+        <v>78</v>
+      </c>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" ht="14.5" customHeight="1">
+      <c r="A61" s="24"/>
+      <c r="B61" t="s" s="14">
         <v>4</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C61" t="s" s="14">
         <v>5</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D61" t="s" s="25">
         <v>6</v>
       </c>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="E61" s="15"/>
+    </row>
+    <row r="62" ht="66" customHeight="1">
+      <c r="A62" t="s" s="21">
         <v>7</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" ht="163" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="B62" s="35"/>
+      <c r="C62" t="s" s="26">
+        <v>79</v>
+      </c>
+      <c r="D62" t="s" s="37">
+        <v>80</v>
+      </c>
+      <c r="E62" s="15"/>
+    </row>
+    <row r="63" ht="67" customHeight="1">
+      <c r="A63" t="s" s="21">
         <v>11</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="B63" s="35"/>
+      <c r="C63" t="s" s="26">
+        <v>81</v>
+      </c>
+      <c r="D63" t="s" s="37">
+        <v>82</v>
+      </c>
+      <c r="E63" s="15"/>
+    </row>
+    <row r="64" ht="14.5" customHeight="1">
+      <c r="A64" t="s" s="21">
         <v>15</v>
       </c>
-      <c r="B16" s="31">
-        <v>420</v>
-      </c>
-      <c r="C16" s="31">
-        <v>200</v>
-      </c>
-      <c r="D16" s="31">
-        <v>200</v>
-      </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+      <c r="B64" s="35"/>
+      <c r="C64" s="27">
+        <v>500</v>
+      </c>
+      <c r="D64" s="27">
+        <v>300</v>
+      </c>
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" ht="110.6" customHeight="1">
+      <c r="A65" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="B65" s="35"/>
+      <c r="C65" t="s" s="26">
+        <v>83</v>
+      </c>
+      <c r="D65" t="s" s="37">
+        <v>84</v>
+      </c>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" ht="14.25" customHeight="1">
+      <c r="A66" s="21"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="15"/>
+    </row>
+    <row r="67" ht="14.25" customHeight="1">
+      <c r="A67" s="34"/>
+      <c r="B67" t="s" s="31">
+        <v>85</v>
+      </c>
+      <c r="C67" s="32"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="15"/>
+    </row>
+    <row r="68" ht="14.25" customHeight="1">
+      <c r="A68" t="s" s="21">
         <v>2</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="24" t="s">
+      <c r="B68" t="s" s="22">
+        <v>86</v>
+      </c>
+      <c r="C68" s="23"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="15"/>
+    </row>
+    <row r="69" ht="14.25" customHeight="1">
+      <c r="A69" s="24"/>
+      <c r="B69" t="s" s="14">
         <v>4</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C69" t="s" s="14">
         <v>5</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D69" t="s" s="25">
         <v>6</v>
       </c>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" ht="137" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" ht="62.6" customHeight="1">
+      <c r="A70" t="s" s="21">
         <v>7</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+      <c r="B70" s="35"/>
+      <c r="C70" t="s" s="26">
+        <v>87</v>
+      </c>
+      <c r="D70" t="s" s="37">
+        <v>88</v>
+      </c>
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" ht="110.6" customHeight="1">
+      <c r="A71" t="s" s="21">
         <v>11</v>
       </c>
-      <c r="B23" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+      <c r="B71" s="35"/>
+      <c r="C71" t="s" s="26">
+        <v>89</v>
+      </c>
+      <c r="D71" t="s" s="37">
+        <v>90</v>
+      </c>
+      <c r="E71" s="15"/>
+    </row>
+    <row r="72" ht="14.25" customHeight="1">
+      <c r="A72" t="s" s="21">
         <v>15</v>
       </c>
-      <c r="B24" s="31">
-        <v>330</v>
-      </c>
-      <c r="C24" s="31">
-        <v>500</v>
-      </c>
-      <c r="D24" s="31">
+      <c r="B72" s="35"/>
+      <c r="C72" s="39">
+        <v>300</v>
+      </c>
+      <c r="D72" s="27">
+        <v>360</v>
+      </c>
+      <c r="E72" s="15"/>
+    </row>
+    <row r="73" ht="98.6" customHeight="1">
+      <c r="A73" t="s" s="21">
+        <v>16</v>
+      </c>
+      <c r="B73" s="35"/>
+      <c r="C73" t="s" s="26">
+        <v>91</v>
+      </c>
+      <c r="D73" t="s" s="37">
+        <v>92</v>
+      </c>
+      <c r="E73" s="15"/>
+    </row>
+    <row r="74" ht="14.25" customHeight="1">
+      <c r="A74" s="21"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="15"/>
+    </row>
+    <row r="75" ht="14.25" customHeight="1">
+      <c r="A75" s="34"/>
+      <c r="B75" t="s" s="31">
+        <v>93</v>
+      </c>
+      <c r="C75" s="32"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="15"/>
+    </row>
+    <row r="76" ht="14.25" customHeight="1">
+      <c r="A76" t="s" s="21">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s" s="22">
+        <v>94</v>
+      </c>
+      <c r="C76" s="23"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="15"/>
+    </row>
+    <row r="77" ht="14.25" customHeight="1">
+      <c r="A77" s="24"/>
+      <c r="B77" t="s" s="14">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s" s="14">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s" s="25">
+        <v>6</v>
+      </c>
+      <c r="E77" s="15"/>
+    </row>
+    <row r="78" ht="74.6" customHeight="1">
+      <c r="A78" t="s" s="21">
+        <v>7</v>
+      </c>
+      <c r="B78" s="35"/>
+      <c r="C78" t="s" s="26">
+        <v>95</v>
+      </c>
+      <c r="D78" t="s" s="37">
+        <v>96</v>
+      </c>
+      <c r="E78" s="15"/>
+    </row>
+    <row r="79" ht="134.6" customHeight="1">
+      <c r="A79" t="s" s="21">
+        <v>11</v>
+      </c>
+      <c r="B79" s="35"/>
+      <c r="C79" t="s" s="26">
+        <v>97</v>
+      </c>
+      <c r="D79" t="s" s="37">
+        <v>98</v>
+      </c>
+      <c r="E79" s="15"/>
+    </row>
+    <row r="80" ht="14.25" customHeight="1">
+      <c r="A80" t="s" s="21">
+        <v>15</v>
+      </c>
+      <c r="B80" s="35"/>
+      <c r="C80" s="39">
         <v>120</v>
       </c>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+      <c r="D80" s="27">
+        <v>210</v>
+      </c>
+      <c r="E80" s="15"/>
+    </row>
+    <row r="81" ht="86.6" customHeight="1">
+      <c r="A81" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="31">
-        <v>600</v>
-      </c>
-      <c r="C32" s="31">
-        <v>600</v>
-      </c>
-      <c r="D32" s="31">
-        <v>600</v>
-      </c>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:5" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:5" ht="86" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="39">
-        <v>120</v>
-      </c>
-      <c r="D40" s="31">
-        <v>60</v>
-      </c>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="9"/>
-    </row>
-    <row r="46" spans="1:5" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" s="9"/>
-    </row>
-    <row r="47" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="34"/>
-      <c r="C48" s="39">
-        <v>60</v>
-      </c>
-      <c r="D48" s="31">
-        <v>60</v>
-      </c>
-      <c r="E48" s="9"/>
-    </row>
-    <row r="49" spans="1:5" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="9"/>
-    </row>
-    <row r="50" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="11"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="9"/>
-    </row>
-    <row r="51" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="12"/>
-      <c r="B53" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="9"/>
-    </row>
-    <row r="54" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="9"/>
-    </row>
-    <row r="55" spans="1:5" ht="98.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E55" s="9"/>
-    </row>
-    <row r="56" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="39">
-        <v>550</v>
-      </c>
-      <c r="D56" s="31">
-        <v>240</v>
-      </c>
-      <c r="E56" s="9"/>
-    </row>
-    <row r="57" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D57" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E57" s="9"/>
-    </row>
-    <row r="58" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="11"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="9"/>
-    </row>
-    <row r="59" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="5"/>
-    </row>
-    <row r="60" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="5"/>
-    </row>
-    <row r="61" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="12"/>
-      <c r="B61" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" s="9"/>
-    </row>
-    <row r="62" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="9"/>
-    </row>
-    <row r="63" spans="1:5" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D63" s="34"/>
-      <c r="E63" s="9"/>
-    </row>
-    <row r="64" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B64" s="34"/>
-      <c r="C64" s="39">
-        <v>500</v>
-      </c>
-      <c r="D64" s="39"/>
-      <c r="E64" s="9"/>
-    </row>
-    <row r="65" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D65" s="34"/>
-      <c r="E65" s="9"/>
-    </row>
-    <row r="66" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="11"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="9"/>
-    </row>
-    <row r="67" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
-      <c r="B67" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="9"/>
-    </row>
-    <row r="68" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="9"/>
-    </row>
-    <row r="69" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="12"/>
-      <c r="B69" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="9"/>
-    </row>
-    <row r="70" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="34"/>
-      <c r="C70" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D70" s="34"/>
-      <c r="E70" s="9"/>
-    </row>
-    <row r="71" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B71" s="34"/>
-      <c r="C71" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="9"/>
-    </row>
-    <row r="72" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" s="34"/>
-      <c r="C72" s="34">
-        <v>300</v>
-      </c>
-      <c r="D72" s="39"/>
-      <c r="E72" s="9"/>
-    </row>
-    <row r="73" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B73" s="34"/>
-      <c r="C73" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="D73" s="34"/>
-      <c r="E73" s="9"/>
-    </row>
-    <row r="74" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="11"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="9"/>
-    </row>
-    <row r="75" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="15"/>
-      <c r="B75" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C75" s="38"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="9"/>
-    </row>
-    <row r="76" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="9"/>
-    </row>
-    <row r="77" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="12"/>
-      <c r="B77" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77" s="9"/>
-    </row>
-    <row r="78" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D78" s="34"/>
-      <c r="E78" s="9"/>
-    </row>
-    <row r="79" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D79" s="34"/>
-      <c r="E79" s="9"/>
-    </row>
-    <row r="80" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34">
-        <v>120</v>
-      </c>
-      <c r="D80" s="39"/>
-      <c r="E80" s="9"/>
-    </row>
-    <row r="81" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="16"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" t="s" s="37">
+        <v>99</v>
+      </c>
+      <c r="E81" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2805,10 +2803,10 @@
     <mergeCell ref="B36:D36"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B36" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B36" r:id="rId1" location="" tooltip="" display="huggingface.co Space einrichten"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Progress.Diary.xlsx
+++ b/Progress.Diary.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glori\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7703958F-1583-415B-803E-C5158BDDDB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="118">
   <si>
     <t>Progress Diary</t>
   </si>
@@ -177,7 +186,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="15"/>
         <rFont val="Arial"/>
@@ -328,44 +337,85 @@
   <si>
     <t>Bei unserem Chatbot handelt es sich noch immer um einen Prototyp. Bis zu einem fertigen Produkt wäre noch ein weiter Weg. Ich bin stolz wie weit wir gekommen sind.</t>
   </si>
+  <si>
+    <t>Wie man den Chatbot öffentlich zugänglich macht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich habe einen Account bei huggingface angelegt, den Code von GitHub eingefügt und versucht den CSS Code zum funktionieren zu bringen </t>
+  </si>
+  <si>
+    <t>Besser über huggingface informieren</t>
+  </si>
+  <si>
+    <t>Dass es scheinbar einen Fehler gibt in HuggingFace mit dem CSS Code.</t>
+  </si>
+  <si>
+    <t>Meinen Space pausiert bei HuggingFace und den Schriftverkehr mit Frau Socher verfolgt bezüglich des hohen Verbrauchs durch die Tokens</t>
+  </si>
+  <si>
+    <t>Besseres Verständins für den Verbrauch bei Chatbots erlangen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durch die Erklärung von Frau Socher zu ihrem implementierten Code habe ich diesen verstanden </t>
+  </si>
+  <si>
+    <t>Zoomcall mit dem Team und Frau Socher bezüglich dem Chatbot geführt, um den Verbrauch zu senken.</t>
+  </si>
+  <si>
+    <t>Das das Usability Testing zwar aufwendig ist aber auch sehr hilfreich und ich dieses bald beginnen muss</t>
+  </si>
+  <si>
+    <t>Ich habe mich in  HTML Code, Java und CSS nochmal tiefer eingearbeitet</t>
+  </si>
+  <si>
+    <t>Versucht die verschiedenen Modi zu programieren und einzubauen mit Hell,Dunkel und Groß Modus, sehr viel zu HTML recherchiert. Nochmal am Design vom Chatbot gearbeitet und CSS Code implementiert</t>
+  </si>
+  <si>
+    <t>Meine Variante zu den Modi hätte evtl funktionieren können, war aber zu kompliziert</t>
+  </si>
+  <si>
+    <t>Mein Chatbot hat nicht funktioniert und ich habe vieles ausprobiert, damit er wieder geht</t>
+  </si>
+  <si>
+    <t>Versucht, den Chatbot wieder zum laufen zu bringen. Ich habe Chat CPT, Websites und Frau Socher und Markus zu Rate gezogen. Usability Testing durchgeführt, Abschlusspräsentation mit den anderen erstellt und die Landing Page erstellt. Das Wiki weiter bearbeitet und vervollständingt</t>
+  </si>
+  <si>
+    <t>Dass man sich nicht immer nur für eine Idee entscheiden muss sondern mehrere in einem Projekt zusammenbringen kann</t>
+  </si>
+  <si>
+    <t>Das manche Vorhaben in diesem Projekt nicht umgesetzt werden können und dass es in Ordnung ist wenn etwas mal nicht funktioniert</t>
+  </si>
+  <si>
+    <t>Das Wiki weiter verbessert und vervollständigt, Issues alle dokumentiert und die Wiki Seite besser aufgeteilt</t>
+  </si>
+  <si>
+    <t>Das der Chatbot "nie" fertig sein wird, weil es immer Verbesserungspotenzial gibt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="16"/>
       <color indexed="9"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -386,7 +436,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="15"/>
       <name val="Arial"/>
@@ -605,165 +655,203 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="43">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffdb7e40"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffc000"/>
-      <rgbColor rgb="ffffd965"/>
-      <rgbColor rgb="ff1f2328"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFDB7E40"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFFD965"/>
+      <rgbColor rgb="FF1F2328"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -889,7 +977,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -898,7 +986,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -907,7 +995,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -981,7 +1069,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -989,7 +1077,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1007,7 +1095,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1036,7 +1124,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1061,7 +1149,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1086,7 +1174,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1111,7 +1199,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1136,7 +1224,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1161,7 +1249,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1186,7 +1274,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1211,7 +1299,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1236,7 +1324,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1249,9 +1337,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1266,7 +1360,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1274,7 +1368,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1292,7 +1386,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1317,7 +1411,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1342,7 +1436,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1367,7 +1461,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1392,7 +1486,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1417,7 +1511,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1442,7 +1536,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1467,7 +1561,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1492,7 +1586,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1517,7 +1611,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1530,9 +1624,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1546,7 +1646,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1564,7 +1664,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1593,7 +1693,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1618,7 +1718,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1643,7 +1743,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1668,7 +1768,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1693,7 +1793,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1718,7 +1818,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1743,7 +1843,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1768,7 +1868,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1793,7 +1893,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1806,32 +1906,41 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.3333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="23.36328125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.6719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6719" style="1" customWidth="1"/>
-    <col min="3" max="5" width="23.3516" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="23.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6328125" style="1" customWidth="1"/>
+    <col min="3" max="6" width="23.36328125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="23.36328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1839,974 +1948,1022 @@
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" ht="14.5" customHeight="1">
+    <row r="3" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" ht="39.5" customHeight="1">
-      <c r="A4" t="s" s="10">
+    <row r="4" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="11">
+      <c r="B4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" ht="14.5" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" t="s" s="14">
+    <row r="5" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="14">
+      <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="14">
+      <c r="D5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" ht="63.75" customHeight="1">
-      <c r="A6" t="s" s="10">
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s" s="16">
+      <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s" s="16">
+      <c r="C6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s" s="16">
+      <c r="D6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" ht="184.75" customHeight="1">
-      <c r="A7" t="s" s="10">
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" ht="184.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s" s="16">
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s" s="17">
+      <c r="C7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s" s="17">
+      <c r="D7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" ht="14.5" customHeight="1">
-      <c r="A8" t="s" s="10">
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="16">
         <v>600</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="16">
         <v>450</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <v>500</v>
       </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" ht="42" customHeight="1">
-      <c r="A9" t="s" s="10">
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s" s="17">
+      <c r="B9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s" s="17">
+      <c r="C9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s" s="17">
+      <c r="D9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" ht="14.5" customHeight="1">
+    <row r="11" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
-      <c r="B11" t="s" s="8">
+      <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" ht="26.5" customHeight="1">
-      <c r="A12" t="s" s="21">
+    <row r="12" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B12" t="s" s="22">
+      <c r="B12" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" ht="14.5" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" t="s" s="14">
+    <row r="13" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="20"/>
+      <c r="B13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C13" t="s" s="14">
+      <c r="C13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D13" t="s" s="25">
+      <c r="D13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" ht="110.5" customHeight="1">
-      <c r="A14" t="s" s="21">
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" ht="110.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B14" t="s" s="26">
+      <c r="B14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="s" s="26">
+      <c r="C14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D14" t="s" s="26">
+      <c r="D14" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" ht="163" customHeight="1">
-      <c r="A15" t="s" s="21">
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" ht="163" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s" s="26">
+      <c r="B15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s" s="26">
+      <c r="C15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="s" s="26">
+      <c r="D15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" ht="14.5" customHeight="1">
-      <c r="A16" t="s" s="21">
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="23">
         <v>420</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="23">
         <v>200</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="23">
         <v>200</v>
       </c>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" ht="98" customHeight="1">
-      <c r="A17" t="s" s="21">
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" ht="98" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="26">
+      <c r="B17" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C17" t="s" s="26">
+      <c r="C17" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D17" t="s" s="26">
+      <c r="D17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" ht="14.5" customHeight="1">
-      <c r="A19" s="30"/>
-      <c r="B19" t="s" s="31">
+    <row r="19" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" ht="14.5" customHeight="1">
-      <c r="A20" t="s" s="21">
+    <row r="20" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B20" t="s" s="33">
+      <c r="B20" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" ht="14.5" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" t="s" s="14">
+    <row r="21" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="20"/>
+      <c r="B21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C21" t="s" s="14">
+      <c r="C21" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D21" t="s" s="25">
+      <c r="D21" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" ht="137" customHeight="1">
-      <c r="A22" t="s" s="21">
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5" ht="137" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B22" t="s" s="26">
+      <c r="B22" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C22" t="s" s="26">
+      <c r="C22" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D22" t="s" s="26">
+      <c r="D22" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" ht="114" customHeight="1">
-      <c r="A23" t="s" s="21">
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B23" t="s" s="26">
+      <c r="B23" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C23" t="s" s="26">
+      <c r="C23" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D23" t="s" s="26">
+      <c r="D23" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" ht="14.5" customHeight="1">
-      <c r="A24" t="s" s="21">
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="23">
         <v>330</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="23">
         <v>500</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="23">
         <v>240</v>
       </c>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" ht="180" customHeight="1">
-      <c r="A25" t="s" s="21">
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B25" t="s" s="26">
+      <c r="B25" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C25" t="s" s="26">
+      <c r="C25" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D25" t="s" s="26">
+      <c r="D25" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" ht="14.5" customHeight="1">
-      <c r="A27" s="30"/>
-      <c r="B27" t="s" s="31">
+    <row r="27" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="26"/>
+      <c r="B27" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" ht="45" customHeight="1">
-      <c r="A28" t="s" s="21">
+    <row r="28" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B28" t="s" s="22">
+      <c r="B28" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" ht="14.5" customHeight="1">
-      <c r="A29" s="24"/>
-      <c r="B29" t="s" s="14">
+    <row r="29" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="20"/>
+      <c r="B29" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C29" t="s" s="14">
+      <c r="C29" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D29" t="s" s="25">
+      <c r="D29" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" ht="136" customHeight="1">
-      <c r="A30" t="s" s="21">
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B30" t="s" s="26">
+      <c r="B30" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C30" t="s" s="26">
+      <c r="C30" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D30" t="s" s="26">
+      <c r="D30" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" ht="150" customHeight="1">
-      <c r="A31" t="s" s="21">
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B31" t="s" s="26">
+      <c r="B31" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C31" t="s" s="26">
+      <c r="C31" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D31" t="s" s="26">
+      <c r="D31" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" ht="14.5" customHeight="1">
-      <c r="A32" t="s" s="21">
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B32" s="23">
         <v>600</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="23">
         <v>600</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="23">
         <v>600</v>
       </c>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" ht="84" customHeight="1">
-      <c r="A33" t="s" s="21">
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B33" t="s" s="26">
+      <c r="B33" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C33" t="s" s="26">
+      <c r="C33" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D33" t="s" s="26">
+      <c r="D33" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="34"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="29"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" ht="14.5" customHeight="1">
-      <c r="A35" s="34"/>
-      <c r="B35" t="s" s="31">
+    <row r="35" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="29"/>
+      <c r="B35" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" ht="14.5" customHeight="1">
-      <c r="A36" t="s" s="21">
+    <row r="36" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B36" t="s" s="22">
+      <c r="B36" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" ht="14.5" customHeight="1">
-      <c r="A37" s="24"/>
-      <c r="B37" t="s" s="14">
+    <row r="37" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="20"/>
+      <c r="B37" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C37" t="s" s="14">
+      <c r="C37" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D37" t="s" s="25">
+      <c r="D37" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" ht="86.5" customHeight="1">
-      <c r="A38" t="s" s="21">
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="1:5" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" t="s" s="26">
+      <c r="B38" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D38" t="s" s="26">
+      <c r="D38" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" ht="86" customHeight="1">
-      <c r="A39" t="s" s="21">
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="1:5" ht="86" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="35"/>
-      <c r="C39" t="s" s="26">
+      <c r="B39" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D39" t="s" s="26">
+      <c r="D39" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" ht="14.5" customHeight="1">
-      <c r="A40" t="s" s="21">
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="27">
+      <c r="B40" s="42">
         <v>120</v>
       </c>
-      <c r="D40" s="27">
+      <c r="C40" s="23">
         <v>120</v>
       </c>
-      <c r="E40" s="15"/>
-    </row>
-    <row r="41" ht="26.5" customHeight="1">
-      <c r="A41" t="s" s="21">
+      <c r="D40" s="23">
+        <v>120</v>
+      </c>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" t="s" s="26">
+      <c r="B41" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D41" t="s" s="26">
+      <c r="D41" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="15"/>
-    </row>
-    <row r="42" ht="13.5" customHeight="1">
-      <c r="A42" s="34"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="29"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" ht="14.5" customHeight="1">
-      <c r="A43" s="34"/>
-      <c r="B43" t="s" s="31">
+    <row r="43" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="29"/>
+      <c r="B43" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" ht="14.5" customHeight="1">
-      <c r="A44" t="s" s="21">
+    <row r="44" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B44" t="s" s="22">
+      <c r="B44" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" ht="14.5" customHeight="1">
-      <c r="A45" s="24"/>
-      <c r="B45" t="s" s="14">
+    <row r="45" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="20"/>
+      <c r="B45" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C45" t="s" s="14">
+      <c r="C45" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D45" t="s" s="25">
+      <c r="D45" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="15"/>
-    </row>
-    <row r="46" ht="110.5" customHeight="1">
-      <c r="A46" t="s" s="21">
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="1:5" ht="110.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="35"/>
-      <c r="C46" t="s" s="26">
+      <c r="B46" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D46" t="s" s="26">
+      <c r="D46" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="15"/>
-    </row>
-    <row r="47" ht="81" customHeight="1">
-      <c r="A47" t="s" s="21">
+      <c r="E46" s="13"/>
+    </row>
+    <row r="47" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="35"/>
-      <c r="C47" t="s" s="26">
+      <c r="B47" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D47" t="s" s="26">
+      <c r="D47" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="15"/>
-    </row>
-    <row r="48" ht="14.5" customHeight="1">
-      <c r="A48" t="s" s="21">
+      <c r="E47" s="13"/>
+    </row>
+    <row r="48" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="27">
+      <c r="B48" s="42">
+        <v>30</v>
+      </c>
+      <c r="C48" s="23">
         <v>60</v>
       </c>
-      <c r="D48" s="27">
+      <c r="D48" s="23">
         <v>100</v>
       </c>
-      <c r="E48" s="15"/>
-    </row>
-    <row r="49" ht="67" customHeight="1">
-      <c r="A49" t="s" s="21">
+      <c r="E48" s="13"/>
+    </row>
+    <row r="49" spans="1:5" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" t="s" s="26">
+      <c r="B49" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D49" t="s" s="26">
+      <c r="D49" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="15"/>
-    </row>
-    <row r="50" ht="14.5" customHeight="1">
-      <c r="A50" s="21"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="15"/>
-    </row>
-    <row r="51" ht="14.5" customHeight="1">
-      <c r="A51" s="34"/>
-      <c r="B51" t="s" s="31">
+      <c r="E49" s="13"/>
+    </row>
+    <row r="50" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="19"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="13"/>
+    </row>
+    <row r="51" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="29"/>
+      <c r="B51" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" ht="14.5" customHeight="1">
-      <c r="A52" t="s" s="21">
+    <row r="52" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B52" t="s" s="22">
+      <c r="B52" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" ht="14.5" customHeight="1">
-      <c r="A53" s="24"/>
-      <c r="B53" t="s" s="14">
+    <row r="53" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="20"/>
+      <c r="B53" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C53" t="s" s="14">
+      <c r="C53" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D53" t="s" s="25">
+      <c r="D53" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="15"/>
-    </row>
-    <row r="54" ht="93" customHeight="1">
-      <c r="A54" t="s" s="21">
+      <c r="E53" s="13"/>
+    </row>
+    <row r="54" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="35"/>
-      <c r="C54" t="s" s="26">
+      <c r="B54" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D54" t="s" s="26">
+      <c r="D54" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E54" s="15"/>
-    </row>
-    <row r="55" ht="98.5" customHeight="1">
-      <c r="A55" t="s" s="21">
+      <c r="E54" s="13"/>
+    </row>
+    <row r="55" spans="1:5" ht="98.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="35"/>
-      <c r="C55" t="s" s="26">
+      <c r="B55" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D55" t="s" s="26">
+      <c r="D55" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E55" s="15"/>
-    </row>
-    <row r="56" ht="14.5" customHeight="1">
-      <c r="A56" t="s" s="21">
+      <c r="E55" s="13"/>
+    </row>
+    <row r="56" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="27">
+      <c r="B56" s="42">
+        <v>90</v>
+      </c>
+      <c r="C56" s="23">
         <v>550</v>
       </c>
-      <c r="D56" s="27">
+      <c r="D56" s="23">
         <v>240</v>
       </c>
-      <c r="E56" s="15"/>
-    </row>
-    <row r="57" ht="90" customHeight="1">
-      <c r="A57" t="s" s="21">
+      <c r="E56" s="13"/>
+    </row>
+    <row r="57" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="35"/>
-      <c r="C57" t="s" s="26">
+      <c r="B57" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D57" t="s" s="26">
+      <c r="D57" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E57" s="15"/>
-    </row>
-    <row r="58" ht="14.5" customHeight="1">
-      <c r="A58" s="21"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="15"/>
-    </row>
-    <row r="59" ht="14.5" customHeight="1">
-      <c r="A59" s="34"/>
-      <c r="B59" t="s" s="31">
+      <c r="E57" s="13"/>
+    </row>
+    <row r="58" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="19"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="13"/>
+    </row>
+    <row r="59" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="29"/>
+      <c r="B59" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" ht="38.6" customHeight="1">
-      <c r="A60" t="s" s="21">
+    <row r="60" spans="1:5" ht="38.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B60" t="s" s="22">
+      <c r="B60" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" ht="14.5" customHeight="1">
-      <c r="A61" s="24"/>
-      <c r="B61" t="s" s="14">
+    <row r="61" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="20"/>
+      <c r="B61" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C61" t="s" s="14">
+      <c r="C61" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D61" t="s" s="25">
+      <c r="D61" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="15"/>
-    </row>
-    <row r="62" ht="66" customHeight="1">
-      <c r="A62" t="s" s="21">
+      <c r="E61" s="13"/>
+    </row>
+    <row r="62" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="35"/>
-      <c r="C62" t="s" s="26">
+      <c r="B62" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D62" t="s" s="37">
+      <c r="D62" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="15"/>
-    </row>
-    <row r="63" ht="67" customHeight="1">
-      <c r="A63" t="s" s="21">
+      <c r="E62" s="13"/>
+    </row>
+    <row r="63" spans="1:5" ht="112" x14ac:dyDescent="0.35">
+      <c r="A63" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="35"/>
-      <c r="C63" t="s" s="26">
+      <c r="B63" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D63" t="s" s="37">
+      <c r="D63" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="E63" s="15"/>
-    </row>
-    <row r="64" ht="14.5" customHeight="1">
-      <c r="A64" t="s" s="21">
+      <c r="E63" s="13"/>
+    </row>
+    <row r="64" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B64" s="35"/>
-      <c r="C64" s="27">
+      <c r="B64" s="42">
+        <v>400</v>
+      </c>
+      <c r="C64" s="23">
         <v>500</v>
       </c>
-      <c r="D64" s="27">
+      <c r="D64" s="23">
         <v>300</v>
       </c>
-      <c r="E64" s="15"/>
-    </row>
-    <row r="65" ht="110.6" customHeight="1">
-      <c r="A65" t="s" s="21">
+      <c r="E64" s="13"/>
+    </row>
+    <row r="65" spans="1:5" ht="110.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B65" s="35"/>
-      <c r="C65" t="s" s="26">
+      <c r="B65" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D65" t="s" s="37">
+      <c r="D65" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="E65" s="15"/>
-    </row>
-    <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="21"/>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="15"/>
-    </row>
-    <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="34"/>
-      <c r="B67" t="s" s="31">
+      <c r="E65" s="13"/>
+    </row>
+    <row r="66" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="19"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="13"/>
+    </row>
+    <row r="67" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="29"/>
+      <c r="B67" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="15"/>
-    </row>
-    <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" t="s" s="21">
+      <c r="C67" s="28"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="13"/>
+    </row>
+    <row r="68" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B68" t="s" s="22">
+      <c r="B68" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="23"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="15"/>
-    </row>
-    <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="24"/>
-      <c r="B69" t="s" s="14">
+      <c r="C68" s="36"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="13"/>
+    </row>
+    <row r="69" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="20"/>
+      <c r="B69" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C69" t="s" s="14">
+      <c r="C69" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D69" t="s" s="25">
+      <c r="D69" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E69" s="15"/>
-    </row>
-    <row r="70" ht="62.6" customHeight="1">
-      <c r="A70" t="s" s="21">
+      <c r="E69" s="13"/>
+    </row>
+    <row r="70" spans="1:5" ht="62.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="35"/>
-      <c r="C70" t="s" s="26">
+      <c r="B70" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D70" t="s" s="37">
+      <c r="D70" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="E70" s="15"/>
-    </row>
-    <row r="71" ht="110.6" customHeight="1">
-      <c r="A71" t="s" s="21">
+      <c r="E70" s="13"/>
+    </row>
+    <row r="71" spans="1:5" ht="110.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="35"/>
-      <c r="C71" t="s" s="26">
+      <c r="B71" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D71" t="s" s="37">
+      <c r="D71" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="E71" s="15"/>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" t="s" s="21">
+      <c r="E71" s="13"/>
+    </row>
+    <row r="72" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B72" s="35"/>
-      <c r="C72" s="39">
+      <c r="B72" s="42">
+        <v>400</v>
+      </c>
+      <c r="C72" s="23">
         <v>300</v>
       </c>
-      <c r="D72" s="27">
+      <c r="D72" s="23">
         <v>360</v>
       </c>
-      <c r="E72" s="15"/>
-    </row>
-    <row r="73" ht="98.6" customHeight="1">
-      <c r="A73" t="s" s="21">
+      <c r="E72" s="13"/>
+    </row>
+    <row r="73" spans="1:5" ht="98.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="35"/>
-      <c r="C73" t="s" s="26">
+      <c r="B73" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D73" t="s" s="37">
+      <c r="D73" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="E73" s="15"/>
-    </row>
-    <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="21"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="15"/>
-    </row>
-    <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="34"/>
-      <c r="B75" t="s" s="31">
+      <c r="E73" s="13"/>
+    </row>
+    <row r="74" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="19"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="13"/>
+    </row>
+    <row r="75" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="29"/>
+      <c r="B75" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C75" s="32"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="15"/>
-    </row>
-    <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" t="s" s="21">
+      <c r="C75" s="28"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="13"/>
+    </row>
+    <row r="76" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B76" t="s" s="22">
+      <c r="B76" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C76" s="23"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="15"/>
-    </row>
-    <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="24"/>
-      <c r="B77" t="s" s="14">
+      <c r="C76" s="36"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="13"/>
+    </row>
+    <row r="77" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="20"/>
+      <c r="B77" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C77" t="s" s="14">
+      <c r="C77" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D77" t="s" s="25">
+      <c r="D77" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E77" s="15"/>
-    </row>
-    <row r="78" ht="74.6" customHeight="1">
-      <c r="A78" t="s" s="21">
+      <c r="E77" s="13"/>
+    </row>
+    <row r="78" spans="1:5" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B78" s="35"/>
-      <c r="C78" t="s" s="26">
+      <c r="B78" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D78" t="s" s="37">
+      <c r="D78" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E78" s="15"/>
-    </row>
-    <row r="79" ht="134.6" customHeight="1">
-      <c r="A79" t="s" s="21">
+      <c r="E78" s="13"/>
+    </row>
+    <row r="79" spans="1:5" ht="134.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="35"/>
-      <c r="C79" t="s" s="26">
+      <c r="B79" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D79" t="s" s="37">
+      <c r="D79" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="E79" s="15"/>
-    </row>
-    <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" t="s" s="21">
+      <c r="E79" s="13"/>
+    </row>
+    <row r="80" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B80" s="35"/>
-      <c r="C80" s="39">
+      <c r="B80" s="42">
         <v>120</v>
       </c>
-      <c r="D80" s="27">
+      <c r="C80" s="23">
+        <v>120</v>
+      </c>
+      <c r="D80" s="23">
         <v>210</v>
       </c>
-      <c r="E80" s="15"/>
-    </row>
-    <row r="81" ht="86.6" customHeight="1">
-      <c r="A81" t="s" s="21">
+      <c r="E80" s="13"/>
+    </row>
+    <row r="81" spans="1:5" ht="86.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" t="s" s="37">
+      <c r="B81" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81" s="30"/>
+      <c r="D81" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="E81" s="40"/>
+      <c r="E81" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B36" r:id="rId1" location="" tooltip="" display="huggingface.co Space einrichten"/>
+    <hyperlink ref="B36" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
